--- a/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="0" windowWidth="31515" windowHeight="16965" tabRatio="311"/>
+    <workbookView xWindow="13305" yWindow="45" windowWidth="13230" windowHeight="30585" tabRatio="311" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Groupes" sheetId="1" r:id="rId1"/>
     <sheet name="Territorialité" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Groupes!$M$1:$M$677</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3636" uniqueCount="1956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3666" uniqueCount="1961">
   <si>
     <t>Autres</t>
   </si>
@@ -5888,6 +5889,21 @@
   </si>
   <si>
     <t>Catéchumènes 2010-13-15</t>
+  </si>
+  <si>
+    <t>Fonctions</t>
+  </si>
+  <si>
+    <t>Membre du bureau</t>
+  </si>
+  <si>
+    <t>Répondant</t>
+  </si>
+  <si>
+    <t>Responsable budgétaire</t>
+  </si>
+  <si>
+    <t>Boursier</t>
   </si>
 </sst>
 </file>
@@ -6214,7 +6230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6662,6 +6678,7 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7072,9 +7089,9 @@
   </sheetPr>
   <dimension ref="A1:AS677"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A352" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K325" sqref="K325"/>
+      <selection pane="topRight" activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
@@ -7260,7 +7277,7 @@
       <c r="AR4" s="7"/>
       <c r="AS4" s="7"/>
     </row>
-    <row r="5" spans="1:45" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="129">
         <v>10000</v>
       </c>
@@ -7317,7 +7334,7 @@
       <c r="AR5" s="32"/>
       <c r="AS5" s="32"/>
     </row>
-    <row r="6" spans="1:45" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="129">
         <v>11000</v>
       </c>
@@ -7374,7 +7391,7 @@
       <c r="AR6" s="32"/>
       <c r="AS6" s="32"/>
     </row>
-    <row r="7" spans="1:45" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>11100</v>
       </c>
@@ -7402,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>11110</v>
       </c>
@@ -7439,7 +7456,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>11120</v>
       </c>
@@ -7475,7 +7492,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>11130</v>
       </c>
@@ -7511,7 +7528,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>11140</v>
       </c>
@@ -7547,7 +7564,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:45" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>11150</v>
       </c>
@@ -7583,7 +7600,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>11160</v>
       </c>
@@ -7619,7 +7636,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>11200</v>
       </c>
@@ -7642,7 +7659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>11210</v>
       </c>
@@ -7678,7 +7695,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>11220</v>
       </c>
@@ -7714,7 +7731,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>11230</v>
       </c>
@@ -7750,7 +7767,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>11240</v>
       </c>
@@ -7786,7 +7803,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>11250</v>
       </c>
@@ -7822,7 +7839,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>11260</v>
       </c>
@@ -7858,7 +7875,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>11300</v>
       </c>
@@ -7881,7 +7898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>11310</v>
       </c>
@@ -7917,7 +7934,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>11320</v>
       </c>
@@ -7953,7 +7970,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>11330</v>
       </c>
@@ -7989,7 +8006,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>11340</v>
       </c>
@@ -8025,7 +8042,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>11350</v>
       </c>
@@ -8061,7 +8078,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>11360</v>
       </c>
@@ -8097,7 +8114,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>11400</v>
       </c>
@@ -8120,7 +8137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>11410</v>
       </c>
@@ -8156,7 +8173,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>11420</v>
       </c>
@@ -8192,7 +8209,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>11430</v>
       </c>
@@ -8227,7 +8244,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>11500</v>
       </c>
@@ -8252,7 +8269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>11510</v>
       </c>
@@ -8288,7 +8305,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>11520</v>
       </c>
@@ -8324,7 +8341,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>11530</v>
       </c>
@@ -8359,7 +8376,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>11540</v>
       </c>
@@ -8394,7 +8411,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>11600</v>
       </c>
@@ -8414,7 +8431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>11610</v>
       </c>
@@ -8449,7 +8466,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>11620</v>
       </c>
@@ -8484,7 +8501,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>11630</v>
       </c>
@@ -8519,7 +8536,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>11700</v>
       </c>
@@ -8539,7 +8556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>11710</v>
       </c>
@@ -8568,7 +8585,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>11720</v>
       </c>
@@ -8597,7 +8614,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>11730</v>
       </c>
@@ -8626,7 +8643,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>11740</v>
       </c>
@@ -8655,7 +8672,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>11750</v>
       </c>
@@ -8672,7 +8689,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>11800</v>
       </c>
@@ -8692,7 +8709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>11810</v>
       </c>
@@ -8721,7 +8738,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>11820</v>
       </c>
@@ -8750,7 +8767,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>11830</v>
       </c>
@@ -8779,7 +8796,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>11840</v>
       </c>
@@ -8808,7 +8825,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>11850</v>
       </c>
@@ -8837,7 +8854,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>11900</v>
       </c>
@@ -8857,7 +8874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>11910</v>
       </c>
@@ -8886,7 +8903,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>11920</v>
       </c>
@@ -8915,7 +8932,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
         <v>12000</v>
       </c>
@@ -8935,7 +8952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
         <v>12010</v>
       </c>
@@ -8965,7 +8982,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
         <v>12020</v>
       </c>
@@ -8983,7 +9000,7 @@
       </c>
       <c r="L58" s="113"/>
     </row>
-    <row r="59" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
         <v>12030</v>
       </c>
@@ -9001,7 +9018,7 @@
       </c>
       <c r="L59" s="113"/>
     </row>
-    <row r="60" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>12040</v>
       </c>
@@ -9031,7 +9048,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
         <v>12100</v>
       </c>
@@ -9052,7 +9069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
         <v>12110</v>
       </c>
@@ -9070,7 +9087,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
         <v>12120</v>
       </c>
@@ -9088,7 +9105,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
         <v>12130</v>
       </c>
@@ -9106,7 +9123,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
         <v>12140</v>
       </c>
@@ -9124,7 +9141,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
         <v>12200</v>
       </c>
@@ -9145,7 +9162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
         <v>12210</v>
       </c>
@@ -9163,7 +9180,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
         <v>12220</v>
       </c>
@@ -9181,7 +9198,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
         <v>12230</v>
       </c>
@@ -9199,7 +9216,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
         <v>12300</v>
       </c>
@@ -9220,7 +9237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
         <v>12310</v>
       </c>
@@ -9238,7 +9255,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
         <v>12320</v>
       </c>
@@ -9256,7 +9273,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
         <v>12400</v>
       </c>
@@ -9277,7 +9294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
         <v>12410</v>
       </c>
@@ -9295,7 +9312,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
         <v>12420</v>
       </c>
@@ -9313,7 +9330,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
         <v>12430</v>
       </c>
@@ -9331,7 +9348,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
         <v>12440</v>
       </c>
@@ -9349,7 +9366,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
         <v>12500</v>
       </c>
@@ -9370,7 +9387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
         <v>12510</v>
       </c>
@@ -9388,7 +9405,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
         <v>12520</v>
       </c>
@@ -9406,7 +9423,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
         <v>12530</v>
       </c>
@@ -9424,7 +9441,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
         <v>12540</v>
       </c>
@@ -9442,7 +9459,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
         <v>12550</v>
       </c>
@@ -9460,7 +9477,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
         <v>12560</v>
       </c>
@@ -9478,7 +9495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
         <v>12570</v>
       </c>
@@ -9496,7 +9513,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
         <v>12600</v>
       </c>
@@ -9517,7 +9534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
         <v>12610</v>
       </c>
@@ -9535,7 +9552,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
         <v>12620</v>
       </c>
@@ -9553,7 +9570,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
         <v>12630</v>
       </c>
@@ -9571,7 +9588,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
         <v>12640</v>
       </c>
@@ -9589,7 +9606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
         <v>12700</v>
       </c>
@@ -9610,7 +9627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
         <v>12710</v>
       </c>
@@ -9628,7 +9645,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
         <v>12720</v>
       </c>
@@ -9646,7 +9663,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
         <v>12800</v>
       </c>
@@ -9690,7 +9707,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
         <v>12810</v>
       </c>
@@ -9735,7 +9752,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="130">
         <v>15000</v>
       </c>
@@ -9756,7 +9773,7 @@
       <c r="K96" s="22"/>
       <c r="M96" s="47"/>
     </row>
-    <row r="97" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:23" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
         <v>15100</v>
       </c>
@@ -9773,7 +9790,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="98" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
         <v>15110</v>
       </c>
@@ -9805,7 +9822,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="99" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
         <v>15120</v>
       </c>
@@ -9837,7 +9854,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="100" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
         <v>15130</v>
       </c>
@@ -9870,7 +9887,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="101" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:23" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
         <v>15200</v>
       </c>
@@ -9887,7 +9904,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="102" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
         <v>15210</v>
       </c>
@@ -9920,7 +9937,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="103" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
         <v>15220</v>
       </c>
@@ -9953,7 +9970,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
         <v>15230</v>
       </c>
@@ -9986,7 +10003,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="105" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
         <v>15240</v>
       </c>
@@ -10019,7 +10036,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="106" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
         <v>15250</v>
       </c>
@@ -10052,7 +10069,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="107" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
         <v>15260</v>
       </c>
@@ -10085,7 +10102,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
         <v>15270</v>
       </c>
@@ -10117,7 +10134,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="109" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
         <v>15280</v>
       </c>
@@ -10149,7 +10166,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A110" s="19">
         <v>15290</v>
       </c>
@@ -10181,7 +10198,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="111" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A111" s="19">
         <v>15300</v>
       </c>
@@ -10214,7 +10231,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="112" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A112" s="19">
         <v>15310</v>
       </c>
@@ -10247,7 +10264,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A113" s="19">
         <v>15320</v>
       </c>
@@ -10280,7 +10297,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A114" s="19">
         <v>15330</v>
       </c>
@@ -10313,7 +10330,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="115" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A115" s="19">
         <v>15340</v>
       </c>
@@ -10346,7 +10363,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="116" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A116" s="19">
         <v>15350</v>
       </c>
@@ -10379,7 +10396,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="117" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A117" s="19">
         <v>15360</v>
       </c>
@@ -10411,7 +10428,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="118" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A118" s="19">
         <v>15370</v>
       </c>
@@ -10444,7 +10461,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="119" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A119" s="19">
         <v>15380</v>
       </c>
@@ -10477,7 +10494,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="120" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A120" s="19">
         <v>15390</v>
       </c>
@@ -10510,7 +10527,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="121" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:23" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A121" s="19">
         <v>15500</v>
       </c>
@@ -10527,7 +10544,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="122" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A122" s="19">
         <v>15510</v>
       </c>
@@ -10560,7 +10577,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="123" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A123" s="19">
         <v>15520</v>
       </c>
@@ -10593,7 +10610,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="124" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A124" s="19">
         <v>15530</v>
       </c>
@@ -10626,7 +10643,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="125" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A125" s="19">
         <v>15540</v>
       </c>
@@ -10659,7 +10676,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="126" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A126" s="19">
         <v>15550</v>
       </c>
@@ -10692,7 +10709,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A127" s="19">
         <v>15560</v>
       </c>
@@ -10725,7 +10742,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="128" spans="1:23" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:23" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A128" s="19">
         <v>15570</v>
       </c>
@@ -10758,7 +10775,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A129" s="19">
         <v>15580</v>
       </c>
@@ -10791,7 +10808,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A130" s="19">
         <v>15590</v>
       </c>
@@ -10824,7 +10841,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A131" s="19">
         <v>15600</v>
       </c>
@@ -10857,7 +10874,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A132" s="19">
         <v>15610</v>
       </c>
@@ -10890,7 +10907,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A133" s="19">
         <v>15620</v>
       </c>
@@ -10923,7 +10940,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
         <v>15630</v>
       </c>
@@ -10956,7 +10973,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A135" s="19">
         <v>15700</v>
       </c>
@@ -10973,7 +10990,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A136" s="19">
         <v>15710</v>
       </c>
@@ -10999,7 +11016,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A137" s="19">
         <v>15720</v>
       </c>
@@ -11025,7 +11042,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A138" s="19">
         <v>15800</v>
       </c>
@@ -11048,7 +11065,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A139" s="19">
         <v>15810</v>
       </c>
@@ -11073,7 +11090,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A140" s="130">
         <v>16000</v>
       </c>
@@ -11094,7 +11111,7 @@
       <c r="K140" s="22"/>
       <c r="M140" s="47"/>
     </row>
-    <row r="141" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A141" s="19">
         <v>16010</v>
       </c>
@@ -11120,7 +11137,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A142" s="19">
         <v>16020</v>
       </c>
@@ -11140,7 +11157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A143" s="19">
         <v>16100</v>
       </c>
@@ -11166,7 +11183,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A144" s="19">
         <v>16110</v>
       </c>
@@ -11186,7 +11203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="14.1" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="130">
         <v>20000</v>
       </c>
@@ -11207,7 +11224,7 @@
       <c r="K145" s="25"/>
       <c r="M145" s="48"/>
     </row>
-    <row r="146" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A146" s="130">
         <v>21000</v>
       </c>
@@ -11228,7 +11245,7 @@
       <c r="K146" s="22"/>
       <c r="M146" s="47"/>
     </row>
-    <row r="147" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A147" s="19">
         <v>21100</v>
       </c>
@@ -11245,7 +11262,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A148" s="19">
         <v>21110</v>
       </c>
@@ -11274,7 +11291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A149" s="19">
         <v>21120</v>
       </c>
@@ -11309,7 +11326,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A150" s="19">
         <v>21130</v>
       </c>
@@ -11344,7 +11361,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A151" s="19">
         <v>21140</v>
       </c>
@@ -11379,7 +11396,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A152" s="19">
         <v>21150</v>
       </c>
@@ -11414,7 +11431,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A153" s="19">
         <v>21160</v>
       </c>
@@ -11449,7 +11466,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A154" s="19">
         <v>21170</v>
       </c>
@@ -11484,7 +11501,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A155" s="19">
         <v>21180</v>
       </c>
@@ -11519,7 +11536,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A156" s="19">
         <v>21190</v>
       </c>
@@ -11554,7 +11571,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="157" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A157" s="19">
         <v>21200</v>
       </c>
@@ -11589,7 +11606,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A158" s="19">
         <v>21210</v>
       </c>
@@ -11624,7 +11641,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A159" s="19">
         <v>21220</v>
       </c>
@@ -11659,7 +11676,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A160" s="19">
         <v>21230</v>
       </c>
@@ -11694,7 +11711,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A161" s="19">
         <v>21240</v>
       </c>
@@ -11729,7 +11746,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A162" s="19">
         <v>21250</v>
       </c>
@@ -11767,7 +11784,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A163" s="19">
         <v>21260</v>
       </c>
@@ -11805,7 +11822,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A164" s="19">
         <v>21300</v>
       </c>
@@ -11822,7 +11839,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A165" s="19">
         <v>21310</v>
       </c>
@@ -11860,7 +11877,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A166" s="19">
         <v>21320</v>
       </c>
@@ -11898,7 +11915,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A167" s="19">
         <v>21330</v>
       </c>
@@ -11933,7 +11950,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A168" s="19">
         <v>21340</v>
       </c>
@@ -11971,7 +11988,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A169" s="19">
         <v>21350</v>
       </c>
@@ -12009,7 +12026,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A170" s="19">
         <v>21360</v>
       </c>
@@ -12047,7 +12064,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A171" s="19">
         <v>21370</v>
       </c>
@@ -12085,7 +12102,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A172" s="19">
         <v>21380</v>
       </c>
@@ -12123,7 +12140,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A173" s="19">
         <v>21400</v>
       </c>
@@ -12141,7 +12158,7 @@
       </c>
       <c r="J173" s="122"/>
     </row>
-    <row r="174" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A174" s="19">
         <v>21410</v>
       </c>
@@ -12179,7 +12196,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A175" s="19">
         <v>21420</v>
       </c>
@@ -12217,7 +12234,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A176" s="19">
         <v>21430</v>
       </c>
@@ -12255,7 +12272,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A177" s="19">
         <v>21440</v>
       </c>
@@ -12293,7 +12310,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A178" s="19">
         <v>21450</v>
       </c>
@@ -12331,7 +12348,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A179" s="19">
         <v>21460</v>
       </c>
@@ -12369,7 +12386,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A180" s="19">
         <v>21470</v>
       </c>
@@ -12407,7 +12424,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A181" s="19">
         <v>21480</v>
       </c>
@@ -12445,7 +12462,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A182" s="19">
         <v>21490</v>
       </c>
@@ -12483,7 +12500,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="183" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A183" s="19">
         <v>21600</v>
       </c>
@@ -12500,7 +12517,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A184" s="19">
         <v>21610</v>
       </c>
@@ -12532,7 +12549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A185" s="19">
         <v>21620</v>
       </c>
@@ -12564,7 +12581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A186" s="19">
         <v>21630</v>
       </c>
@@ -12596,7 +12613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A187" s="130">
         <v>22000</v>
       </c>
@@ -12617,7 +12634,7 @@
       <c r="K187" s="22"/>
       <c r="M187" s="47"/>
     </row>
-    <row r="188" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A188" s="19">
         <v>22100</v>
       </c>
@@ -12644,7 +12661,7 @@
       <c r="V188" s="70"/>
       <c r="W188" s="76"/>
     </row>
-    <row r="189" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A189" s="19">
         <v>22110</v>
       </c>
@@ -12679,7 +12696,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A190" s="19">
         <v>22120</v>
       </c>
@@ -12704,7 +12721,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A191" s="19">
         <v>22130</v>
       </c>
@@ -12729,7 +12746,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A192" s="19">
         <v>22140</v>
       </c>
@@ -12748,7 +12765,7 @@
       <c r="L192" s="104"/>
       <c r="M192" s="10"/>
     </row>
-    <row r="193" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A193" s="19">
         <v>22150</v>
       </c>
@@ -12780,7 +12797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A194" s="19">
         <v>22160</v>
       </c>
@@ -12797,7 +12814,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A195" s="19">
         <v>22200</v>
       </c>
@@ -12814,7 +12831,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A196" s="19">
         <v>22210</v>
       </c>
@@ -12846,7 +12863,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A197" s="19">
         <v>22220</v>
       </c>
@@ -12866,7 +12883,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A198" s="19">
         <v>22230</v>
       </c>
@@ -12901,7 +12918,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A199" s="19">
         <v>22240</v>
       </c>
@@ -12928,7 +12945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A200" s="19">
         <v>22250</v>
       </c>
@@ -12954,7 +12971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A201" s="19">
         <v>22260</v>
       </c>
@@ -12990,7 +13007,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A202" s="19">
         <v>22270</v>
       </c>
@@ -13020,7 +13037,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A203" s="19">
         <v>22300</v>
       </c>
@@ -13049,7 +13066,7 @@
       <c r="V203" s="70"/>
       <c r="W203" s="76"/>
     </row>
-    <row r="204" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A204" s="19">
         <v>22310</v>
       </c>
@@ -13086,7 +13103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A205" s="19">
         <v>22320</v>
       </c>
@@ -13105,7 +13122,7 @@
       <c r="L205" s="115"/>
       <c r="M205" s="49"/>
     </row>
-    <row r="206" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A206" s="19">
         <v>22330</v>
       </c>
@@ -13136,7 +13153,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A207" s="19">
         <v>22340</v>
       </c>
@@ -13165,7 +13182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A208" s="19">
         <v>22350</v>
       </c>
@@ -13195,7 +13212,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A209" s="19">
         <v>22360</v>
       </c>
@@ -13227,7 +13244,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A210" s="19">
         <v>22370</v>
       </c>
@@ -13257,7 +13274,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A211" s="19">
         <v>22380</v>
       </c>
@@ -13280,7 +13297,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A212" s="19">
         <v>22400</v>
       </c>
@@ -13303,7 +13320,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A213" s="19">
         <v>22410</v>
       </c>
@@ -13329,7 +13346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A214" s="19">
         <v>22420</v>
       </c>
@@ -13349,7 +13366,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A215" s="19">
         <v>22430</v>
       </c>
@@ -13378,7 +13395,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A216" s="19">
         <v>22440</v>
       </c>
@@ -13406,7 +13423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A217" s="19">
         <v>22450</v>
       </c>
@@ -13440,7 +13457,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A218" s="19">
         <v>22500</v>
       </c>
@@ -13458,7 +13475,7 @@
       </c>
       <c r="L218" s="104"/>
     </row>
-    <row r="219" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A219" s="19">
         <v>22510</v>
       </c>
@@ -13492,7 +13509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A220" s="19">
         <v>22520</v>
       </c>
@@ -13515,7 +13532,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A221" s="19">
         <v>22600</v>
       </c>
@@ -13533,7 +13550,7 @@
       </c>
       <c r="M221" s="10"/>
     </row>
-    <row r="222" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A222" s="19">
         <v>22610</v>
       </c>
@@ -13565,7 +13582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A223" s="19">
         <v>22620</v>
       </c>
@@ -13589,7 +13606,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A224" s="19">
         <v>22700</v>
       </c>
@@ -13606,7 +13623,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A225" s="19">
         <v>22710</v>
       </c>
@@ -13638,7 +13655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A226" s="19">
         <v>22720</v>
       </c>
@@ -13661,7 +13678,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A227" s="130">
         <v>23000</v>
       </c>
@@ -13683,7 +13700,7 @@
       <c r="L227" s="115"/>
       <c r="M227" s="50"/>
     </row>
-    <row r="228" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A228" s="19">
         <v>23100</v>
       </c>
@@ -13710,7 +13727,7 @@
       <c r="V228" s="70"/>
       <c r="W228" s="76"/>
     </row>
-    <row r="229" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A229" s="19">
         <v>23110</v>
       </c>
@@ -13746,7 +13763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A230" s="19">
         <v>23120</v>
       </c>
@@ -13770,7 +13787,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="231" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A231" s="19">
         <v>23200</v>
       </c>
@@ -13798,7 +13815,7 @@
       <c r="V231" s="70"/>
       <c r="W231" s="76"/>
     </row>
-    <row r="232" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A232" s="19">
         <v>23210</v>
       </c>
@@ -13835,7 +13852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A233" s="19">
         <v>23220</v>
       </c>
@@ -13859,7 +13876,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A234" s="19">
         <v>23300</v>
       </c>
@@ -13887,7 +13904,7 @@
       <c r="V234" s="70"/>
       <c r="W234" s="76"/>
     </row>
-    <row r="235" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A235" s="19">
         <v>23310</v>
       </c>
@@ -13923,7 +13940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A236" s="19">
         <v>23320</v>
       </c>
@@ -13947,7 +13964,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A237" s="19">
         <v>23400</v>
       </c>
@@ -13975,7 +13992,7 @@
       <c r="V237" s="70"/>
       <c r="W237" s="76"/>
     </row>
-    <row r="238" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A238" s="19">
         <v>23410</v>
       </c>
@@ -14011,7 +14028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A239" s="19">
         <v>23420</v>
       </c>
@@ -14035,7 +14052,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A240" s="130">
         <v>24000</v>
       </c>
@@ -14056,7 +14073,7 @@
       <c r="K240" s="22"/>
       <c r="M240" s="47"/>
     </row>
-    <row r="241" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A241" s="19">
         <v>24100</v>
       </c>
@@ -14078,7 +14095,7 @@
       <c r="P241" s="58"/>
       <c r="Q241" s="61"/>
     </row>
-    <row r="242" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A242" s="19">
         <v>24110</v>
       </c>
@@ -14096,7 +14113,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A243" s="19">
         <v>24120</v>
       </c>
@@ -14122,7 +14139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A244" s="19">
         <v>24130</v>
       </c>
@@ -14148,7 +14165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A245" s="19">
         <v>24140</v>
       </c>
@@ -14165,7 +14182,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A246" s="19">
         <v>24150</v>
       </c>
@@ -14191,7 +14208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A247" s="19">
         <v>24160</v>
       </c>
@@ -14217,7 +14234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A248" s="19">
         <v>24200</v>
       </c>
@@ -14235,7 +14252,7 @@
       </c>
       <c r="M248" s="46"/>
     </row>
-    <row r="249" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A249" s="19">
         <v>24210</v>
       </c>
@@ -14253,7 +14270,7 @@
       </c>
       <c r="M249" s="46"/>
     </row>
-    <row r="250" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A250" s="19">
         <v>24220</v>
       </c>
@@ -14279,7 +14296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A251" s="19">
         <v>24230</v>
       </c>
@@ -14305,7 +14322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A252" s="130">
         <v>25000</v>
       </c>
@@ -14326,7 +14343,7 @@
       <c r="K252" s="22"/>
       <c r="M252" s="47"/>
     </row>
-    <row r="253" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A253" s="19">
         <v>25100</v>
       </c>
@@ -14343,7 +14360,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A254" s="19">
         <v>25110</v>
       </c>
@@ -14366,7 +14383,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A255" s="19">
         <v>25120</v>
       </c>
@@ -14389,7 +14406,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A256" s="19">
         <v>25130</v>
       </c>
@@ -14412,7 +14429,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="257" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A257" s="19">
         <v>25140</v>
       </c>
@@ -14435,7 +14452,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="258" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A258" s="19">
         <v>25150</v>
       </c>
@@ -14458,7 +14475,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="259" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A259" s="19">
         <v>25200</v>
       </c>
@@ -14476,7 +14493,7 @@
       </c>
       <c r="K259" s="14"/>
     </row>
-    <row r="260" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A260" s="19">
         <v>25210</v>
       </c>
@@ -14499,7 +14516,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="261" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A261" s="19">
         <v>25300</v>
       </c>
@@ -14517,7 +14534,7 @@
       </c>
       <c r="K261" s="14"/>
     </row>
-    <row r="262" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A262" s="19">
         <v>25310</v>
       </c>
@@ -14540,7 +14557,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A263" s="19">
         <v>25400</v>
       </c>
@@ -14558,7 +14575,7 @@
       </c>
       <c r="K263" s="14"/>
     </row>
-    <row r="264" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A264" s="19">
         <v>25410</v>
       </c>
@@ -14581,7 +14598,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="265" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A265" s="19">
         <v>25500</v>
       </c>
@@ -14599,7 +14616,7 @@
       </c>
       <c r="K265" s="14"/>
     </row>
-    <row r="266" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A266" s="19">
         <v>25510</v>
       </c>
@@ -14622,7 +14639,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A267" s="19">
         <v>25600</v>
       </c>
@@ -14640,7 +14657,7 @@
       </c>
       <c r="K267" s="14"/>
     </row>
-    <row r="268" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A268" s="19">
         <v>25610</v>
       </c>
@@ -14663,7 +14680,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="269" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A269" s="19">
         <v>25700</v>
       </c>
@@ -14681,7 +14698,7 @@
       </c>
       <c r="K269" s="14"/>
     </row>
-    <row r="270" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A270" s="19">
         <v>25710</v>
       </c>
@@ -14704,7 +14721,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="271" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A271" s="19">
         <v>25800</v>
       </c>
@@ -14721,7 +14738,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="272" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A272" s="19">
         <v>25810</v>
       </c>
@@ -14747,7 +14764,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A273" s="19">
         <v>25820</v>
       </c>
@@ -14770,7 +14787,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A274" s="19">
         <v>25900</v>
       </c>
@@ -14788,7 +14805,7 @@
       </c>
       <c r="K274" s="14"/>
     </row>
-    <row r="275" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A275" s="19">
         <v>25910</v>
       </c>
@@ -14811,7 +14828,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A276" s="19">
         <v>26000</v>
       </c>
@@ -14829,7 +14846,7 @@
       </c>
       <c r="K276" s="14"/>
     </row>
-    <row r="277" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A277" s="19">
         <v>26010</v>
       </c>
@@ -14852,7 +14869,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A278" s="19">
         <v>26020</v>
       </c>
@@ -14875,7 +14892,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A279" s="19">
         <v>26100</v>
       </c>
@@ -14892,7 +14909,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A280" s="19">
         <v>26110</v>
       </c>
@@ -14915,7 +14932,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A281" s="19">
         <v>26200</v>
       </c>
@@ -14932,7 +14949,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="282" spans="1:27" ht="14.1" hidden="1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A282" s="19">
         <v>26210</v>
       </c>
@@ -24353,7 +24370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A4" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -24901,4 +24918,172 @@
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="155" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13305" yWindow="45" windowWidth="13230" windowHeight="30585" tabRatio="311"/>
+    <workbookView xWindow="13305" yWindow="45" windowWidth="13230" windowHeight="24240" tabRatio="311"/>
   </bookViews>
   <sheets>
     <sheet name="Groupes" sheetId="1" r:id="rId1"/>
@@ -1940,21 +1940,6 @@
     <t>1.1.4 - 3</t>
   </si>
   <si>
-    <t>1.1.4 - 4</t>
-  </si>
-  <si>
-    <t>1.1.4 - 5</t>
-  </si>
-  <si>
-    <t>1.1.4 - 6</t>
-  </si>
-  <si>
-    <t>1.1.4 - 7</t>
-  </si>
-  <si>
-    <t>1.1.4 - 8</t>
-  </si>
-  <si>
     <t>1.1.6</t>
   </si>
   <si>
@@ -3980,21 +3965,6 @@
     <t>0101040300</t>
   </si>
   <si>
-    <t>0101040400</t>
-  </si>
-  <si>
-    <t>0101040500</t>
-  </si>
-  <si>
-    <t>0101040600</t>
-  </si>
-  <si>
-    <t>0101040700</t>
-  </si>
-  <si>
-    <t>0101040800</t>
-  </si>
-  <si>
     <t>0101060000</t>
   </si>
   <si>
@@ -4212,24 +4182,6 @@
   </si>
   <si>
     <t>0201010101</t>
-  </si>
-  <si>
-    <t>02010101010</t>
-  </si>
-  <si>
-    <t>02010101011</t>
-  </si>
-  <si>
-    <t>02010101012</t>
-  </si>
-  <si>
-    <t>02010101013</t>
-  </si>
-  <si>
-    <t>02010101014</t>
-  </si>
-  <si>
-    <t>02010101015</t>
   </si>
   <si>
     <t>0201010102</t>
@@ -5896,6 +5848,54 @@
   </si>
   <si>
     <t>Feuille</t>
+  </si>
+  <si>
+    <t>0101050000</t>
+  </si>
+  <si>
+    <t>0101050100</t>
+  </si>
+  <si>
+    <t>0101050200</t>
+  </si>
+  <si>
+    <t>0101050300</t>
+  </si>
+  <si>
+    <t>0101050400</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.5 - 1</t>
+  </si>
+  <si>
+    <t>1.1.5 - 2</t>
+  </si>
+  <si>
+    <t>1.1.5 - 3</t>
+  </si>
+  <si>
+    <t>1.1.5 - 4</t>
+  </si>
+  <si>
+    <t>0201010110</t>
+  </si>
+  <si>
+    <t>0201010111</t>
+  </si>
+  <si>
+    <t>0201010112</t>
+  </si>
+  <si>
+    <t>0201010113</t>
+  </si>
+  <si>
+    <t>0201010114</t>
+  </si>
+  <si>
+    <t>0201010115</t>
   </si>
 </sst>
 </file>
@@ -7129,8 +7129,8 @@
   <dimension ref="A1:AS677"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y5" sqref="Y5"/>
+      <pane ySplit="4" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
@@ -7187,7 +7187,7 @@
       <c r="L1" s="163"/>
       <c r="M1" s="164"/>
       <c r="N1" s="156" t="s">
-        <v>1926</v>
+        <v>1910</v>
       </c>
       <c r="O1" s="157"/>
       <c r="P1" s="157"/>
@@ -7236,7 +7236,7 @@
     <row r="4" spans="1:45" s="5" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A4" s="128"/>
       <c r="C4" s="5" t="s">
-        <v>1916</v>
+        <v>1900</v>
       </c>
       <c r="D4" s="126"/>
       <c r="E4" s="9" t="s">
@@ -7292,7 +7292,7 @@
         <v>349</v>
       </c>
       <c r="Y4" s="78" t="s">
-        <v>1921</v>
+        <v>1905</v>
       </c>
       <c r="Z4" s="78" t="s">
         <v>452</v>
@@ -7301,10 +7301,10 @@
         <v>563</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>1928</v>
+        <v>1912</v>
       </c>
       <c r="AC4" s="141" t="s">
-        <v>1957</v>
+        <v>1941</v>
       </c>
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
@@ -7331,7 +7331,7 @@
         <v>612</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="D5" s="126">
         <v>1</v>
@@ -7388,7 +7388,7 @@
         <v>613</v>
       </c>
       <c r="C6" s="98" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="D6" s="126"/>
       <c r="E6" s="23"/>
@@ -7445,7 +7445,7 @@
         <v>614</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="103"/>
@@ -7476,7 +7476,7 @@
         <v>615</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="J8" s="104">
         <v>1</v>
@@ -7515,7 +7515,7 @@
         <v>616</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="J9" s="104">
         <v>2</v>
@@ -7553,7 +7553,7 @@
         <v>617</v>
       </c>
       <c r="C10" s="98" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="J10" s="104">
         <v>3</v>
@@ -7591,7 +7591,7 @@
         <v>618</v>
       </c>
       <c r="C11" s="98" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="J11" s="104">
         <v>4</v>
@@ -7629,7 +7629,7 @@
         <v>619</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="J12" s="104">
         <v>5</v>
@@ -7667,7 +7667,7 @@
         <v>620</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="J13" s="104">
         <v>6</v>
@@ -7705,7 +7705,7 @@
         <v>621</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="H14" s="104">
         <v>2</v>
@@ -7730,7 +7730,7 @@
         <v>622</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="J15" s="104">
         <v>1</v>
@@ -7768,7 +7768,7 @@
         <v>623</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="J16" s="104">
         <v>2</v>
@@ -7806,7 +7806,7 @@
         <v>624</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="J17" s="104">
         <v>3</v>
@@ -7844,7 +7844,7 @@
         <v>625</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="J18" s="104">
         <v>4</v>
@@ -7882,7 +7882,7 @@
         <v>626</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="J19" s="104">
         <v>5</v>
@@ -7920,7 +7920,7 @@
         <v>627</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="J20" s="104">
         <v>6</v>
@@ -7958,7 +7958,7 @@
         <v>628</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="H21" s="104">
         <v>3</v>
@@ -7984,7 +7984,7 @@
         <v>629</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="J22" s="104">
         <v>1</v>
@@ -8023,7 +8023,7 @@
         <v>630</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="J23" s="104">
         <v>2</v>
@@ -8062,7 +8062,7 @@
         <v>631</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="J24" s="104">
         <v>3</v>
@@ -8101,7 +8101,7 @@
         <v>632</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="J25" s="104">
         <v>4</v>
@@ -8140,7 +8140,7 @@
         <v>633</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="J26" s="104">
         <v>5</v>
@@ -8179,7 +8179,7 @@
         <v>634</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="J27" s="104">
         <v>6</v>
@@ -8218,7 +8218,7 @@
         <v>635</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="H28" s="104">
         <v>4</v>
@@ -8244,7 +8244,7 @@
         <v>636</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="J29" s="104">
         <v>1</v>
@@ -8283,7 +8283,7 @@
         <v>637</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="J30" s="104">
         <v>2</v>
@@ -8322,7 +8322,7 @@
         <v>638</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="J31" s="104">
         <v>3</v>
@@ -8357,10 +8357,10 @@
         <v>11500</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>639</v>
+        <v>1947</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>1319</v>
+        <v>1942</v>
       </c>
       <c r="H32" s="104">
         <v>5</v>
@@ -8385,10 +8385,10 @@
         <v>11510</v>
       </c>
       <c r="B33" s="98" t="s">
-        <v>640</v>
+        <v>1948</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>1320</v>
+        <v>1943</v>
       </c>
       <c r="J33" s="104">
         <v>5</v>
@@ -8424,10 +8424,10 @@
         <v>11520</v>
       </c>
       <c r="B34" s="98" t="s">
-        <v>641</v>
+        <v>1949</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>1321</v>
+        <v>1944</v>
       </c>
       <c r="J34" s="104">
         <v>6</v>
@@ -8463,10 +8463,10 @@
         <v>11530</v>
       </c>
       <c r="B35" s="98" t="s">
-        <v>642</v>
+        <v>1950</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>1322</v>
+        <v>1945</v>
       </c>
       <c r="J35" s="104">
         <v>7</v>
@@ -8501,10 +8501,10 @@
         <v>11540</v>
       </c>
       <c r="B36" s="98" t="s">
-        <v>643</v>
+        <v>1951</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>1323</v>
+        <v>1946</v>
       </c>
       <c r="J36" s="104">
         <v>8</v>
@@ -8539,10 +8539,10 @@
         <v>11600</v>
       </c>
       <c r="B37" s="98" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C37" s="98" t="s">
-        <v>1324</v>
+        <v>1314</v>
       </c>
       <c r="H37" s="104">
         <v>6</v>
@@ -8562,10 +8562,10 @@
         <v>11610</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>1325</v>
+        <v>1315</v>
       </c>
       <c r="J38" s="104">
         <v>1</v>
@@ -8600,10 +8600,10 @@
         <v>11620</v>
       </c>
       <c r="B39" s="98" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C39" s="98" t="s">
-        <v>1326</v>
+        <v>1316</v>
       </c>
       <c r="J39" s="104">
         <v>2</v>
@@ -8638,10 +8638,10 @@
         <v>11630</v>
       </c>
       <c r="B40" s="98" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>1327</v>
+        <v>1317</v>
       </c>
       <c r="J40" s="104">
         <v>3</v>
@@ -8676,10 +8676,10 @@
         <v>11700</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>1328</v>
+        <v>1318</v>
       </c>
       <c r="H41" s="104">
         <v>7</v>
@@ -8699,10 +8699,10 @@
         <v>11710</v>
       </c>
       <c r="B42" s="98" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C42" s="98" t="s">
-        <v>1329</v>
+        <v>1319</v>
       </c>
       <c r="J42" s="104">
         <v>1</v>
@@ -8731,10 +8731,10 @@
         <v>11720</v>
       </c>
       <c r="B43" s="98" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>1330</v>
+        <v>1320</v>
       </c>
       <c r="J43" s="104">
         <v>2</v>
@@ -8763,10 +8763,10 @@
         <v>11730</v>
       </c>
       <c r="B44" s="98" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C44" s="98" t="s">
-        <v>1331</v>
+        <v>1321</v>
       </c>
       <c r="J44" s="104">
         <v>3</v>
@@ -8795,10 +8795,10 @@
         <v>11740</v>
       </c>
       <c r="B45" s="98" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C45" s="98" t="s">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="J45" s="104">
         <v>4</v>
@@ -8827,10 +8827,10 @@
         <v>11750</v>
       </c>
       <c r="B46" s="98" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C46" s="98" t="s">
-        <v>1333</v>
+        <v>1323</v>
       </c>
       <c r="J46" s="104">
         <v>5</v>
@@ -8847,10 +8847,10 @@
         <v>11800</v>
       </c>
       <c r="B47" s="98" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C47" s="98" t="s">
-        <v>1334</v>
+        <v>1324</v>
       </c>
       <c r="H47" s="104">
         <v>8</v>
@@ -8870,10 +8870,10 @@
         <v>11810</v>
       </c>
       <c r="B48" s="98" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C48" s="98" t="s">
-        <v>1335</v>
+        <v>1325</v>
       </c>
       <c r="J48" s="104">
         <v>1</v>
@@ -8902,10 +8902,10 @@
         <v>11820</v>
       </c>
       <c r="B49" s="98" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>1336</v>
+        <v>1326</v>
       </c>
       <c r="J49" s="104">
         <v>2</v>
@@ -8934,10 +8934,10 @@
         <v>11830</v>
       </c>
       <c r="B50" s="98" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C50" s="98" t="s">
-        <v>1337</v>
+        <v>1327</v>
       </c>
       <c r="J50" s="104">
         <v>3</v>
@@ -8966,10 +8966,10 @@
         <v>11840</v>
       </c>
       <c r="B51" s="98" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C51" s="98" t="s">
-        <v>1338</v>
+        <v>1328</v>
       </c>
       <c r="J51" s="104">
         <v>4</v>
@@ -8998,10 +8998,10 @@
         <v>11850</v>
       </c>
       <c r="B52" s="98" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>1339</v>
+        <v>1329</v>
       </c>
       <c r="J52" s="104">
         <v>5</v>
@@ -9030,10 +9030,10 @@
         <v>11900</v>
       </c>
       <c r="B53" s="98" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C53" s="98" t="s">
-        <v>1340</v>
+        <v>1330</v>
       </c>
       <c r="H53" s="104">
         <v>9</v>
@@ -9053,10 +9053,10 @@
         <v>11910</v>
       </c>
       <c r="B54" s="98" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C54" s="98" t="s">
-        <v>1341</v>
+        <v>1331</v>
       </c>
       <c r="J54" s="104">
         <v>1</v>
@@ -9085,10 +9085,10 @@
         <v>11920</v>
       </c>
       <c r="B55" s="98" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C55" s="98" t="s">
-        <v>1342</v>
+        <v>1332</v>
       </c>
       <c r="J55" s="104">
         <v>2</v>
@@ -9117,10 +9117,10 @@
         <v>12000</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C56" s="98" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="H56" s="104">
         <v>10</v>
@@ -9140,10 +9140,10 @@
         <v>12010</v>
       </c>
       <c r="B57" s="98" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C57" s="98" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="J57" s="104">
         <v>1</v>
@@ -9173,10 +9173,10 @@
         <v>12020</v>
       </c>
       <c r="B58" s="98" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C58" s="98" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="J58" s="107">
         <v>2</v>
@@ -9194,10 +9194,10 @@
         <v>12030</v>
       </c>
       <c r="B59" s="98" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C59" s="98" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="J59" s="107">
         <v>3</v>
@@ -9215,10 +9215,10 @@
         <v>12040</v>
       </c>
       <c r="B60" s="98" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C60" s="98" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="J60" s="107">
         <v>4</v>
@@ -9248,10 +9248,10 @@
         <v>12100</v>
       </c>
       <c r="B61" s="98" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="H61" s="104">
         <v>11</v>
@@ -9272,10 +9272,10 @@
         <v>12110</v>
       </c>
       <c r="B62" s="98" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C62" s="98" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="I62" s="14"/>
       <c r="J62" s="104">
@@ -9293,10 +9293,10 @@
         <v>12120</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C63" s="98" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="104">
@@ -9314,10 +9314,10 @@
         <v>12130</v>
       </c>
       <c r="B64" s="98" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C64" s="98" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="I64" s="14"/>
       <c r="J64" s="104">
@@ -9335,10 +9335,10 @@
         <v>12140</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C65" s="98" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="I65" s="14"/>
       <c r="J65" s="104">
@@ -9356,10 +9356,10 @@
         <v>12200</v>
       </c>
       <c r="B66" s="98" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C66" s="98" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="H66" s="104">
         <v>12</v>
@@ -9380,10 +9380,10 @@
         <v>12210</v>
       </c>
       <c r="B67" s="98" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C67" s="98" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="I67" s="14"/>
       <c r="J67" s="104">
@@ -9401,10 +9401,10 @@
         <v>12220</v>
       </c>
       <c r="B68" s="98" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C68" s="98" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="I68" s="14"/>
       <c r="J68" s="104">
@@ -9422,10 +9422,10 @@
         <v>12230</v>
       </c>
       <c r="B69" s="98" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C69" s="98" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="I69" s="14"/>
       <c r="J69" s="104">
@@ -9443,16 +9443,16 @@
         <v>12300</v>
       </c>
       <c r="B70" s="98" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C70" s="98" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="H70" s="104">
         <v>13</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>1929</v>
+        <v>1913</v>
       </c>
       <c r="K70" s="14"/>
       <c r="Y70" s="77">
@@ -9467,10 +9467,10 @@
         <v>12310</v>
       </c>
       <c r="B71" s="98" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C71" s="98" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="I71" s="14"/>
       <c r="J71" s="104">
@@ -9488,10 +9488,10 @@
         <v>12320</v>
       </c>
       <c r="B72" s="98" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C72" s="98" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="I72" s="14"/>
       <c r="J72" s="104">
@@ -9509,10 +9509,10 @@
         <v>12400</v>
       </c>
       <c r="B73" s="98" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C73" s="98" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="H73" s="104">
         <v>14</v>
@@ -9533,10 +9533,10 @@
         <v>12410</v>
       </c>
       <c r="B74" s="98" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C74" s="98" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="I74" s="14"/>
       <c r="J74" s="104">
@@ -9554,10 +9554,10 @@
         <v>12420</v>
       </c>
       <c r="B75" s="98" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C75" s="98" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="I75" s="14"/>
       <c r="J75" s="104">
@@ -9575,10 +9575,10 @@
         <v>12430</v>
       </c>
       <c r="B76" s="98" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C76" s="98" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="I76" s="14"/>
       <c r="J76" s="104">
@@ -9596,10 +9596,10 @@
         <v>12440</v>
       </c>
       <c r="B77" s="98" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C77" s="98" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="I77" s="14"/>
       <c r="J77" s="104">
@@ -9617,10 +9617,10 @@
         <v>12500</v>
       </c>
       <c r="B78" s="98" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C78" s="98" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="H78" s="104">
         <v>15</v>
@@ -9641,10 +9641,10 @@
         <v>12510</v>
       </c>
       <c r="B79" s="98" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C79" s="98" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="I79" s="14"/>
       <c r="J79" s="104">
@@ -9662,10 +9662,10 @@
         <v>12520</v>
       </c>
       <c r="B80" s="98" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C80" s="98" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="104">
@@ -9683,10 +9683,10 @@
         <v>12530</v>
       </c>
       <c r="B81" s="98" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C81" s="98" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="104">
@@ -9704,10 +9704,10 @@
         <v>12540</v>
       </c>
       <c r="B82" s="98" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C82" s="98" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="I82" s="14"/>
       <c r="J82" s="104">
@@ -9725,10 +9725,10 @@
         <v>12550</v>
       </c>
       <c r="B83" s="98" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C83" s="98" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="104">
@@ -9746,10 +9746,10 @@
         <v>12560</v>
       </c>
       <c r="B84" s="98" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C84" s="98" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="I84" s="14"/>
       <c r="J84" s="104">
@@ -9767,10 +9767,10 @@
         <v>12570</v>
       </c>
       <c r="B85" s="98" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C85" s="98" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="104">
@@ -9788,10 +9788,10 @@
         <v>12600</v>
       </c>
       <c r="B86" s="98" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C86" s="98" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="H86" s="104">
         <v>16</v>
@@ -9812,10 +9812,10 @@
         <v>12610</v>
       </c>
       <c r="B87" s="98" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C87" s="98" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="I87" s="14"/>
       <c r="J87" s="104">
@@ -9833,10 +9833,10 @@
         <v>12620</v>
       </c>
       <c r="B88" s="98" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C88" s="98" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="I88" s="14"/>
       <c r="J88" s="104">
@@ -9854,10 +9854,10 @@
         <v>12630</v>
       </c>
       <c r="B89" s="98" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C89" s="98" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="104">
@@ -9875,10 +9875,10 @@
         <v>12640</v>
       </c>
       <c r="B90" s="98" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C90" s="98" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="I90" s="14"/>
       <c r="J90" s="104">
@@ -9896,10 +9896,10 @@
         <v>12700</v>
       </c>
       <c r="B91" s="98" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C91" s="98" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="H91" s="104">
         <v>17</v>
@@ -9920,10 +9920,10 @@
         <v>12710</v>
       </c>
       <c r="B92" s="98" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C92" s="98" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="I92" s="14"/>
       <c r="J92" s="104">
@@ -9941,10 +9941,10 @@
         <v>12720</v>
       </c>
       <c r="B93" s="98" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C93" s="98" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="104">
@@ -9962,10 +9962,10 @@
         <v>15000</v>
       </c>
       <c r="B94" s="98" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C94" s="98" t="s">
-        <v>1343</v>
+        <v>1333</v>
       </c>
       <c r="E94" s="30"/>
       <c r="F94" s="100">
@@ -9986,10 +9986,10 @@
         <v>15100</v>
       </c>
       <c r="B95" s="98" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C95" s="98" t="s">
-        <v>1344</v>
+        <v>1334</v>
       </c>
       <c r="H95" s="104">
         <v>1</v>
@@ -10006,10 +10006,10 @@
         <v>15110</v>
       </c>
       <c r="B96" s="98" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C96" s="98" t="s">
-        <v>1345</v>
+        <v>1335</v>
       </c>
       <c r="J96" s="104">
         <v>1</v>
@@ -10041,10 +10041,10 @@
         <v>15120</v>
       </c>
       <c r="B97" s="98" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C97" s="98" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="J97" s="104">
         <v>2</v>
@@ -10076,10 +10076,10 @@
         <v>15130</v>
       </c>
       <c r="B98" s="98" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C98" s="98" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="J98" s="104">
         <v>3</v>
@@ -10112,10 +10112,10 @@
         <v>15200</v>
       </c>
       <c r="B99" s="98" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C99" s="98" t="s">
-        <v>1348</v>
+        <v>1338</v>
       </c>
       <c r="H99" s="104">
         <v>2</v>
@@ -10132,10 +10132,10 @@
         <v>15210</v>
       </c>
       <c r="B100" s="98" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C100" s="98" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="J100" s="104">
         <v>1</v>
@@ -10168,10 +10168,10 @@
         <v>15220</v>
       </c>
       <c r="B101" s="98" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C101" s="98" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="J101" s="104">
         <v>2</v>
@@ -10204,10 +10204,10 @@
         <v>15230</v>
       </c>
       <c r="B102" s="98" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C102" s="98" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="J102" s="104">
         <v>3</v>
@@ -10240,10 +10240,10 @@
         <v>15240</v>
       </c>
       <c r="B103" s="98" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C103" s="98" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="J103" s="104">
         <v>4</v>
@@ -10276,10 +10276,10 @@
         <v>15250</v>
       </c>
       <c r="B104" s="98" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C104" s="98" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="J104" s="104">
         <v>5</v>
@@ -10312,10 +10312,10 @@
         <v>15260</v>
       </c>
       <c r="B105" s="98" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C105" s="98" t="s">
-        <v>1364</v>
+        <v>1354</v>
       </c>
       <c r="J105" s="104">
         <v>6</v>
@@ -10348,10 +10348,10 @@
         <v>15270</v>
       </c>
       <c r="B106" s="98" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C106" s="98" t="s">
-        <v>1365</v>
+        <v>1355</v>
       </c>
       <c r="J106" s="104">
         <v>7</v>
@@ -10383,10 +10383,10 @@
         <v>15280</v>
       </c>
       <c r="B107" s="98" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C107" s="98" t="s">
-        <v>1366</v>
+        <v>1356</v>
       </c>
       <c r="J107" s="104">
         <v>8</v>
@@ -10418,10 +10418,10 @@
         <v>15290</v>
       </c>
       <c r="B108" s="98" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C108" s="98" t="s">
-        <v>1367</v>
+        <v>1357</v>
       </c>
       <c r="J108" s="104">
         <v>9</v>
@@ -10453,10 +10453,10 @@
         <v>15300</v>
       </c>
       <c r="B109" s="98" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C109" s="98" t="s">
-        <v>1350</v>
+        <v>1340</v>
       </c>
       <c r="J109" s="104">
         <v>10</v>
@@ -10489,10 +10489,10 @@
         <v>15310</v>
       </c>
       <c r="B110" s="98" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C110" s="98" t="s">
-        <v>1351</v>
+        <v>1341</v>
       </c>
       <c r="J110" s="104">
         <v>11</v>
@@ -10525,10 +10525,10 @@
         <v>15320</v>
       </c>
       <c r="B111" s="98" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C111" s="98" t="s">
-        <v>1352</v>
+        <v>1342</v>
       </c>
       <c r="J111" s="104">
         <v>12</v>
@@ -10561,10 +10561,10 @@
         <v>15330</v>
       </c>
       <c r="B112" s="98" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C112" s="98" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="J112" s="104">
         <v>13</v>
@@ -10597,16 +10597,16 @@
         <v>15340</v>
       </c>
       <c r="B113" s="98" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C113" s="98" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="J113" s="104">
         <v>14</v>
       </c>
       <c r="K113" s="138" t="s">
-        <v>1955</v>
+        <v>1939</v>
       </c>
       <c r="L113" s="112"/>
       <c r="N113" s="54" t="s">
@@ -10633,10 +10633,10 @@
         <v>15350</v>
       </c>
       <c r="B114" s="98" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C114" s="98" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="J114" s="104">
         <v>15</v>
@@ -10669,10 +10669,10 @@
         <v>15360</v>
       </c>
       <c r="B115" s="98" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C115" s="98" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="J115" s="104">
         <v>16</v>
@@ -10704,10 +10704,10 @@
         <v>15370</v>
       </c>
       <c r="B116" s="98" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C116" s="98" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="J116" s="104">
         <v>17</v>
@@ -10740,10 +10740,10 @@
         <v>15380</v>
       </c>
       <c r="B117" s="98" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C117" s="98" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="J117" s="104">
         <v>18</v>
@@ -10776,10 +10776,10 @@
         <v>15390</v>
       </c>
       <c r="B118" s="98" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C118" s="98" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="J118" s="104">
         <v>19</v>
@@ -10812,10 +10812,10 @@
         <v>15500</v>
       </c>
       <c r="B119" s="98" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C119" s="98" t="s">
-        <v>1368</v>
+        <v>1358</v>
       </c>
       <c r="H119" s="104">
         <v>3</v>
@@ -10832,10 +10832,10 @@
         <v>15510</v>
       </c>
       <c r="B120" s="98" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C120" s="98" t="s">
-        <v>1369</v>
+        <v>1359</v>
       </c>
       <c r="J120" s="104">
         <v>1</v>
@@ -10868,10 +10868,10 @@
         <v>15520</v>
       </c>
       <c r="B121" s="98" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C121" s="98" t="s">
-        <v>1374</v>
+        <v>1364</v>
       </c>
       <c r="J121" s="104">
         <v>2</v>
@@ -10904,10 +10904,10 @@
         <v>15530</v>
       </c>
       <c r="B122" s="98" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="C122" s="98" t="s">
-        <v>1375</v>
+        <v>1365</v>
       </c>
       <c r="J122" s="104">
         <v>3</v>
@@ -10940,10 +10940,10 @@
         <v>15540</v>
       </c>
       <c r="B123" s="98" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="C123" s="98" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="J123" s="104">
         <v>4</v>
@@ -10976,10 +10976,10 @@
         <v>15550</v>
       </c>
       <c r="B124" s="98" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C124" s="98" t="s">
-        <v>1377</v>
+        <v>1367</v>
       </c>
       <c r="J124" s="104">
         <v>5</v>
@@ -11012,10 +11012,10 @@
         <v>15560</v>
       </c>
       <c r="B125" s="98" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="C125" s="98" t="s">
-        <v>1378</v>
+        <v>1368</v>
       </c>
       <c r="J125" s="104">
         <v>6</v>
@@ -11048,10 +11048,10 @@
         <v>15570</v>
       </c>
       <c r="B126" s="98" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C126" s="98" t="s">
-        <v>1379</v>
+        <v>1369</v>
       </c>
       <c r="J126" s="104">
         <v>7</v>
@@ -11084,10 +11084,10 @@
         <v>15580</v>
       </c>
       <c r="B127" s="98" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C127" s="98" t="s">
-        <v>1380</v>
+        <v>1370</v>
       </c>
       <c r="J127" s="104">
         <v>8</v>
@@ -11120,10 +11120,10 @@
         <v>15590</v>
       </c>
       <c r="B128" s="98" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C128" s="98" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="J128" s="104">
         <v>9</v>
@@ -11156,10 +11156,10 @@
         <v>15600</v>
       </c>
       <c r="B129" s="98" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="C129" s="98" t="s">
-        <v>1370</v>
+        <v>1360</v>
       </c>
       <c r="J129" s="104">
         <v>10</v>
@@ -11192,10 +11192,10 @@
         <v>15610</v>
       </c>
       <c r="B130" s="98" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="C130" s="98" t="s">
-        <v>1371</v>
+        <v>1361</v>
       </c>
       <c r="J130" s="104">
         <v>11</v>
@@ -11228,10 +11228,10 @@
         <v>15620</v>
       </c>
       <c r="B131" s="98" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C131" s="98" t="s">
-        <v>1372</v>
+        <v>1362</v>
       </c>
       <c r="J131" s="104">
         <v>12</v>
@@ -11264,10 +11264,10 @@
         <v>15630</v>
       </c>
       <c r="B132" s="98" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="C132" s="98" t="s">
-        <v>1373</v>
+        <v>1363</v>
       </c>
       <c r="J132" s="104">
         <v>13</v>
@@ -11300,10 +11300,10 @@
         <v>15700</v>
       </c>
       <c r="B133" s="98" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C133" s="98" t="s">
-        <v>1382</v>
+        <v>1372</v>
       </c>
       <c r="H133" s="104">
         <v>4</v>
@@ -11320,10 +11320,10 @@
         <v>15710</v>
       </c>
       <c r="B134" s="98" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C134" s="98" t="s">
-        <v>1383</v>
+        <v>1373</v>
       </c>
       <c r="J134" s="104">
         <v>1</v>
@@ -11349,10 +11349,10 @@
         <v>15720</v>
       </c>
       <c r="B135" s="98" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C135" s="98" t="s">
-        <v>1384</v>
+        <v>1374</v>
       </c>
       <c r="J135" s="104">
         <v>2</v>
@@ -11378,10 +11378,10 @@
         <v>15800</v>
       </c>
       <c r="B136" s="98" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="C136" s="98" t="s">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="H136" s="104">
         <v>5</v>
@@ -11404,10 +11404,10 @@
         <v>15810</v>
       </c>
       <c r="B137" s="98" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C137" s="98" t="s">
-        <v>1386</v>
+        <v>1376</v>
       </c>
       <c r="I137" s="14"/>
       <c r="J137" s="104">
@@ -11432,10 +11432,10 @@
         <v>16000</v>
       </c>
       <c r="B138" s="98" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="C138" s="98" t="s">
-        <v>1387</v>
+        <v>1377</v>
       </c>
       <c r="E138" s="30"/>
       <c r="F138" s="100">
@@ -11456,10 +11456,10 @@
         <v>16010</v>
       </c>
       <c r="B139" s="98" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C139" s="98" t="s">
-        <v>1388</v>
+        <v>1378</v>
       </c>
       <c r="H139" s="104">
         <v>1</v>
@@ -11485,10 +11485,10 @@
         <v>16020</v>
       </c>
       <c r="B140" s="98" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C140" s="98" t="s">
-        <v>1389</v>
+        <v>1379</v>
       </c>
       <c r="J140" s="104">
         <v>1</v>
@@ -11508,10 +11508,10 @@
         <v>16100</v>
       </c>
       <c r="B141" s="98" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="C141" s="98" t="s">
-        <v>1390</v>
+        <v>1380</v>
       </c>
       <c r="H141" s="104">
         <v>2</v>
@@ -11537,10 +11537,10 @@
         <v>16110</v>
       </c>
       <c r="B142" s="98" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C142" s="98" t="s">
-        <v>1391</v>
+        <v>1381</v>
       </c>
       <c r="J142" s="104">
         <v>1</v>
@@ -11560,10 +11560,10 @@
         <v>20000</v>
       </c>
       <c r="B143" s="98" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="C143" s="98" t="s">
-        <v>1392</v>
+        <v>1382</v>
       </c>
       <c r="D143" s="100">
         <v>2</v>
@@ -11584,10 +11584,10 @@
         <v>21000</v>
       </c>
       <c r="B144" s="98" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C144" s="98" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="E144" s="30"/>
       <c r="F144" s="100">
@@ -11608,10 +11608,10 @@
         <v>21100</v>
       </c>
       <c r="B145" s="98" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C145" s="98" t="s">
-        <v>1394</v>
+        <v>1384</v>
       </c>
       <c r="H145" s="104">
         <v>1</v>
@@ -11631,10 +11631,10 @@
         <v>21110</v>
       </c>
       <c r="B146" s="98" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C146" s="98" t="s">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="E146" s="97"/>
       <c r="G146" s="97"/>
@@ -11653,16 +11653,16 @@
         <v>21120</v>
       </c>
       <c r="B147" s="98" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C147" s="98" t="s">
-        <v>1396</v>
+        <v>1386</v>
       </c>
       <c r="L147" s="108">
         <v>1</v>
       </c>
       <c r="M147" s="41" t="s">
-        <v>1931</v>
+        <v>1915</v>
       </c>
       <c r="N147" s="54" t="s">
         <v>346</v>
@@ -11684,7 +11684,7 @@
       </c>
       <c r="AB147" s="98"/>
       <c r="AC147" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD147" s="136"/>
     </row>
@@ -11693,16 +11693,16 @@
         <v>21130</v>
       </c>
       <c r="B148" s="98" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="C148" s="98" t="s">
-        <v>1397</v>
+        <v>1952</v>
       </c>
       <c r="L148" s="108">
         <v>2</v>
       </c>
       <c r="M148" s="41" t="s">
-        <v>1932</v>
+        <v>1916</v>
       </c>
       <c r="N148" s="54" t="s">
         <v>346</v>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="AB148" s="98"/>
       <c r="AC148" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD148" s="136"/>
     </row>
@@ -11733,16 +11733,16 @@
         <v>21140</v>
       </c>
       <c r="B149" s="98" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="C149" s="98" t="s">
-        <v>1398</v>
+        <v>1953</v>
       </c>
       <c r="L149" s="108">
         <v>3</v>
       </c>
       <c r="M149" s="41" t="s">
-        <v>1933</v>
+        <v>1917</v>
       </c>
       <c r="N149" s="54" t="s">
         <v>346</v>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="AB149" s="98"/>
       <c r="AC149" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD149" s="136"/>
     </row>
@@ -11773,16 +11773,16 @@
         <v>21150</v>
       </c>
       <c r="B150" s="98" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="C150" s="98" t="s">
-        <v>1399</v>
+        <v>1954</v>
       </c>
       <c r="L150" s="108">
         <v>4</v>
       </c>
       <c r="M150" s="41" t="s">
-        <v>1934</v>
+        <v>1918</v>
       </c>
       <c r="N150" s="54" t="s">
         <v>346</v>
@@ -11804,7 +11804,7 @@
       </c>
       <c r="AB150" s="98"/>
       <c r="AC150" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD150" s="136"/>
     </row>
@@ -11813,16 +11813,16 @@
         <v>21160</v>
       </c>
       <c r="B151" s="98" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="C151" s="98" t="s">
-        <v>1400</v>
+        <v>1955</v>
       </c>
       <c r="L151" s="108">
         <v>5</v>
       </c>
       <c r="M151" s="41" t="s">
-        <v>1935</v>
+        <v>1919</v>
       </c>
       <c r="N151" s="54" t="s">
         <v>346</v>
@@ -11844,7 +11844,7 @@
       </c>
       <c r="AB151" s="98"/>
       <c r="AC151" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD151" s="136"/>
     </row>
@@ -11853,16 +11853,16 @@
         <v>21170</v>
       </c>
       <c r="B152" s="98" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="C152" s="98" t="s">
-        <v>1401</v>
+        <v>1956</v>
       </c>
       <c r="L152" s="108">
         <v>6</v>
       </c>
       <c r="M152" s="41" t="s">
-        <v>1936</v>
+        <v>1920</v>
       </c>
       <c r="N152" s="54" t="s">
         <v>346</v>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="AB152" s="98"/>
       <c r="AC152" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD152" s="136"/>
     </row>
@@ -11893,16 +11893,16 @@
         <v>21180</v>
       </c>
       <c r="B153" s="98" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C153" s="98" t="s">
-        <v>1402</v>
+        <v>1957</v>
       </c>
       <c r="L153" s="108">
         <v>7</v>
       </c>
       <c r="M153" s="41" t="s">
-        <v>1937</v>
+        <v>1921</v>
       </c>
       <c r="N153" s="54" t="s">
         <v>346</v>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="AB153" s="98"/>
       <c r="AC153" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD153" s="136"/>
     </row>
@@ -11933,16 +11933,16 @@
         <v>21190</v>
       </c>
       <c r="B154" s="98" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C154" s="98" t="s">
-        <v>1403</v>
+        <v>1387</v>
       </c>
       <c r="L154" s="108">
         <v>8</v>
       </c>
       <c r="M154" s="41" t="s">
-        <v>1938</v>
+        <v>1922</v>
       </c>
       <c r="N154" s="54" t="s">
         <v>346</v>
@@ -11964,7 +11964,7 @@
       </c>
       <c r="AB154" s="98"/>
       <c r="AC154" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD154" s="136"/>
     </row>
@@ -11973,16 +11973,16 @@
         <v>21200</v>
       </c>
       <c r="B155" s="98" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C155" s="98" t="s">
-        <v>1404</v>
+        <v>1388</v>
       </c>
       <c r="L155" s="108">
         <v>9</v>
       </c>
       <c r="M155" s="41" t="s">
-        <v>1939</v>
+        <v>1923</v>
       </c>
       <c r="N155" s="54" t="s">
         <v>346</v>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="AB155" s="98"/>
       <c r="AC155" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD155" s="136"/>
     </row>
@@ -12013,16 +12013,16 @@
         <v>21210</v>
       </c>
       <c r="B156" s="98" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="C156" s="98" t="s">
-        <v>1405</v>
+        <v>1389</v>
       </c>
       <c r="L156" s="108">
         <v>10</v>
       </c>
       <c r="M156" s="41" t="s">
-        <v>1940</v>
+        <v>1924</v>
       </c>
       <c r="N156" s="54" t="s">
         <v>346</v>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="AB156" s="98"/>
       <c r="AC156" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD156" s="136"/>
     </row>
@@ -12053,16 +12053,16 @@
         <v>21220</v>
       </c>
       <c r="B157" s="98" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C157" s="98" t="s">
-        <v>1406</v>
+        <v>1390</v>
       </c>
       <c r="L157" s="108">
         <v>11</v>
       </c>
       <c r="M157" s="41" t="s">
-        <v>1941</v>
+        <v>1925</v>
       </c>
       <c r="N157" s="54" t="s">
         <v>346</v>
@@ -12084,7 +12084,7 @@
       </c>
       <c r="AB157" s="98"/>
       <c r="AC157" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD157" s="136"/>
     </row>
@@ -12093,10 +12093,10 @@
         <v>21230</v>
       </c>
       <c r="B158" s="98" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C158" s="98" t="s">
-        <v>1407</v>
+        <v>1391</v>
       </c>
       <c r="L158" s="108">
         <v>12</v>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="AB158" s="98"/>
       <c r="AC158" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD158" s="136"/>
     </row>
@@ -12133,10 +12133,10 @@
         <v>21240</v>
       </c>
       <c r="B159" s="98" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="C159" s="98" t="s">
-        <v>1408</v>
+        <v>1392</v>
       </c>
       <c r="L159" s="108">
         <v>13</v>
@@ -12164,7 +12164,7 @@
       </c>
       <c r="AB159" s="98"/>
       <c r="AC159" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD159" s="136"/>
     </row>
@@ -12173,10 +12173,10 @@
         <v>21250</v>
       </c>
       <c r="B160" s="98" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C160" s="98" t="s">
-        <v>1409</v>
+        <v>1393</v>
       </c>
       <c r="L160" s="108">
         <v>14</v>
@@ -12207,7 +12207,7 @@
       </c>
       <c r="AB160" s="98"/>
       <c r="AC160" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD160" s="136"/>
     </row>
@@ -12216,10 +12216,10 @@
         <v>21260</v>
       </c>
       <c r="B161" s="98" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C161" s="98" t="s">
-        <v>1410</v>
+        <v>1394</v>
       </c>
       <c r="L161" s="108">
         <v>15</v>
@@ -12250,7 +12250,7 @@
       </c>
       <c r="AB161" s="98"/>
       <c r="AC161" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD161" s="136"/>
     </row>
@@ -12259,10 +12259,10 @@
         <v>21300</v>
       </c>
       <c r="B162" s="98" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="C162" s="98" t="s">
-        <v>1411</v>
+        <v>1395</v>
       </c>
       <c r="H162" s="104">
         <v>2</v>
@@ -12279,10 +12279,10 @@
         <v>21310</v>
       </c>
       <c r="B163" s="98" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="C163" s="98" t="s">
-        <v>1412</v>
+        <v>1396</v>
       </c>
       <c r="J163" s="121">
         <v>1</v>
@@ -12320,10 +12320,10 @@
         <v>21320</v>
       </c>
       <c r="B164" s="98" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="C164" s="98" t="s">
-        <v>1413</v>
+        <v>1397</v>
       </c>
       <c r="J164" s="122">
         <v>2</v>
@@ -12361,10 +12361,10 @@
         <v>21330</v>
       </c>
       <c r="B165" s="98" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="C165" s="98" t="s">
-        <v>1414</v>
+        <v>1398</v>
       </c>
       <c r="J165" s="122">
         <v>3</v>
@@ -12402,10 +12402,10 @@
         <v>21340</v>
       </c>
       <c r="B166" s="98" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="C166" s="98" t="s">
-        <v>1415</v>
+        <v>1399</v>
       </c>
       <c r="J166" s="122">
         <v>4</v>
@@ -12443,10 +12443,10 @@
         <v>21350</v>
       </c>
       <c r="B167" s="98" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="C167" s="98" t="s">
-        <v>1416</v>
+        <v>1400</v>
       </c>
       <c r="J167" s="122">
         <v>5</v>
@@ -12484,10 +12484,10 @@
         <v>21360</v>
       </c>
       <c r="B168" s="98" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="C168" s="98" t="s">
-        <v>1417</v>
+        <v>1401</v>
       </c>
       <c r="J168" s="122">
         <v>6</v>
@@ -12525,10 +12525,10 @@
         <v>21370</v>
       </c>
       <c r="B169" s="98" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="C169" s="98" t="s">
-        <v>1418</v>
+        <v>1402</v>
       </c>
       <c r="J169" s="122">
         <v>7</v>
@@ -12566,10 +12566,10 @@
         <v>21380</v>
       </c>
       <c r="B170" s="98" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="C170" s="98" t="s">
-        <v>1419</v>
+        <v>1403</v>
       </c>
       <c r="J170" s="122">
         <v>8</v>
@@ -12607,10 +12607,10 @@
         <v>21400</v>
       </c>
       <c r="B171" s="98" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="C171" s="98" t="s">
-        <v>1420</v>
+        <v>1404</v>
       </c>
       <c r="H171" s="104">
         <v>3</v>
@@ -12628,10 +12628,10 @@
         <v>21410</v>
       </c>
       <c r="B172" s="98" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C172" s="98" t="s">
-        <v>1421</v>
+        <v>1405</v>
       </c>
       <c r="J172" s="121">
         <v>1</v>
@@ -12669,16 +12669,16 @@
         <v>21420</v>
       </c>
       <c r="B173" s="98" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="C173" s="98" t="s">
-        <v>1422</v>
+        <v>1406</v>
       </c>
       <c r="J173" s="122">
         <v>2</v>
       </c>
       <c r="K173" s="10" t="s">
-        <v>1943</v>
+        <v>1927</v>
       </c>
       <c r="N173" s="54" t="s">
         <v>346</v>
@@ -12710,10 +12710,10 @@
         <v>21430</v>
       </c>
       <c r="B174" s="98" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="C174" s="98" t="s">
-        <v>1423</v>
+        <v>1407</v>
       </c>
       <c r="J174" s="122">
         <v>3</v>
@@ -12751,10 +12751,10 @@
         <v>21440</v>
       </c>
       <c r="B175" s="98" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C175" s="98" t="s">
-        <v>1424</v>
+        <v>1408</v>
       </c>
       <c r="J175" s="122">
         <v>4</v>
@@ -12792,10 +12792,10 @@
         <v>21450</v>
       </c>
       <c r="B176" s="98" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="C176" s="98" t="s">
-        <v>1425</v>
+        <v>1409</v>
       </c>
       <c r="J176" s="122">
         <v>5</v>
@@ -12833,10 +12833,10 @@
         <v>21460</v>
       </c>
       <c r="B177" s="98" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="C177" s="98" t="s">
-        <v>1426</v>
+        <v>1410</v>
       </c>
       <c r="J177" s="122">
         <v>6</v>
@@ -12874,10 +12874,10 @@
         <v>21470</v>
       </c>
       <c r="B178" s="98" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="C178" s="98" t="s">
-        <v>1427</v>
+        <v>1411</v>
       </c>
       <c r="J178" s="122">
         <v>7</v>
@@ -12915,10 +12915,10 @@
         <v>21480</v>
       </c>
       <c r="B179" s="98" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="C179" s="98" t="s">
-        <v>1428</v>
+        <v>1412</v>
       </c>
       <c r="J179" s="122">
         <v>8</v>
@@ -12956,16 +12956,16 @@
         <v>21490</v>
       </c>
       <c r="B180" s="98" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="C180" s="98" t="s">
-        <v>1429</v>
+        <v>1413</v>
       </c>
       <c r="J180" s="122">
         <v>9</v>
       </c>
       <c r="K180" s="10" t="s">
-        <v>1942</v>
+        <v>1926</v>
       </c>
       <c r="N180" s="54" t="s">
         <v>346</v>
@@ -12997,10 +12997,10 @@
         <v>21600</v>
       </c>
       <c r="B181" s="98" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="C181" s="98" t="s">
-        <v>1430</v>
+        <v>1414</v>
       </c>
       <c r="H181" s="104">
         <v>4</v>
@@ -13017,10 +13017,10 @@
         <v>21610</v>
       </c>
       <c r="B182" s="98" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C182" s="98" t="s">
-        <v>1431</v>
+        <v>1415</v>
       </c>
       <c r="J182" s="104">
         <v>1</v>
@@ -13052,10 +13052,10 @@
         <v>21620</v>
       </c>
       <c r="B183" s="98" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="C183" s="98" t="s">
-        <v>1432</v>
+        <v>1416</v>
       </c>
       <c r="J183" s="104">
         <v>2</v>
@@ -13087,10 +13087,10 @@
         <v>21630</v>
       </c>
       <c r="B184" s="98" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C184" s="98" t="s">
-        <v>1433</v>
+        <v>1417</v>
       </c>
       <c r="J184" s="104">
         <v>3</v>
@@ -13122,10 +13122,10 @@
         <v>22000</v>
       </c>
       <c r="B185" s="98" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="C185" s="98" t="s">
-        <v>1434</v>
+        <v>1418</v>
       </c>
       <c r="E185" s="30"/>
       <c r="F185" s="100">
@@ -13146,10 +13146,10 @@
         <v>22100</v>
       </c>
       <c r="B186" s="98" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="C186" s="98" t="s">
-        <v>1435</v>
+        <v>1419</v>
       </c>
       <c r="H186" s="104">
         <v>1</v>
@@ -13176,10 +13176,10 @@
         <v>22110</v>
       </c>
       <c r="B187" s="98" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="C187" s="98" t="s">
-        <v>1436</v>
+        <v>1420</v>
       </c>
       <c r="J187" s="104">
         <v>1</v>
@@ -13214,10 +13214,10 @@
         <v>22120</v>
       </c>
       <c r="B188" s="98" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C188" s="98" t="s">
-        <v>1437</v>
+        <v>1421</v>
       </c>
       <c r="J188" s="104">
         <v>2</v>
@@ -13247,10 +13247,10 @@
         <v>22130</v>
       </c>
       <c r="B189" s="98" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="C189" s="98" t="s">
-        <v>1438</v>
+        <v>1422</v>
       </c>
       <c r="J189" s="104">
         <v>3</v>
@@ -13267,10 +13267,10 @@
         <v>346</v>
       </c>
       <c r="AB189" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC189" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD189" s="136"/>
     </row>
@@ -13279,10 +13279,10 @@
         <v>22140</v>
       </c>
       <c r="B190" s="98" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C190" s="98" t="s">
-        <v>1439</v>
+        <v>1423</v>
       </c>
       <c r="J190" s="104">
         <v>4</v>
@@ -13301,10 +13301,10 @@
         <v>22150</v>
       </c>
       <c r="B191" s="98" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C191" s="98" t="s">
-        <v>1440</v>
+        <v>1424</v>
       </c>
       <c r="L191" s="104">
         <v>1</v>
@@ -13328,7 +13328,7 @@
         <v>3</v>
       </c>
       <c r="AB191" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC191" s="143"/>
       <c r="AD191" s="136"/>
@@ -13338,10 +13338,10 @@
         <v>22160</v>
       </c>
       <c r="B192" s="98" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="C192" s="98" t="s">
-        <v>1441</v>
+        <v>1425</v>
       </c>
       <c r="E192" s="97"/>
       <c r="G192" s="97"/>
@@ -13349,7 +13349,7 @@
         <v>5</v>
       </c>
       <c r="K192" s="10" t="s">
-        <v>1946</v>
+        <v>1930</v>
       </c>
       <c r="AB192" s="136"/>
       <c r="AC192" s="143"/>
@@ -13360,10 +13360,10 @@
         <v>22160</v>
       </c>
       <c r="B193" s="98" t="s">
-        <v>1944</v>
+        <v>1928</v>
       </c>
       <c r="C193" s="98" t="s">
-        <v>1945</v>
+        <v>1929</v>
       </c>
       <c r="L193" s="108">
         <v>1</v>
@@ -13372,10 +13372,10 @@
         <v>471</v>
       </c>
       <c r="AB193" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC193" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD193" s="136"/>
     </row>
@@ -13384,10 +13384,10 @@
         <v>22200</v>
       </c>
       <c r="B194" s="98" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="C194" s="98" t="s">
-        <v>1442</v>
+        <v>1426</v>
       </c>
       <c r="H194" s="104">
         <v>2</v>
@@ -13404,10 +13404,10 @@
         <v>22210</v>
       </c>
       <c r="B195" s="98" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="C195" s="98" t="s">
-        <v>1443</v>
+        <v>1427</v>
       </c>
       <c r="J195" s="104">
         <v>1</v>
@@ -13431,7 +13431,7 @@
         <v>7</v>
       </c>
       <c r="AB195" s="136" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AC195" s="143"/>
       <c r="AD195" s="136"/>
@@ -13441,10 +13441,10 @@
         <v>22220</v>
       </c>
       <c r="B196" s="98" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C196" s="98" t="s">
-        <v>1444</v>
+        <v>1428</v>
       </c>
       <c r="J196" s="104">
         <v>2</v>
@@ -13469,10 +13469,10 @@
         <v>22230</v>
       </c>
       <c r="B197" s="98" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C197" s="98" t="s">
-        <v>1445</v>
+        <v>1429</v>
       </c>
       <c r="G197" s="10"/>
       <c r="J197" s="104">
@@ -13506,10 +13506,10 @@
         <v>22240</v>
       </c>
       <c r="B198" s="98" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="C198" s="98" t="s">
-        <v>1446</v>
+        <v>1430</v>
       </c>
       <c r="G198" s="10"/>
       <c r="L198" s="104">
@@ -13528,7 +13528,7 @@
         <v>3</v>
       </c>
       <c r="AB198" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC198" s="143"/>
       <c r="AD198" s="136"/>
@@ -13538,10 +13538,10 @@
         <v>22250</v>
       </c>
       <c r="B199" s="98" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C199" s="98" t="s">
-        <v>1447</v>
+        <v>1431</v>
       </c>
       <c r="J199" s="104">
         <v>4</v>
@@ -13559,7 +13559,7 @@
         <v>4</v>
       </c>
       <c r="AB199" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC199" s="143"/>
       <c r="AD199" s="136"/>
@@ -13569,10 +13569,10 @@
         <v>22260</v>
       </c>
       <c r="B200" s="98" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="C200" s="98" t="s">
-        <v>1448</v>
+        <v>1432</v>
       </c>
       <c r="J200" s="104">
         <v>5</v>
@@ -13600,7 +13600,7 @@
         <v>594</v>
       </c>
       <c r="AB200" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC200" s="143"/>
       <c r="AD200" s="136"/>
@@ -13610,10 +13610,10 @@
         <v>22270</v>
       </c>
       <c r="B201" s="98" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C201" s="98" t="s">
-        <v>1449</v>
+        <v>1433</v>
       </c>
       <c r="E201" s="97"/>
       <c r="G201" s="97"/>
@@ -13621,7 +13621,7 @@
         <v>6</v>
       </c>
       <c r="K201" s="10" t="s">
-        <v>1949</v>
+        <v>1933</v>
       </c>
       <c r="L201" s="104"/>
       <c r="N201" s="54" t="s">
@@ -13645,10 +13645,10 @@
         <v>22270</v>
       </c>
       <c r="B202" s="98" t="s">
-        <v>1947</v>
+        <v>1931</v>
       </c>
       <c r="C202" s="98" t="s">
-        <v>1948</v>
+        <v>1932</v>
       </c>
       <c r="L202" s="104">
         <v>1</v>
@@ -13669,10 +13669,10 @@
         <v>346</v>
       </c>
       <c r="AB202" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC202" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD202" s="136"/>
     </row>
@@ -13681,10 +13681,10 @@
         <v>22300</v>
       </c>
       <c r="B203" s="98" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="C203" s="98" t="s">
-        <v>1450</v>
+        <v>1434</v>
       </c>
       <c r="H203" s="104">
         <v>3</v>
@@ -13713,10 +13713,10 @@
         <v>22310</v>
       </c>
       <c r="B204" s="98" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="C204" s="98" t="s">
-        <v>1451</v>
+        <v>1435</v>
       </c>
       <c r="J204" s="104">
         <v>1</v>
@@ -13745,7 +13745,7 @@
         <v>7</v>
       </c>
       <c r="AB204" s="136" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AC204" s="143"/>
       <c r="AD204" s="136"/>
@@ -13755,10 +13755,10 @@
         <v>22320</v>
       </c>
       <c r="B205" s="98" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="C205" s="98" t="s">
-        <v>1452</v>
+        <v>1436</v>
       </c>
       <c r="J205" s="104">
         <v>2</v>
@@ -13772,7 +13772,7 @@
         <v>628</v>
       </c>
       <c r="AC205" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD205" s="136"/>
     </row>
@@ -13781,10 +13781,10 @@
         <v>22330</v>
       </c>
       <c r="B206" s="98" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="C206" s="98" t="s">
-        <v>1453</v>
+        <v>1437</v>
       </c>
       <c r="J206" s="104">
         <v>3</v>
@@ -13815,10 +13815,10 @@
         <v>22340</v>
       </c>
       <c r="B207" s="98" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C207" s="98" t="s">
-        <v>1454</v>
+        <v>1438</v>
       </c>
       <c r="L207" s="104">
         <v>1</v>
@@ -13839,7 +13839,7 @@
         <v>3</v>
       </c>
       <c r="AB207" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC207" s="143"/>
       <c r="AD207" s="136"/>
@@ -13849,10 +13849,10 @@
         <v>22350</v>
       </c>
       <c r="B208" s="98" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="C208" s="98" t="s">
-        <v>1455</v>
+        <v>1439</v>
       </c>
       <c r="J208" s="104">
         <v>4</v>
@@ -13874,10 +13874,10 @@
         <v>596</v>
       </c>
       <c r="AB208" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC208" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD208" s="136"/>
     </row>
@@ -13886,10 +13886,10 @@
         <v>22360</v>
       </c>
       <c r="B209" s="98" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="C209" s="98" t="s">
-        <v>1456</v>
+        <v>1440</v>
       </c>
       <c r="J209" s="104">
         <v>5</v>
@@ -13913,10 +13913,10 @@
         <v>597</v>
       </c>
       <c r="AB209" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC209" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD209" s="136"/>
     </row>
@@ -13925,10 +13925,10 @@
         <v>22370</v>
       </c>
       <c r="B210" s="98" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="C210" s="98" t="s">
-        <v>1457</v>
+        <v>1441</v>
       </c>
       <c r="J210" s="104">
         <v>6</v>
@@ -13950,10 +13950,10 @@
         <v>598</v>
       </c>
       <c r="AB210" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC210" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD210" s="136"/>
     </row>
@@ -13962,10 +13962,10 @@
         <v>22380</v>
       </c>
       <c r="B211" s="98" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C211" s="98" t="s">
-        <v>1458</v>
+        <v>1442</v>
       </c>
       <c r="E211" s="97"/>
       <c r="G211" s="97"/>
@@ -13973,7 +13973,7 @@
         <v>7</v>
       </c>
       <c r="K211" s="10" t="s">
-        <v>1951</v>
+        <v>1935</v>
       </c>
       <c r="N211" s="54" t="s">
         <v>346</v>
@@ -13990,16 +13990,16 @@
         <v>22380</v>
       </c>
       <c r="B212" s="98" t="s">
-        <v>1952</v>
+        <v>1936</v>
       </c>
       <c r="C212" s="98" t="s">
-        <v>1953</v>
+        <v>1937</v>
       </c>
       <c r="L212" s="108">
         <v>1</v>
       </c>
       <c r="M212" s="87" t="s">
-        <v>1950</v>
+        <v>1934</v>
       </c>
       <c r="N212" s="54" t="s">
         <v>346</v>
@@ -14008,10 +14008,10 @@
         <v>346</v>
       </c>
       <c r="AB212" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC212" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD212" s="136"/>
     </row>
@@ -14020,10 +14020,10 @@
         <v>22400</v>
       </c>
       <c r="B213" s="98" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C213" s="98" t="s">
-        <v>1459</v>
+        <v>1443</v>
       </c>
       <c r="H213" s="104">
         <v>4</v>
@@ -14046,10 +14046,10 @@
         <v>22410</v>
       </c>
       <c r="B214" s="98" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="C214" s="98" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
       <c r="J214" s="104">
         <v>1</v>
@@ -14067,7 +14067,7 @@
         <v>7</v>
       </c>
       <c r="AB214" s="136" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="AC214" s="143"/>
       <c r="AD214" s="136"/>
@@ -14077,10 +14077,10 @@
         <v>22420</v>
       </c>
       <c r="B215" s="98" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="C215" s="98" t="s">
-        <v>1461</v>
+        <v>1445</v>
       </c>
       <c r="J215" s="104">
         <v>2</v>
@@ -14095,7 +14095,7 @@
         <v>628</v>
       </c>
       <c r="AC215" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD215" s="136"/>
     </row>
@@ -14104,10 +14104,10 @@
         <v>22430</v>
       </c>
       <c r="B216" s="98" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="C216" s="98" t="s">
-        <v>1462</v>
+        <v>1446</v>
       </c>
       <c r="J216" s="104">
         <v>3</v>
@@ -14136,10 +14136,10 @@
         <v>22440</v>
       </c>
       <c r="B217" s="98" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="C217" s="98" t="s">
-        <v>1463</v>
+        <v>1447</v>
       </c>
       <c r="L217" s="104">
         <v>1</v>
@@ -14161,7 +14161,7 @@
         <v>3</v>
       </c>
       <c r="AB217" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC217" s="143"/>
       <c r="AD217" s="136"/>
@@ -14171,10 +14171,10 @@
         <v>22450</v>
       </c>
       <c r="B218" s="98" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="C218" s="98" t="s">
-        <v>1464</v>
+        <v>1448</v>
       </c>
       <c r="J218" s="104">
         <v>4</v>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="AB218" s="136"/>
       <c r="AC218" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD218" s="136"/>
     </row>
@@ -14210,10 +14210,10 @@
         <v>22500</v>
       </c>
       <c r="B219" s="98" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C219" s="98" t="s">
-        <v>1465</v>
+        <v>1449</v>
       </c>
       <c r="H219" s="104">
         <v>5</v>
@@ -14231,10 +14231,10 @@
         <v>22510</v>
       </c>
       <c r="B220" s="98" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="C220" s="98" t="s">
-        <v>1466</v>
+        <v>1450</v>
       </c>
       <c r="J220" s="104">
         <v>1</v>
@@ -14268,10 +14268,10 @@
         <v>22520</v>
       </c>
       <c r="B221" s="98" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="C221" s="98" t="s">
-        <v>1467</v>
+        <v>1451</v>
       </c>
       <c r="J221" s="108">
         <v>2</v>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="AB221" s="136"/>
       <c r="AC221" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD221" s="136"/>
     </row>
@@ -14296,10 +14296,10 @@
         <v>22600</v>
       </c>
       <c r="B222" s="98" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="C222" s="98" t="s">
-        <v>1468</v>
+        <v>1452</v>
       </c>
       <c r="H222" s="104">
         <v>6</v>
@@ -14317,10 +14317,10 @@
         <v>22610</v>
       </c>
       <c r="B223" s="98" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="C223" s="98" t="s">
-        <v>1469</v>
+        <v>1453</v>
       </c>
       <c r="J223" s="104">
         <v>1</v>
@@ -14352,10 +14352,10 @@
         <v>22620</v>
       </c>
       <c r="B224" s="98" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C224" s="98" t="s">
-        <v>1470</v>
+        <v>1454</v>
       </c>
       <c r="J224" s="108">
         <v>2</v>
@@ -14372,7 +14372,7 @@
       </c>
       <c r="AB224" s="136"/>
       <c r="AC224" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD224" s="136"/>
     </row>
@@ -14381,10 +14381,10 @@
         <v>22700</v>
       </c>
       <c r="B225" s="98" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="C225" s="98" t="s">
-        <v>1471</v>
+        <v>1455</v>
       </c>
       <c r="H225" s="104">
         <v>7</v>
@@ -14401,10 +14401,10 @@
         <v>22710</v>
       </c>
       <c r="B226" s="98" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C226" s="98" t="s">
-        <v>1472</v>
+        <v>1456</v>
       </c>
       <c r="J226" s="104">
         <v>1</v>
@@ -14436,10 +14436,10 @@
         <v>22720</v>
       </c>
       <c r="B227" s="98" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="C227" s="98" t="s">
-        <v>1473</v>
+        <v>1457</v>
       </c>
       <c r="J227" s="108">
         <v>2</v>
@@ -14455,7 +14455,7 @@
       </c>
       <c r="AB227" s="136"/>
       <c r="AC227" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD227" s="136"/>
     </row>
@@ -14464,10 +14464,10 @@
         <v>23000</v>
       </c>
       <c r="B228" s="98" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="C228" s="98" t="s">
-        <v>1474</v>
+        <v>1458</v>
       </c>
       <c r="E228" s="30"/>
       <c r="F228" s="100">
@@ -14489,10 +14489,10 @@
         <v>23100</v>
       </c>
       <c r="B229" s="98" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="C229" s="98" t="s">
-        <v>1475</v>
+        <v>1459</v>
       </c>
       <c r="H229" s="104">
         <v>1</v>
@@ -14519,10 +14519,10 @@
         <v>23110</v>
       </c>
       <c r="B230" s="98" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C230" s="98" t="s">
-        <v>1476</v>
+        <v>1460</v>
       </c>
       <c r="J230" s="104">
         <v>1</v>
@@ -14558,10 +14558,10 @@
         <v>23120</v>
       </c>
       <c r="B231" s="98" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C231" s="98" t="s">
-        <v>1477</v>
+        <v>1461</v>
       </c>
       <c r="J231" s="104">
         <v>2</v>
@@ -14578,7 +14578,7 @@
       </c>
       <c r="AB231" s="136"/>
       <c r="AC231" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD231" s="136"/>
     </row>
@@ -14587,10 +14587,10 @@
         <v>23200</v>
       </c>
       <c r="B232" s="98" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C232" s="98" t="s">
-        <v>1478</v>
+        <v>1462</v>
       </c>
       <c r="H232" s="104">
         <v>2</v>
@@ -14618,10 +14618,10 @@
         <v>23210</v>
       </c>
       <c r="B233" s="98" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C233" s="98" t="s">
-        <v>1479</v>
+        <v>1463</v>
       </c>
       <c r="J233" s="104">
         <v>1</v>
@@ -14658,10 +14658,10 @@
         <v>23220</v>
       </c>
       <c r="B234" s="98" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C234" s="98" t="s">
-        <v>1480</v>
+        <v>1464</v>
       </c>
       <c r="J234" s="104">
         <v>2</v>
@@ -14678,7 +14678,7 @@
       </c>
       <c r="AB234" s="136"/>
       <c r="AC234" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD234" s="136"/>
     </row>
@@ -14687,10 +14687,10 @@
         <v>23300</v>
       </c>
       <c r="B235" s="98" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C235" s="98" t="s">
-        <v>1481</v>
+        <v>1465</v>
       </c>
       <c r="H235" s="104">
         <v>3</v>
@@ -14718,10 +14718,10 @@
         <v>23310</v>
       </c>
       <c r="B236" s="98" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C236" s="98" t="s">
-        <v>1482</v>
+        <v>1466</v>
       </c>
       <c r="J236" s="104">
         <v>1</v>
@@ -14757,10 +14757,10 @@
         <v>23320</v>
       </c>
       <c r="B237" s="98" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C237" s="98" t="s">
-        <v>1483</v>
+        <v>1467</v>
       </c>
       <c r="J237" s="104">
         <v>2</v>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="AB237" s="136"/>
       <c r="AC237" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD237" s="136"/>
     </row>
@@ -14786,10 +14786,10 @@
         <v>23400</v>
       </c>
       <c r="B238" s="98" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C238" s="98" t="s">
-        <v>1484</v>
+        <v>1468</v>
       </c>
       <c r="H238" s="104">
         <v>4</v>
@@ -14817,10 +14817,10 @@
         <v>23410</v>
       </c>
       <c r="B239" s="98" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C239" s="98" t="s">
-        <v>1485</v>
+        <v>1469</v>
       </c>
       <c r="J239" s="104">
         <v>1</v>
@@ -14856,10 +14856,10 @@
         <v>23420</v>
       </c>
       <c r="B240" s="98" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C240" s="98" t="s">
-        <v>1486</v>
+        <v>1470</v>
       </c>
       <c r="J240" s="104">
         <v>2</v>
@@ -14876,7 +14876,7 @@
       </c>
       <c r="AB240" s="136"/>
       <c r="AC240" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD240" s="136"/>
     </row>
@@ -14885,10 +14885,10 @@
         <v>24000</v>
       </c>
       <c r="B241" s="98" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C241" s="98" t="s">
-        <v>1487</v>
+        <v>1471</v>
       </c>
       <c r="E241" s="30"/>
       <c r="F241" s="100">
@@ -14909,10 +14909,10 @@
         <v>24100</v>
       </c>
       <c r="B242" s="98" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C242" s="98" t="s">
-        <v>1488</v>
+        <v>1472</v>
       </c>
       <c r="G242" s="10"/>
       <c r="H242" s="104">
@@ -14934,10 +14934,10 @@
         <v>24110</v>
       </c>
       <c r="B243" s="98" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C243" s="98" t="s">
-        <v>1489</v>
+        <v>1473</v>
       </c>
       <c r="G243" s="10"/>
       <c r="J243" s="104">
@@ -14955,10 +14955,10 @@
         <v>24120</v>
       </c>
       <c r="B244" s="98" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C244" s="98" t="s">
-        <v>1490</v>
+        <v>1474</v>
       </c>
       <c r="L244" s="108">
         <v>1</v>
@@ -14984,10 +14984,10 @@
         <v>24130</v>
       </c>
       <c r="B245" s="98" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C245" s="98" t="s">
-        <v>1491</v>
+        <v>1475</v>
       </c>
       <c r="L245" s="108">
         <v>2</v>
@@ -15013,10 +15013,10 @@
         <v>24140</v>
       </c>
       <c r="B246" s="98" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="C246" s="98" t="s">
-        <v>1492</v>
+        <v>1476</v>
       </c>
       <c r="J246" s="104">
         <v>2</v>
@@ -15033,10 +15033,10 @@
         <v>24150</v>
       </c>
       <c r="B247" s="98" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="C247" s="98" t="s">
-        <v>1493</v>
+        <v>1477</v>
       </c>
       <c r="L247" s="108">
         <v>1</v>
@@ -15062,10 +15062,10 @@
         <v>24160</v>
       </c>
       <c r="B248" s="98" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C248" s="98" t="s">
-        <v>1494</v>
+        <v>1478</v>
       </c>
       <c r="L248" s="108">
         <v>2</v>
@@ -15091,10 +15091,10 @@
         <v>24200</v>
       </c>
       <c r="B249" s="98" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C249" s="98" t="s">
-        <v>1495</v>
+        <v>1479</v>
       </c>
       <c r="H249" s="104">
         <v>2</v>
@@ -15112,10 +15112,10 @@
         <v>24210</v>
       </c>
       <c r="B250" s="98" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C250" s="98" t="s">
-        <v>1496</v>
+        <v>1480</v>
       </c>
       <c r="J250" s="104">
         <v>1</v>
@@ -15133,10 +15133,10 @@
         <v>24220</v>
       </c>
       <c r="B251" s="98" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C251" s="98" t="s">
-        <v>1497</v>
+        <v>1481</v>
       </c>
       <c r="L251" s="108">
         <v>1</v>
@@ -15162,10 +15162,10 @@
         <v>24230</v>
       </c>
       <c r="B252" s="98" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="C252" s="98" t="s">
-        <v>1498</v>
+        <v>1482</v>
       </c>
       <c r="L252" s="108">
         <v>2</v>
@@ -15191,10 +15191,10 @@
         <v>25000</v>
       </c>
       <c r="B253" s="98" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C253" s="98" t="s">
-        <v>1499</v>
+        <v>1483</v>
       </c>
       <c r="E253" s="30"/>
       <c r="F253" s="100">
@@ -15215,10 +15215,10 @@
         <v>25100</v>
       </c>
       <c r="B254" s="98" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C254" s="98" t="s">
-        <v>1500</v>
+        <v>1484</v>
       </c>
       <c r="H254" s="104">
         <v>1</v>
@@ -15235,10 +15235,10 @@
         <v>25110</v>
       </c>
       <c r="B255" s="98" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C255" s="98" t="s">
-        <v>1501</v>
+        <v>1485</v>
       </c>
       <c r="J255" s="104">
         <v>1</v>
@@ -15261,10 +15261,10 @@
         <v>25120</v>
       </c>
       <c r="B256" s="98" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C256" s="98" t="s">
-        <v>1502</v>
+        <v>1486</v>
       </c>
       <c r="J256" s="104">
         <v>2</v>
@@ -15287,10 +15287,10 @@
         <v>25130</v>
       </c>
       <c r="B257" s="98" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C257" s="98" t="s">
-        <v>1503</v>
+        <v>1487</v>
       </c>
       <c r="J257" s="104">
         <v>3</v>
@@ -15313,10 +15313,10 @@
         <v>25140</v>
       </c>
       <c r="B258" s="98" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C258" s="98" t="s">
-        <v>1504</v>
+        <v>1488</v>
       </c>
       <c r="J258" s="104">
         <v>4</v>
@@ -15339,10 +15339,10 @@
         <v>25150</v>
       </c>
       <c r="B259" s="98" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C259" s="98" t="s">
-        <v>1505</v>
+        <v>1489</v>
       </c>
       <c r="J259" s="104">
         <v>5</v>
@@ -15365,10 +15365,10 @@
         <v>25200</v>
       </c>
       <c r="B260" s="98" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="C260" s="98" t="s">
-        <v>1513</v>
+        <v>1497</v>
       </c>
       <c r="H260" s="104">
         <v>2</v>
@@ -15386,10 +15386,10 @@
         <v>25210</v>
       </c>
       <c r="B261" s="98" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="C261" s="98" t="s">
-        <v>1514</v>
+        <v>1498</v>
       </c>
       <c r="J261" s="104">
         <v>1</v>
@@ -15412,10 +15412,10 @@
         <v>25300</v>
       </c>
       <c r="B262" s="98" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C262" s="98" t="s">
-        <v>1515</v>
+        <v>1499</v>
       </c>
       <c r="H262" s="104">
         <v>3</v>
@@ -15433,10 +15433,10 @@
         <v>25310</v>
       </c>
       <c r="B263" s="98" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C263" s="98" t="s">
-        <v>1516</v>
+        <v>1500</v>
       </c>
       <c r="J263" s="104">
         <v>1</v>
@@ -15459,10 +15459,10 @@
         <v>25400</v>
       </c>
       <c r="B264" s="98" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="C264" s="98" t="s">
-        <v>1517</v>
+        <v>1501</v>
       </c>
       <c r="H264" s="104">
         <v>4</v>
@@ -15480,10 +15480,10 @@
         <v>25410</v>
       </c>
       <c r="B265" s="98" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C265" s="98" t="s">
-        <v>1518</v>
+        <v>1502</v>
       </c>
       <c r="J265" s="104">
         <v>1</v>
@@ -15506,10 +15506,10 @@
         <v>25500</v>
       </c>
       <c r="B266" s="98" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="C266" s="98" t="s">
-        <v>1519</v>
+        <v>1503</v>
       </c>
       <c r="H266" s="104">
         <v>5</v>
@@ -15527,10 +15527,10 @@
         <v>25510</v>
       </c>
       <c r="B267" s="98" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C267" s="98" t="s">
-        <v>1520</v>
+        <v>1504</v>
       </c>
       <c r="J267" s="104">
         <v>1</v>
@@ -15553,10 +15553,10 @@
         <v>25600</v>
       </c>
       <c r="B268" s="98" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="C268" s="98" t="s">
-        <v>1521</v>
+        <v>1505</v>
       </c>
       <c r="H268" s="104">
         <v>6</v>
@@ -15574,10 +15574,10 @@
         <v>25610</v>
       </c>
       <c r="B269" s="98" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="C269" s="98" t="s">
-        <v>1522</v>
+        <v>1506</v>
       </c>
       <c r="J269" s="104">
         <v>1</v>
@@ -15600,10 +15600,10 @@
         <v>25700</v>
       </c>
       <c r="B270" s="98" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="C270" s="98" t="s">
-        <v>1523</v>
+        <v>1507</v>
       </c>
       <c r="H270" s="104">
         <v>7</v>
@@ -15621,10 +15621,10 @@
         <v>25710</v>
       </c>
       <c r="B271" s="98" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C271" s="98" t="s">
-        <v>1524</v>
+        <v>1508</v>
       </c>
       <c r="J271" s="104">
         <v>1</v>
@@ -15647,10 +15647,10 @@
         <v>25800</v>
       </c>
       <c r="B272" s="98" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C272" s="98" t="s">
-        <v>1525</v>
+        <v>1509</v>
       </c>
       <c r="H272" s="104">
         <v>8</v>
@@ -15667,10 +15667,10 @@
         <v>25810</v>
       </c>
       <c r="B273" s="98" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C273" s="98" t="s">
-        <v>1526</v>
+        <v>1510</v>
       </c>
       <c r="J273" s="104">
         <v>1</v>
@@ -15696,10 +15696,10 @@
         <v>25820</v>
       </c>
       <c r="B274" s="98" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C274" s="98" t="s">
-        <v>1527</v>
+        <v>1511</v>
       </c>
       <c r="J274" s="104">
         <v>2</v>
@@ -15722,10 +15722,10 @@
         <v>25900</v>
       </c>
       <c r="B275" s="98" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C275" s="98" t="s">
-        <v>1528</v>
+        <v>1512</v>
       </c>
       <c r="H275" s="104">
         <v>9</v>
@@ -15743,10 +15743,10 @@
         <v>25910</v>
       </c>
       <c r="B276" s="98" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C276" s="98" t="s">
-        <v>1529</v>
+        <v>1513</v>
       </c>
       <c r="J276" s="104">
         <v>1</v>
@@ -15769,10 +15769,10 @@
         <v>26000</v>
       </c>
       <c r="B277" s="98" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C277" s="98" t="s">
-        <v>1506</v>
+        <v>1490</v>
       </c>
       <c r="H277" s="104">
         <v>10</v>
@@ -15790,10 +15790,10 @@
         <v>26010</v>
       </c>
       <c r="B278" s="98" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C278" s="98" t="s">
-        <v>1507</v>
+        <v>1491</v>
       </c>
       <c r="J278" s="104">
         <v>1</v>
@@ -15816,10 +15816,10 @@
         <v>26020</v>
       </c>
       <c r="B279" s="98" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C279" s="98" t="s">
-        <v>1508</v>
+        <v>1492</v>
       </c>
       <c r="J279" s="104">
         <v>2</v>
@@ -15842,10 +15842,10 @@
         <v>26100</v>
       </c>
       <c r="B280" s="98" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="C280" s="98" t="s">
-        <v>1509</v>
+        <v>1493</v>
       </c>
       <c r="H280" s="104">
         <v>11</v>
@@ -15862,10 +15862,10 @@
         <v>26110</v>
       </c>
       <c r="B281" s="98" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C281" s="98" t="s">
-        <v>1510</v>
+        <v>1494</v>
       </c>
       <c r="J281" s="104">
         <v>1</v>
@@ -15888,10 +15888,10 @@
         <v>26200</v>
       </c>
       <c r="B282" s="98" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="C282" s="98" t="s">
-        <v>1511</v>
+        <v>1495</v>
       </c>
       <c r="H282" s="104">
         <v>12</v>
@@ -15908,10 +15908,10 @@
         <v>26210</v>
       </c>
       <c r="B283" s="98" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="C283" s="98" t="s">
-        <v>1512</v>
+        <v>1496</v>
       </c>
       <c r="I283" s="14"/>
       <c r="J283" s="104">
@@ -15935,10 +15935,10 @@
         <v>30000</v>
       </c>
       <c r="B284" s="98" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C284" s="98" t="s">
-        <v>1530</v>
+        <v>1514</v>
       </c>
       <c r="D284" s="100">
         <v>3</v>
@@ -15959,10 +15959,10 @@
         <v>30100</v>
       </c>
       <c r="B285" s="98" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C285" s="98" t="s">
-        <v>1531</v>
+        <v>1515</v>
       </c>
       <c r="E285" s="30"/>
       <c r="F285" s="100">
@@ -15983,10 +15983,10 @@
         <v>30200</v>
       </c>
       <c r="B286" s="98" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C286" s="98" t="s">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="H286" s="104">
         <v>1</v>
@@ -16016,10 +16016,10 @@
         <v>30210</v>
       </c>
       <c r="B287" s="98" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="C287" s="98" t="s">
-        <v>1533</v>
+        <v>1517</v>
       </c>
       <c r="I287" s="14"/>
       <c r="J287" s="104">
@@ -16054,10 +16054,10 @@
         <v>30220</v>
       </c>
       <c r="B288" s="98" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C288" s="98" t="s">
-        <v>1534</v>
+        <v>1518</v>
       </c>
       <c r="I288" s="14"/>
       <c r="K288" s="14"/>
@@ -16065,7 +16065,7 @@
         <v>1</v>
       </c>
       <c r="M288" s="89" t="s">
-        <v>1954</v>
+        <v>1938</v>
       </c>
       <c r="N288" s="54" t="s">
         <v>346</v>
@@ -16080,10 +16080,10 @@
         <v>346</v>
       </c>
       <c r="AB288" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC288" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD288" s="136"/>
     </row>
@@ -16092,10 +16092,10 @@
         <v>30300</v>
       </c>
       <c r="B289" s="98" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C289" s="98" t="s">
-        <v>1535</v>
+        <v>1519</v>
       </c>
       <c r="H289" s="104">
         <v>2</v>
@@ -16113,10 +16113,10 @@
         <v>30310</v>
       </c>
       <c r="B290" s="98" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C290" s="98" t="s">
-        <v>1536</v>
+        <v>1520</v>
       </c>
       <c r="J290" s="104">
         <v>1</v>
@@ -16153,10 +16153,10 @@
         <v>30320</v>
       </c>
       <c r="B291" s="98" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="C291" s="98" t="s">
-        <v>1537</v>
+        <v>1521</v>
       </c>
       <c r="J291" s="104">
         <v>2</v>
@@ -16193,10 +16193,10 @@
         <v>30330</v>
       </c>
       <c r="B292" s="98" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C292" s="98" t="s">
-        <v>1538</v>
+        <v>1522</v>
       </c>
       <c r="J292" s="104">
         <v>3</v>
@@ -16233,10 +16233,10 @@
         <v>30400</v>
       </c>
       <c r="B293" s="98" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="C293" s="98" t="s">
-        <v>1539</v>
+        <v>1523</v>
       </c>
       <c r="H293" s="104">
         <v>3</v>
@@ -16253,10 +16253,10 @@
         <v>30410</v>
       </c>
       <c r="B294" s="98" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="C294" s="98" t="s">
-        <v>1540</v>
+        <v>1524</v>
       </c>
       <c r="J294" s="104">
         <v>1</v>
@@ -16290,10 +16290,10 @@
         <v>30500</v>
       </c>
       <c r="B295" s="98" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="C295" s="98" t="s">
-        <v>1541</v>
+        <v>1525</v>
       </c>
       <c r="H295" s="104">
         <v>4</v>
@@ -16313,10 +16313,10 @@
         <v>30510</v>
       </c>
       <c r="B296" s="98" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C296" s="98" t="s">
-        <v>1542</v>
+        <v>1526</v>
       </c>
       <c r="H296" s="107"/>
       <c r="I296" s="17"/>
@@ -16353,10 +16353,10 @@
         <v>30520</v>
       </c>
       <c r="B297" s="98" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C297" s="98" t="s">
-        <v>1543</v>
+        <v>1527</v>
       </c>
       <c r="H297" s="107"/>
       <c r="I297" s="17"/>
@@ -16393,10 +16393,10 @@
         <v>31000</v>
       </c>
       <c r="B298" s="98" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C298" s="98" t="s">
-        <v>1544</v>
+        <v>1528</v>
       </c>
       <c r="E298" s="30"/>
       <c r="F298" s="100">
@@ -16417,10 +16417,10 @@
         <v>31100</v>
       </c>
       <c r="B299" s="98" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C299" s="98" t="s">
-        <v>1545</v>
+        <v>1529</v>
       </c>
       <c r="H299" s="104">
         <v>1</v>
@@ -16429,7 +16429,7 @@
         <v>437</v>
       </c>
       <c r="AB299" s="136" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AC299" s="143"/>
       <c r="AD299" s="136"/>
@@ -16439,10 +16439,10 @@
         <v>31110</v>
       </c>
       <c r="B300" s="98" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C300" s="98" t="s">
-        <v>1546</v>
+        <v>1530</v>
       </c>
       <c r="J300" s="104">
         <v>1</v>
@@ -16463,10 +16463,10 @@
         <v>346</v>
       </c>
       <c r="AB300" s="136" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AC300" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD300" s="136"/>
     </row>
@@ -16475,10 +16475,10 @@
         <v>31120</v>
       </c>
       <c r="B301" s="98" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="C301" s="98" t="s">
-        <v>1547</v>
+        <v>1531</v>
       </c>
       <c r="J301" s="104">
         <v>2</v>
@@ -16499,10 +16499,10 @@
         <v>346</v>
       </c>
       <c r="AB301" s="136" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AC301" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD301" s="136"/>
     </row>
@@ -16511,10 +16511,10 @@
         <v>31130</v>
       </c>
       <c r="B302" s="98" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C302" s="98" t="s">
-        <v>1548</v>
+        <v>1532</v>
       </c>
       <c r="J302" s="104">
         <v>3</v>
@@ -16523,10 +16523,10 @@
         <v>559</v>
       </c>
       <c r="AB302" s="136" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AC302" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD302" s="136"/>
     </row>
@@ -16535,10 +16535,10 @@
         <v>31140</v>
       </c>
       <c r="B303" s="98" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="C303" s="98" t="s">
-        <v>1549</v>
+        <v>1533</v>
       </c>
       <c r="J303" s="104">
         <v>4</v>
@@ -16559,10 +16559,10 @@
         <v>346</v>
       </c>
       <c r="AB303" s="136" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="AC303" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD303" s="136"/>
     </row>
@@ -16571,10 +16571,10 @@
         <v>31200</v>
       </c>
       <c r="B304" s="98" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="C304" s="98" t="s">
-        <v>1550</v>
+        <v>1534</v>
       </c>
       <c r="H304" s="104">
         <v>2</v>
@@ -16593,10 +16593,10 @@
         <v>31210</v>
       </c>
       <c r="B305" s="98" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="C305" s="98" t="s">
-        <v>1551</v>
+        <v>1535</v>
       </c>
       <c r="J305" s="108">
         <v>1</v>
@@ -16605,10 +16605,10 @@
         <v>393</v>
       </c>
       <c r="AB305" s="136" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AC305" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD305" s="136"/>
     </row>
@@ -16617,10 +16617,10 @@
         <v>32000</v>
       </c>
       <c r="B306" s="98" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="C306" s="98" t="s">
-        <v>1552</v>
+        <v>1536</v>
       </c>
       <c r="E306" s="30"/>
       <c r="F306" s="100">
@@ -16641,10 +16641,10 @@
         <v>32100</v>
       </c>
       <c r="B307" s="98" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C307" s="98" t="s">
-        <v>1553</v>
+        <v>1537</v>
       </c>
       <c r="H307" s="104">
         <v>1</v>
@@ -16655,7 +16655,7 @@
       <c r="J307" s="108"/>
       <c r="K307" s="46"/>
       <c r="AB307" s="136" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AC307" s="143"/>
       <c r="AD307" s="136"/>
@@ -16665,10 +16665,10 @@
         <v>32110</v>
       </c>
       <c r="B308" s="98" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C308" s="98" t="s">
-        <v>1554</v>
+        <v>1538</v>
       </c>
       <c r="J308" s="104">
         <v>1</v>
@@ -16677,10 +16677,10 @@
         <v>206</v>
       </c>
       <c r="AB308" s="136" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AC308" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD308" s="136"/>
     </row>
@@ -16689,10 +16689,10 @@
         <v>32120</v>
       </c>
       <c r="B309" s="98" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="C309" s="98" t="s">
-        <v>1555</v>
+        <v>1539</v>
       </c>
       <c r="J309" s="104">
         <v>2</v>
@@ -16713,10 +16713,10 @@
         <v>346</v>
       </c>
       <c r="AB309" s="136" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AC309" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD309" s="136"/>
     </row>
@@ -16725,10 +16725,10 @@
         <v>32130</v>
       </c>
       <c r="B310" s="98" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="C310" s="98" t="s">
-        <v>1556</v>
+        <v>1540</v>
       </c>
       <c r="J310" s="104">
         <v>3</v>
@@ -16749,10 +16749,10 @@
         <v>346</v>
       </c>
       <c r="AB310" s="136" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AC310" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD310" s="136"/>
     </row>
@@ -16761,10 +16761,10 @@
         <v>32140</v>
       </c>
       <c r="B311" s="98" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="C311" s="98" t="s">
-        <v>1557</v>
+        <v>1541</v>
       </c>
       <c r="J311" s="104">
         <v>4</v>
@@ -16785,10 +16785,10 @@
         <v>346</v>
       </c>
       <c r="AB311" s="136" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="AC311" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD311" s="136"/>
     </row>
@@ -16797,10 +16797,10 @@
         <v>32200</v>
       </c>
       <c r="B312" s="98" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="C312" s="98" t="s">
-        <v>1558</v>
+        <v>1542</v>
       </c>
       <c r="H312" s="104">
         <v>2</v>
@@ -16821,7 +16821,7 @@
         <v>346</v>
       </c>
       <c r="AB312" s="136" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="AC312" s="143"/>
       <c r="AD312" s="136"/>
@@ -16831,10 +16831,10 @@
         <v>32210</v>
       </c>
       <c r="B313" s="98" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="C313" s="98" t="s">
-        <v>1559</v>
+        <v>1543</v>
       </c>
       <c r="J313" s="108">
         <v>1</v>
@@ -16855,10 +16855,10 @@
         <v>346</v>
       </c>
       <c r="AB313" s="136" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="AC313" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD313" s="136"/>
     </row>
@@ -16867,10 +16867,10 @@
         <v>32220</v>
       </c>
       <c r="B314" s="98" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C314" s="98" t="s">
-        <v>1560</v>
+        <v>1544</v>
       </c>
       <c r="J314" s="108">
         <v>2</v>
@@ -16891,10 +16891,10 @@
         <v>346</v>
       </c>
       <c r="AB314" s="136" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="AC314" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD314" s="136"/>
     </row>
@@ -16903,10 +16903,10 @@
         <v>32230</v>
       </c>
       <c r="B315" s="98" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="C315" s="98" t="s">
-        <v>1561</v>
+        <v>1545</v>
       </c>
       <c r="J315" s="108">
         <v>3</v>
@@ -16927,10 +16927,10 @@
         <v>346</v>
       </c>
       <c r="AB315" s="136" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="AC315" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD315" s="136"/>
     </row>
@@ -16939,10 +16939,10 @@
         <v>32240</v>
       </c>
       <c r="B316" s="98" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C316" s="98" t="s">
-        <v>1562</v>
+        <v>1546</v>
       </c>
       <c r="J316" s="108">
         <v>4</v>
@@ -16963,10 +16963,10 @@
         <v>346</v>
       </c>
       <c r="AB316" s="136" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="AC316" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD316" s="136"/>
     </row>
@@ -16975,10 +16975,10 @@
         <v>32250</v>
       </c>
       <c r="B317" s="98" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C317" s="98" t="s">
-        <v>1563</v>
+        <v>1547</v>
       </c>
       <c r="J317" s="108">
         <v>5</v>
@@ -16999,10 +16999,10 @@
         <v>346</v>
       </c>
       <c r="AB317" s="136" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="AC317" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD317" s="136"/>
     </row>
@@ -17011,10 +17011,10 @@
         <v>32260</v>
       </c>
       <c r="B318" s="98" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C318" s="98" t="s">
-        <v>1564</v>
+        <v>1548</v>
       </c>
       <c r="J318" s="108">
         <v>6</v>
@@ -17035,10 +17035,10 @@
         <v>346</v>
       </c>
       <c r="AB318" s="136" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="AC318" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD318" s="136"/>
     </row>
@@ -17047,10 +17047,10 @@
         <v>32300</v>
       </c>
       <c r="B319" s="98" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="C319" s="98" t="s">
-        <v>1565</v>
+        <v>1549</v>
       </c>
       <c r="H319" s="104">
         <v>3</v>
@@ -17080,16 +17080,16 @@
         <v>32310</v>
       </c>
       <c r="B320" s="98" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="C320" s="98" t="s">
-        <v>1566</v>
+        <v>1550</v>
       </c>
       <c r="J320" s="108">
         <v>1</v>
       </c>
       <c r="K320" s="46" t="s">
-        <v>1917</v>
+        <v>1901</v>
       </c>
       <c r="Q320" s="60" t="s">
         <v>346</v>
@@ -17104,10 +17104,10 @@
         <v>346</v>
       </c>
       <c r="AB320" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC320" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD320" s="136"/>
     </row>
@@ -17116,16 +17116,16 @@
         <v>32320</v>
       </c>
       <c r="B321" s="98" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="C321" s="98" t="s">
-        <v>1567</v>
+        <v>1551</v>
       </c>
       <c r="J321" s="108">
         <v>2</v>
       </c>
       <c r="K321" s="46" t="s">
-        <v>1918</v>
+        <v>1902</v>
       </c>
       <c r="Q321" s="60" t="s">
         <v>346</v>
@@ -17140,10 +17140,10 @@
         <v>157</v>
       </c>
       <c r="AB321" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC321" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD321" s="136"/>
     </row>
@@ -17152,16 +17152,16 @@
         <v>32330</v>
       </c>
       <c r="B322" s="98" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="C322" s="98" t="s">
-        <v>1568</v>
+        <v>1552</v>
       </c>
       <c r="J322" s="108">
         <v>3</v>
       </c>
       <c r="K322" s="46" t="s">
-        <v>1919</v>
+        <v>1903</v>
       </c>
       <c r="Q322" s="60" t="s">
         <v>346</v>
@@ -17176,10 +17176,10 @@
         <v>157</v>
       </c>
       <c r="AB322" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC322" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD322" s="136"/>
     </row>
@@ -17188,16 +17188,16 @@
         <v>32340</v>
       </c>
       <c r="B323" s="98" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="C323" s="98" t="s">
-        <v>1569</v>
+        <v>1553</v>
       </c>
       <c r="J323" s="108">
         <v>4</v>
       </c>
       <c r="K323" s="46" t="s">
-        <v>1920</v>
+        <v>1904</v>
       </c>
       <c r="Q323" s="60" t="s">
         <v>346</v>
@@ -17212,10 +17212,10 @@
         <v>157</v>
       </c>
       <c r="AB323" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC323" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD323" s="136"/>
     </row>
@@ -17224,10 +17224,10 @@
         <v>32350</v>
       </c>
       <c r="B324" s="98" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="C324" s="98" t="s">
-        <v>1570</v>
+        <v>1554</v>
       </c>
       <c r="J324" s="108">
         <v>5</v>
@@ -17248,10 +17248,10 @@
         <v>157</v>
       </c>
       <c r="AB324" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC324" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD324" s="136"/>
     </row>
@@ -17260,10 +17260,10 @@
         <v>32360</v>
       </c>
       <c r="B325" s="98" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="C325" s="98" t="s">
-        <v>1571</v>
+        <v>1555</v>
       </c>
       <c r="J325" s="108">
         <v>6</v>
@@ -17285,10 +17285,10 @@
         <v>346</v>
       </c>
       <c r="AB325" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC325" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD325" s="136"/>
     </row>
@@ -17297,10 +17297,10 @@
         <v>32370</v>
       </c>
       <c r="B326" s="98" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="C326" s="98" t="s">
-        <v>1572</v>
+        <v>1556</v>
       </c>
       <c r="J326" s="108">
         <v>7</v>
@@ -17321,10 +17321,10 @@
         <v>346</v>
       </c>
       <c r="AB326" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC326" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD326" s="136"/>
     </row>
@@ -17333,10 +17333,10 @@
         <v>32380</v>
       </c>
       <c r="B327" s="98" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="C327" s="98" t="s">
-        <v>1573</v>
+        <v>1557</v>
       </c>
       <c r="J327" s="108">
         <v>8</v>
@@ -17357,10 +17357,10 @@
         <v>346</v>
       </c>
       <c r="AB327" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC327" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD327" s="136"/>
     </row>
@@ -17369,10 +17369,10 @@
         <v>32400</v>
       </c>
       <c r="B328" s="98" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C328" s="98" t="s">
-        <v>1574</v>
+        <v>1558</v>
       </c>
       <c r="H328" s="104">
         <v>4</v>
@@ -17391,10 +17391,10 @@
         <v>32410</v>
       </c>
       <c r="B329" s="98" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C329" s="98" t="s">
-        <v>1575</v>
+        <v>1559</v>
       </c>
       <c r="J329" s="108">
         <v>1</v>
@@ -17413,10 +17413,10 @@
         <v>346</v>
       </c>
       <c r="AB329" s="136" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AC329" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD329" s="136"/>
     </row>
@@ -17425,10 +17425,10 @@
         <v>32500</v>
       </c>
       <c r="B330" s="98" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C330" s="98" t="s">
-        <v>1576</v>
+        <v>1560</v>
       </c>
       <c r="H330" s="104">
         <v>5</v>
@@ -17447,10 +17447,10 @@
         <v>32510</v>
       </c>
       <c r="B331" s="98" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C331" s="98" t="s">
-        <v>1577</v>
+        <v>1561</v>
       </c>
       <c r="J331" s="104">
         <v>1</v>
@@ -17471,10 +17471,10 @@
         <v>346</v>
       </c>
       <c r="AB331" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC331" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD331" s="136"/>
     </row>
@@ -17483,10 +17483,10 @@
         <v>32520</v>
       </c>
       <c r="B332" s="98" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C332" s="98" t="s">
-        <v>1578</v>
+        <v>1562</v>
       </c>
       <c r="J332" s="104">
         <v>2</v>
@@ -17507,10 +17507,10 @@
         <v>346</v>
       </c>
       <c r="AB332" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC332" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD332" s="136"/>
     </row>
@@ -17519,10 +17519,10 @@
         <v>32530</v>
       </c>
       <c r="B333" s="98" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="C333" s="98" t="s">
-        <v>1579</v>
+        <v>1563</v>
       </c>
       <c r="J333" s="104">
         <v>3</v>
@@ -17543,10 +17543,10 @@
         <v>157</v>
       </c>
       <c r="AB333" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC333" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD333" s="136"/>
     </row>
@@ -17555,10 +17555,10 @@
         <v>32540</v>
       </c>
       <c r="B334" s="98" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C334" s="98" t="s">
-        <v>1580</v>
+        <v>1564</v>
       </c>
       <c r="J334" s="104">
         <v>4</v>
@@ -17567,10 +17567,10 @@
         <v>236</v>
       </c>
       <c r="AB334" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC334" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD334" s="136"/>
     </row>
@@ -17579,10 +17579,10 @@
         <v>32550</v>
       </c>
       <c r="B335" s="98" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="C335" s="98" t="s">
-        <v>1581</v>
+        <v>1565</v>
       </c>
       <c r="J335" s="104">
         <v>5</v>
@@ -17603,10 +17603,10 @@
         <v>157</v>
       </c>
       <c r="AB335" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC335" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD335" s="136"/>
     </row>
@@ -17615,10 +17615,10 @@
         <v>32560</v>
       </c>
       <c r="B336" s="98" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C336" s="98" t="s">
-        <v>1582</v>
+        <v>1566</v>
       </c>
       <c r="J336" s="104">
         <v>6</v>
@@ -17627,10 +17627,10 @@
         <v>222</v>
       </c>
       <c r="AB336" s="136" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AC336" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD336" s="136"/>
     </row>
@@ -17639,10 +17639,10 @@
         <v>32570</v>
       </c>
       <c r="B337" s="98" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C337" s="98" t="s">
-        <v>1583</v>
+        <v>1567</v>
       </c>
       <c r="E337" s="97"/>
       <c r="G337" s="97"/>
@@ -17671,10 +17671,10 @@
         <v>32570</v>
       </c>
       <c r="B338" s="98" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C338" s="98" t="s">
-        <v>1583</v>
+        <v>1567</v>
       </c>
       <c r="J338" s="108"/>
       <c r="L338" s="108">
@@ -17694,10 +17694,10 @@
         <v>346</v>
       </c>
       <c r="AB338" s="136" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AC338" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD338" s="136"/>
     </row>
@@ -17706,10 +17706,10 @@
         <v>32600</v>
       </c>
       <c r="B339" s="98" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="C339" s="98" t="s">
-        <v>1584</v>
+        <v>1568</v>
       </c>
       <c r="H339" s="108">
         <v>6</v>
@@ -17728,10 +17728,10 @@
         <v>32610</v>
       </c>
       <c r="B340" s="98" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="C340" s="98" t="s">
-        <v>1585</v>
+        <v>1569</v>
       </c>
       <c r="J340" s="108">
         <v>1</v>
@@ -17741,10 +17741,10 @@
       </c>
       <c r="S340" s="64"/>
       <c r="AB340" s="136" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AC340" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD340" s="136"/>
     </row>
@@ -17753,10 +17753,10 @@
         <v>32700</v>
       </c>
       <c r="B341" s="98" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C341" s="98" t="s">
-        <v>1586</v>
+        <v>1570</v>
       </c>
       <c r="H341" s="104">
         <v>7</v>
@@ -17785,10 +17785,10 @@
         <v>32710</v>
       </c>
       <c r="B342" s="98" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="C342" s="98" t="s">
-        <v>1587</v>
+        <v>1571</v>
       </c>
       <c r="J342" s="104">
         <v>1</v>
@@ -17809,10 +17809,10 @@
         <v>346</v>
       </c>
       <c r="AB342" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC342" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD342" s="136"/>
     </row>
@@ -17821,10 +17821,10 @@
         <v>32720</v>
       </c>
       <c r="B343" s="98" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C343" s="98" t="s">
-        <v>1588</v>
+        <v>1572</v>
       </c>
       <c r="J343" s="104">
         <v>2</v>
@@ -17842,10 +17842,10 @@
         <v>346</v>
       </c>
       <c r="AB343" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC343" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD343" s="136"/>
     </row>
@@ -17854,10 +17854,10 @@
         <v>32800</v>
       </c>
       <c r="B344" s="98" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="C344" s="98" t="s">
-        <v>1589</v>
+        <v>1573</v>
       </c>
       <c r="H344" s="104">
         <v>8</v>
@@ -17884,10 +17884,10 @@
         <v>32810</v>
       </c>
       <c r="B345" s="98" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="C345" s="98" t="s">
-        <v>1590</v>
+        <v>1574</v>
       </c>
       <c r="J345" s="108">
         <v>1</v>
@@ -17907,10 +17907,10 @@
         <v>346</v>
       </c>
       <c r="AB345" s="136" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AC345" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD345" s="136"/>
     </row>
@@ -17919,10 +17919,10 @@
         <v>33000</v>
       </c>
       <c r="B346" s="98" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C346" s="98" t="s">
-        <v>1591</v>
+        <v>1575</v>
       </c>
       <c r="E346" s="30"/>
       <c r="F346" s="100">
@@ -17943,10 +17943,10 @@
         <v>33100</v>
       </c>
       <c r="B347" s="98" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="C347" s="98" t="s">
-        <v>1592</v>
+        <v>1576</v>
       </c>
       <c r="H347" s="104">
         <v>1</v>
@@ -17956,10 +17956,10 @@
       </c>
       <c r="M347" s="46"/>
       <c r="AB347" s="136" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AC347" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD347" s="136"/>
     </row>
@@ -17968,10 +17968,10 @@
         <v>33110</v>
       </c>
       <c r="B348" s="98" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C348" s="98" t="s">
-        <v>1593</v>
+        <v>1577</v>
       </c>
       <c r="J348" s="104">
         <v>1</v>
@@ -17992,10 +17992,10 @@
         <v>346</v>
       </c>
       <c r="AB348" s="136" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AC348" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD348" s="136"/>
     </row>
@@ -18004,10 +18004,10 @@
         <v>33120</v>
       </c>
       <c r="B349" s="98" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C349" s="98" t="s">
-        <v>1594</v>
+        <v>1578</v>
       </c>
       <c r="J349" s="104">
         <v>2</v>
@@ -18028,10 +18028,10 @@
         <v>346</v>
       </c>
       <c r="AB349" s="136" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AC349" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD349" s="136"/>
     </row>
@@ -18040,10 +18040,10 @@
         <v>33130</v>
       </c>
       <c r="B350" s="98" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C350" s="98" t="s">
-        <v>1595</v>
+        <v>1579</v>
       </c>
       <c r="J350" s="104">
         <v>3</v>
@@ -18061,10 +18061,10 @@
         <v>346</v>
       </c>
       <c r="AB350" s="136" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AC350" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD350" s="136"/>
     </row>
@@ -18073,10 +18073,10 @@
         <v>33140</v>
       </c>
       <c r="B351" s="98" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="C351" s="98" t="s">
-        <v>1596</v>
+        <v>1580</v>
       </c>
       <c r="J351" s="104">
         <v>4</v>
@@ -18091,10 +18091,10 @@
         <v>346</v>
       </c>
       <c r="AB351" s="136" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="AC351" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD351" s="136"/>
     </row>
@@ -18103,10 +18103,10 @@
         <v>33200</v>
       </c>
       <c r="B352" s="98" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C352" s="98" t="s">
-        <v>1597</v>
+        <v>1581</v>
       </c>
       <c r="H352" s="104">
         <v>2</v>
@@ -18123,10 +18123,10 @@
         <v>33210</v>
       </c>
       <c r="B353" s="98" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="C353" s="98" t="s">
-        <v>1598</v>
+        <v>1582</v>
       </c>
       <c r="J353" s="104">
         <v>1</v>
@@ -18135,7 +18135,7 @@
         <v>393</v>
       </c>
       <c r="AB353" s="136" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="AC353" s="143"/>
       <c r="AD353" s="136"/>
@@ -18145,10 +18145,10 @@
         <v>34000</v>
       </c>
       <c r="B354" s="98" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C354" s="98" t="s">
-        <v>1599</v>
+        <v>1583</v>
       </c>
       <c r="E354" s="30"/>
       <c r="F354" s="100">
@@ -18169,10 +18169,10 @@
         <v>34100</v>
       </c>
       <c r="B355" s="98" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="C355" s="98" t="s">
-        <v>1600</v>
+        <v>1584</v>
       </c>
       <c r="H355" s="104">
         <v>1</v>
@@ -18189,10 +18189,10 @@
         <v>34110</v>
       </c>
       <c r="B356" s="98" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="C356" s="98" t="s">
-        <v>1601</v>
+        <v>1585</v>
       </c>
       <c r="E356" s="97"/>
       <c r="G356" s="97"/>
@@ -18215,10 +18215,10 @@
     <row r="357" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A357" s="131"/>
       <c r="B357" s="98" t="s">
-        <v>1912</v>
+        <v>1896</v>
       </c>
       <c r="C357" s="98" t="s">
-        <v>1914</v>
+        <v>1898</v>
       </c>
       <c r="E357" s="97"/>
       <c r="G357" s="97"/>
@@ -18235,10 +18235,10 @@
     <row r="358" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A358" s="131"/>
       <c r="B358" s="98" t="s">
-        <v>1913</v>
+        <v>1897</v>
       </c>
       <c r="C358" s="98" t="s">
-        <v>1915</v>
+        <v>1899</v>
       </c>
       <c r="J358" s="104">
         <v>1</v>
@@ -18261,10 +18261,10 @@
         <v>35000</v>
       </c>
       <c r="B359" s="98" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="C359" s="98" t="s">
-        <v>1602</v>
+        <v>1586</v>
       </c>
       <c r="E359" s="30"/>
       <c r="F359" s="100">
@@ -18285,10 +18285,10 @@
         <v>35100</v>
       </c>
       <c r="B360" s="98" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C360" s="98" t="s">
-        <v>1603</v>
+        <v>1587</v>
       </c>
       <c r="H360" s="104">
         <v>1</v>
@@ -18314,10 +18314,10 @@
         <v>35510</v>
       </c>
       <c r="B361" s="98" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="C361" s="98" t="s">
-        <v>1604</v>
+        <v>1588</v>
       </c>
       <c r="J361" s="104">
         <v>1</v>
@@ -18341,10 +18341,10 @@
         <v>36000</v>
       </c>
       <c r="B362" s="98" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="C362" s="98" t="s">
-        <v>1605</v>
+        <v>1589</v>
       </c>
       <c r="E362" s="30"/>
       <c r="F362" s="100">
@@ -18365,10 +18365,10 @@
         <v>36100</v>
       </c>
       <c r="B363" s="98" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C363" s="98" t="s">
-        <v>1606</v>
+        <v>1590</v>
       </c>
       <c r="H363" s="104">
         <v>1</v>
@@ -18387,10 +18387,10 @@
         <v>36110</v>
       </c>
       <c r="B364" s="98" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="C364" s="98" t="s">
-        <v>1607</v>
+        <v>1591</v>
       </c>
       <c r="J364" s="104">
         <v>1</v>
@@ -18415,10 +18415,10 @@
         <v>40000</v>
       </c>
       <c r="B365" s="98" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="C365" s="98" t="s">
-        <v>1608</v>
+        <v>1592</v>
       </c>
       <c r="D365" s="100">
         <v>4</v>
@@ -18431,7 +18431,7 @@
       <c r="K365" s="25"/>
       <c r="M365" s="48"/>
       <c r="AB365" s="136" t="s">
-        <v>1927</v>
+        <v>1911</v>
       </c>
       <c r="AC365" s="143"/>
       <c r="AD365" s="136"/>
@@ -18441,10 +18441,10 @@
         <v>40100</v>
       </c>
       <c r="B366" s="98" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C366" s="98" t="s">
-        <v>1609</v>
+        <v>1593</v>
       </c>
       <c r="E366" s="30"/>
       <c r="F366" s="100">
@@ -18465,10 +18465,10 @@
         <v>40200</v>
       </c>
       <c r="B367" s="98" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C367" s="98" t="s">
-        <v>1610</v>
+        <v>1594</v>
       </c>
       <c r="H367" s="104">
         <v>1</v>
@@ -18494,17 +18494,17 @@
         <v>40210</v>
       </c>
       <c r="B368" s="98" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C368" s="98" t="s">
-        <v>1611</v>
+        <v>1595</v>
       </c>
       <c r="I368" s="14"/>
       <c r="J368" s="104">
         <v>1</v>
       </c>
       <c r="K368" s="14" t="s">
-        <v>1930</v>
+        <v>1914</v>
       </c>
       <c r="N368" s="54" t="s">
         <v>346</v>
@@ -18536,10 +18536,10 @@
         <v>40300</v>
       </c>
       <c r="B369" s="98" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C369" s="98" t="s">
-        <v>1612</v>
+        <v>1596</v>
       </c>
       <c r="H369" s="104">
         <v>2</v>
@@ -18557,10 +18557,10 @@
         <v>40310</v>
       </c>
       <c r="B370" s="98" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="C370" s="98" t="s">
-        <v>1613</v>
+        <v>1597</v>
       </c>
       <c r="J370" s="104">
         <v>1</v>
@@ -18597,10 +18597,10 @@
         <v>40400</v>
       </c>
       <c r="B371" s="98" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C371" s="98" t="s">
-        <v>1614</v>
+        <v>1598</v>
       </c>
       <c r="H371" s="104">
         <v>3</v>
@@ -18617,10 +18617,10 @@
         <v>40410</v>
       </c>
       <c r="B372" s="98" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C372" s="98" t="s">
-        <v>1615</v>
+        <v>1599</v>
       </c>
       <c r="J372" s="104">
         <v>1</v>
@@ -18654,10 +18654,10 @@
         <v>40500</v>
       </c>
       <c r="B373" s="98" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C373" s="98" t="s">
-        <v>1616</v>
+        <v>1600</v>
       </c>
       <c r="H373" s="104">
         <v>4</v>
@@ -18674,10 +18674,10 @@
         <v>40510</v>
       </c>
       <c r="B374" s="98" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C374" s="98" t="s">
-        <v>1617</v>
+        <v>1601</v>
       </c>
       <c r="J374" s="104">
         <v>1</v>
@@ -18711,10 +18711,10 @@
         <v>40520</v>
       </c>
       <c r="B375" s="98" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C375" s="98" t="s">
-        <v>1618</v>
+        <v>1602</v>
       </c>
       <c r="J375" s="104">
         <v>2</v>
@@ -18736,10 +18736,10 @@
         <v>41000</v>
       </c>
       <c r="B376" s="98" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C376" s="98" t="s">
-        <v>1619</v>
+        <v>1603</v>
       </c>
       <c r="E376" s="30"/>
       <c r="F376" s="100">
@@ -18760,10 +18760,10 @@
         <v>41100</v>
       </c>
       <c r="B377" s="98" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C377" s="98" t="s">
-        <v>1620</v>
+        <v>1604</v>
       </c>
       <c r="H377" s="104">
         <v>1</v>
@@ -18776,7 +18776,7 @@
       <c r="P377" s="58"/>
       <c r="Q377" s="61"/>
       <c r="AB377" s="136" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="AC377" s="143"/>
       <c r="AD377" s="136"/>
@@ -18786,10 +18786,10 @@
         <v>41110</v>
       </c>
       <c r="B378" s="98" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C378" s="98" t="s">
-        <v>1621</v>
+        <v>1605</v>
       </c>
       <c r="J378" s="104">
         <v>1</v>
@@ -18805,10 +18805,10 @@
         <v>607</v>
       </c>
       <c r="AB378" s="136" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="AC378" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD378" s="136"/>
     </row>
@@ -18817,10 +18817,10 @@
         <v>41120</v>
       </c>
       <c r="B379" s="98" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C379" s="98" t="s">
-        <v>1622</v>
+        <v>1606</v>
       </c>
       <c r="J379" s="104">
         <v>2</v>
@@ -18835,10 +18835,10 @@
         <v>346</v>
       </c>
       <c r="AB379" s="136" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="AC379" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD379" s="136"/>
     </row>
@@ -18847,10 +18847,10 @@
         <v>41200</v>
       </c>
       <c r="B380" s="98" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C380" s="98" t="s">
-        <v>1623</v>
+        <v>1607</v>
       </c>
       <c r="H380" s="104">
         <v>2</v>
@@ -18859,7 +18859,7 @@
         <v>462</v>
       </c>
       <c r="AB380" s="136" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="AC380" s="143"/>
       <c r="AD380" s="136"/>
@@ -18869,10 +18869,10 @@
         <v>41210</v>
       </c>
       <c r="B381" s="98" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C381" s="98" t="s">
-        <v>1624</v>
+        <v>1608</v>
       </c>
       <c r="J381" s="104">
         <v>1</v>
@@ -18893,10 +18893,10 @@
         <v>346</v>
       </c>
       <c r="AB381" s="136" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="AC381" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD381" s="136"/>
     </row>
@@ -18905,10 +18905,10 @@
         <v>41220</v>
       </c>
       <c r="B382" s="98" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C382" s="98" t="s">
-        <v>1625</v>
+        <v>1609</v>
       </c>
       <c r="J382" s="104">
         <v>2</v>
@@ -18929,10 +18929,10 @@
         <v>346</v>
       </c>
       <c r="AB382" s="136" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="AC382" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD382" s="136"/>
     </row>
@@ -18941,10 +18941,10 @@
         <v>41230</v>
       </c>
       <c r="B383" s="98" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C383" s="98" t="s">
-        <v>1626</v>
+        <v>1610</v>
       </c>
       <c r="J383" s="104">
         <v>3</v>
@@ -18965,10 +18965,10 @@
         <v>346</v>
       </c>
       <c r="AB383" s="136" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="AC383" s="143" t="s">
-        <v>1956</v>
+        <v>1940</v>
       </c>
       <c r="AD383" s="136"/>
     </row>
@@ -18977,10 +18977,10 @@
         <v>42000</v>
       </c>
       <c r="B384" s="98" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C384" s="98" t="s">
-        <v>1627</v>
+        <v>1611</v>
       </c>
       <c r="E384" s="30"/>
       <c r="F384" s="100">
@@ -19001,10 +19001,10 @@
         <v>42100</v>
       </c>
       <c r="B385" s="98" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="C385" s="98" t="s">
-        <v>1628</v>
+        <v>1612</v>
       </c>
       <c r="H385" s="104">
         <v>1</v>
@@ -19021,10 +19021,10 @@
         <v>42110</v>
       </c>
       <c r="B386" s="98" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C386" s="98" t="s">
-        <v>1629</v>
+        <v>1613</v>
       </c>
       <c r="J386" s="104">
         <v>1</v>
@@ -19053,10 +19053,10 @@
         <v>42120</v>
       </c>
       <c r="B387" s="98" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C387" s="98" t="s">
-        <v>1630</v>
+        <v>1614</v>
       </c>
       <c r="J387" s="104">
         <v>2</v>
@@ -19085,10 +19085,10 @@
         <v>42130</v>
       </c>
       <c r="B388" s="98" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C388" s="98" t="s">
-        <v>1631</v>
+        <v>1615</v>
       </c>
       <c r="J388" s="104">
         <v>3</v>
@@ -19105,10 +19105,10 @@
         <v>42200</v>
       </c>
       <c r="B389" s="98" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C389" s="98" t="s">
-        <v>1643</v>
+        <v>1627</v>
       </c>
       <c r="H389" s="104">
         <v>2</v>
@@ -19125,10 +19125,10 @@
         <v>42210</v>
       </c>
       <c r="B390" s="98" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="C390" s="98" t="s">
-        <v>1644</v>
+        <v>1628</v>
       </c>
       <c r="J390" s="104">
         <v>1</v>
@@ -19157,10 +19157,10 @@
         <v>42220</v>
       </c>
       <c r="B391" s="98" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C391" s="98" t="s">
-        <v>1645</v>
+        <v>1629</v>
       </c>
       <c r="J391" s="104">
         <v>2</v>
@@ -19189,10 +19189,10 @@
         <v>42230</v>
       </c>
       <c r="B392" s="98" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C392" s="98" t="s">
-        <v>1646</v>
+        <v>1630</v>
       </c>
       <c r="J392" s="104">
         <v>3</v>
@@ -19221,10 +19221,10 @@
         <v>42240</v>
       </c>
       <c r="B393" s="98" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C393" s="98" t="s">
-        <v>1647</v>
+        <v>1631</v>
       </c>
       <c r="J393" s="104">
         <v>4</v>
@@ -19247,10 +19247,10 @@
         <v>42250</v>
       </c>
       <c r="B394" s="98" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C394" s="98" t="s">
-        <v>1648</v>
+        <v>1632</v>
       </c>
       <c r="J394" s="104">
         <v>5</v>
@@ -19273,10 +19273,10 @@
         <v>42300</v>
       </c>
       <c r="B395" s="98" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C395" s="98" t="s">
-        <v>1649</v>
+        <v>1633</v>
       </c>
       <c r="H395" s="104">
         <v>3</v>
@@ -19293,10 +19293,10 @@
         <v>42310</v>
       </c>
       <c r="B396" s="98" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C396" s="98" t="s">
-        <v>1650</v>
+        <v>1634</v>
       </c>
       <c r="J396" s="104">
         <v>1</v>
@@ -19322,10 +19322,10 @@
         <v>42320</v>
       </c>
       <c r="B397" s="98" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C397" s="98" t="s">
-        <v>1651</v>
+        <v>1635</v>
       </c>
       <c r="J397" s="104">
         <v>2</v>
@@ -19354,10 +19354,10 @@
         <v>42330</v>
       </c>
       <c r="B398" s="98" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C398" s="98" t="s">
-        <v>1652</v>
+        <v>1636</v>
       </c>
       <c r="J398" s="104">
         <v>3</v>
@@ -19380,10 +19380,10 @@
         <v>42340</v>
       </c>
       <c r="B399" s="98" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C399" s="98" t="s">
-        <v>1653</v>
+        <v>1637</v>
       </c>
       <c r="J399" s="104">
         <v>4</v>
@@ -19406,10 +19406,10 @@
         <v>42350</v>
       </c>
       <c r="B400" s="98" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C400" s="98" t="s">
-        <v>1654</v>
+        <v>1638</v>
       </c>
       <c r="J400" s="104">
         <v>5</v>
@@ -19432,10 +19432,10 @@
         <v>42360</v>
       </c>
       <c r="B401" s="98" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C401" s="98" t="s">
-        <v>1655</v>
+        <v>1639</v>
       </c>
       <c r="J401" s="104">
         <v>6</v>
@@ -19458,10 +19458,10 @@
         <v>42400</v>
       </c>
       <c r="B402" s="98" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C402" s="98" t="s">
-        <v>1656</v>
+        <v>1640</v>
       </c>
       <c r="H402" s="104">
         <v>4</v>
@@ -19487,10 +19487,10 @@
         <v>42410</v>
       </c>
       <c r="B403" s="98" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C403" s="98" t="s">
-        <v>1657</v>
+        <v>1641</v>
       </c>
       <c r="J403" s="104">
         <v>1</v>
@@ -19520,10 +19520,10 @@
         <v>42420</v>
       </c>
       <c r="B404" s="98" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C404" s="98" t="s">
-        <v>1658</v>
+        <v>1642</v>
       </c>
       <c r="J404" s="104">
         <v>2</v>
@@ -19549,10 +19549,10 @@
         <v>42430</v>
       </c>
       <c r="B405" s="98" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C405" s="98" t="s">
-        <v>1659</v>
+        <v>1643</v>
       </c>
       <c r="L405" s="108">
         <v>1</v>
@@ -19576,10 +19576,10 @@
         <v>42500</v>
       </c>
       <c r="B406" s="98" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C406" s="98" t="s">
-        <v>1660</v>
+        <v>1644</v>
       </c>
       <c r="H406" s="104">
         <v>5</v>
@@ -19605,10 +19605,10 @@
         <v>42510</v>
       </c>
       <c r="B407" s="98" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C407" s="98" t="s">
-        <v>1661</v>
+        <v>1645</v>
       </c>
       <c r="J407" s="104">
         <v>1</v>
@@ -19638,10 +19638,10 @@
         <v>42520</v>
       </c>
       <c r="B408" s="98" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C408" s="98" t="s">
-        <v>1662</v>
+        <v>1646</v>
       </c>
       <c r="J408" s="104">
         <v>2</v>
@@ -19666,10 +19666,10 @@
         <v>42530</v>
       </c>
       <c r="B409" s="98" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C409" s="98" t="s">
-        <v>1663</v>
+        <v>1647</v>
       </c>
       <c r="L409" s="108">
         <v>1</v>
@@ -19693,10 +19693,10 @@
         <v>42600</v>
       </c>
       <c r="B410" s="98" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C410" s="98" t="s">
-        <v>1664</v>
+        <v>1648</v>
       </c>
       <c r="H410" s="104">
         <v>6</v>
@@ -19721,10 +19721,10 @@
         <v>42610</v>
       </c>
       <c r="B411" s="98" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C411" s="98" t="s">
-        <v>1665</v>
+        <v>1649</v>
       </c>
       <c r="J411" s="104">
         <v>1</v>
@@ -19748,10 +19748,10 @@
         <v>42700</v>
       </c>
       <c r="B412" s="98" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C412" s="98" t="s">
-        <v>1666</v>
+        <v>1650</v>
       </c>
       <c r="H412" s="104">
         <v>7</v>
@@ -19777,10 +19777,10 @@
         <v>42710</v>
       </c>
       <c r="B413" s="98" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C413" s="98" t="s">
-        <v>1667</v>
+        <v>1651</v>
       </c>
       <c r="J413" s="104">
         <v>1</v>
@@ -19810,10 +19810,10 @@
         <v>42720</v>
       </c>
       <c r="B414" s="98" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C414" s="98" t="s">
-        <v>1668</v>
+        <v>1652</v>
       </c>
       <c r="J414" s="104">
         <v>2</v>
@@ -19836,10 +19836,10 @@
         <v>42800</v>
       </c>
       <c r="B415" s="98" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C415" s="98" t="s">
-        <v>1669</v>
+        <v>1653</v>
       </c>
       <c r="H415" s="104">
         <v>8</v>
@@ -19857,10 +19857,10 @@
         <v>42810</v>
       </c>
       <c r="B416" s="98" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C416" s="98" t="s">
-        <v>1670</v>
+        <v>1654</v>
       </c>
       <c r="J416" s="104">
         <v>1</v>
@@ -19889,10 +19889,10 @@
         <v>42820</v>
       </c>
       <c r="B417" s="98" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C417" s="98" t="s">
-        <v>1671</v>
+        <v>1655</v>
       </c>
       <c r="J417" s="104">
         <v>2</v>
@@ -19915,10 +19915,10 @@
         <v>42900</v>
       </c>
       <c r="B418" s="98" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C418" s="98" t="s">
-        <v>1672</v>
+        <v>1656</v>
       </c>
       <c r="H418" s="104">
         <v>9</v>
@@ -19935,10 +19935,10 @@
         <v>42910</v>
       </c>
       <c r="B419" s="98" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C419" s="98" t="s">
-        <v>1673</v>
+        <v>1657</v>
       </c>
       <c r="J419" s="104">
         <v>1</v>
@@ -19967,10 +19967,10 @@
         <v>42920</v>
       </c>
       <c r="B420" s="98" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C420" s="98" t="s">
-        <v>1674</v>
+        <v>1658</v>
       </c>
       <c r="J420" s="104">
         <v>2</v>
@@ -19993,10 +19993,10 @@
         <v>43000</v>
       </c>
       <c r="B421" s="98" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C421" s="98" t="s">
-        <v>1632</v>
+        <v>1616</v>
       </c>
       <c r="H421" s="104">
         <v>10</v>
@@ -20013,10 +20013,10 @@
         <v>43010</v>
       </c>
       <c r="B422" s="98" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C422" s="98" t="s">
-        <v>1633</v>
+        <v>1617</v>
       </c>
       <c r="J422" s="104">
         <v>1</v>
@@ -20042,10 +20042,10 @@
         <v>43020</v>
       </c>
       <c r="B423" s="98" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="C423" s="98" t="s">
-        <v>1634</v>
+        <v>1618</v>
       </c>
       <c r="J423" s="104">
         <v>2</v>
@@ -20071,10 +20071,10 @@
         <v>43030</v>
       </c>
       <c r="B424" s="98" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C424" s="98" t="s">
-        <v>1635</v>
+        <v>1619</v>
       </c>
       <c r="J424" s="104">
         <v>3</v>
@@ -20100,10 +20100,10 @@
         <v>43040</v>
       </c>
       <c r="B425" s="98" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C425" s="98" t="s">
-        <v>1636</v>
+        <v>1620</v>
       </c>
       <c r="J425" s="104">
         <v>4</v>
@@ -20129,10 +20129,10 @@
         <v>43050</v>
       </c>
       <c r="B426" s="98" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C426" s="98" t="s">
-        <v>1637</v>
+        <v>1621</v>
       </c>
       <c r="J426" s="104">
         <v>5</v>
@@ -20158,10 +20158,10 @@
         <v>43060</v>
       </c>
       <c r="B427" s="98" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C427" s="98" t="s">
-        <v>1638</v>
+        <v>1622</v>
       </c>
       <c r="J427" s="104">
         <v>6</v>
@@ -20185,10 +20185,10 @@
     <row r="428" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A428" s="131"/>
       <c r="B428" s="98" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C428" s="98" t="s">
-        <v>1639</v>
+        <v>1623</v>
       </c>
       <c r="E428" s="97"/>
       <c r="G428" s="97"/>
@@ -20206,10 +20206,10 @@
     <row r="429" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A429" s="131"/>
       <c r="B429" s="98" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="C429" s="98" t="s">
-        <v>1640</v>
+        <v>1624</v>
       </c>
       <c r="E429" s="97"/>
       <c r="G429" s="97"/>
@@ -20218,7 +20218,7 @@
         <v>1</v>
       </c>
       <c r="K429" s="87" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="AB429" s="136"/>
       <c r="AC429" s="143"/>
@@ -20229,16 +20229,16 @@
         <v>43070</v>
       </c>
       <c r="B430" s="98" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="C430" s="98" t="s">
-        <v>1641</v>
+        <v>1625</v>
       </c>
       <c r="H430" s="104">
         <v>12</v>
       </c>
       <c r="I430" s="87" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="K430" s="14"/>
       <c r="AB430" s="136"/>
@@ -20250,10 +20250,10 @@
         <v>43080</v>
       </c>
       <c r="B431" s="98" t="s">
-        <v>1896</v>
+        <v>1880</v>
       </c>
       <c r="C431" s="98" t="s">
-        <v>1642</v>
+        <v>1626</v>
       </c>
       <c r="I431" s="14"/>
       <c r="J431" s="104">
@@ -20277,10 +20277,10 @@
         <v>44000</v>
       </c>
       <c r="B432" s="98" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C432" s="98" t="s">
-        <v>1675</v>
+        <v>1659</v>
       </c>
       <c r="E432" s="30"/>
       <c r="F432" s="100">
@@ -20301,10 +20301,10 @@
         <v>44100</v>
       </c>
       <c r="B433" s="98" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C433" s="98" t="s">
-        <v>1676</v>
+        <v>1660</v>
       </c>
       <c r="H433" s="104">
         <v>1</v>
@@ -20321,10 +20321,10 @@
         <v>44110</v>
       </c>
       <c r="B434" s="98" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C434" s="98" t="s">
-        <v>1677</v>
+        <v>1661</v>
       </c>
       <c r="J434" s="104">
         <v>1</v>
@@ -20350,10 +20350,10 @@
         <v>44120</v>
       </c>
       <c r="B435" s="98" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C435" s="98" t="s">
-        <v>1678</v>
+        <v>1662</v>
       </c>
       <c r="J435" s="104">
         <v>2</v>
@@ -20379,10 +20379,10 @@
         <v>44200</v>
       </c>
       <c r="B436" s="98" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C436" s="98" t="s">
-        <v>1679</v>
+        <v>1663</v>
       </c>
       <c r="H436" s="104">
         <v>2</v>
@@ -20399,10 +20399,10 @@
         <v>44210</v>
       </c>
       <c r="B437" s="98" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C437" s="98" t="s">
-        <v>1680</v>
+        <v>1664</v>
       </c>
       <c r="J437" s="104">
         <v>1</v>
@@ -20431,10 +20431,10 @@
         <v>44220</v>
       </c>
       <c r="B438" s="98" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C438" s="98" t="s">
-        <v>1681</v>
+        <v>1665</v>
       </c>
       <c r="J438" s="104">
         <v>2</v>
@@ -20466,10 +20466,10 @@
         <v>44230</v>
       </c>
       <c r="B439" s="98" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C439" s="98" t="s">
-        <v>1682</v>
+        <v>1666</v>
       </c>
       <c r="J439" s="104">
         <v>3</v>
@@ -20498,10 +20498,10 @@
         <v>44240</v>
       </c>
       <c r="B440" s="98" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C440" s="98" t="s">
-        <v>1683</v>
+        <v>1667</v>
       </c>
       <c r="J440" s="104">
         <v>4</v>
@@ -20527,10 +20527,10 @@
         <v>45000</v>
       </c>
       <c r="B441" s="98" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C441" s="98" t="s">
-        <v>1684</v>
+        <v>1668</v>
       </c>
       <c r="E441" s="30"/>
       <c r="F441" s="100">
@@ -20551,10 +20551,10 @@
         <v>45100</v>
       </c>
       <c r="B442" s="98" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C442" s="98" t="s">
-        <v>1685</v>
+        <v>1669</v>
       </c>
       <c r="H442" s="104">
         <v>1</v>
@@ -20571,10 +20571,10 @@
         <v>45110</v>
       </c>
       <c r="B443" s="98" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C443" s="98" t="s">
-        <v>1686</v>
+        <v>1670</v>
       </c>
       <c r="I443" s="14"/>
       <c r="J443" s="104">
@@ -20598,10 +20598,10 @@
         <v>45200</v>
       </c>
       <c r="B444" s="98" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C444" s="98" t="s">
-        <v>1687</v>
+        <v>1671</v>
       </c>
       <c r="E444" s="30"/>
       <c r="F444" s="100">
@@ -20622,10 +20622,10 @@
         <v>45210</v>
       </c>
       <c r="B445" s="98" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C445" s="98" t="s">
-        <v>1688</v>
+        <v>1672</v>
       </c>
       <c r="H445" s="104">
         <v>1</v>
@@ -20642,10 +20642,10 @@
         <v>45220</v>
       </c>
       <c r="B446" s="98" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C446" s="98" t="s">
-        <v>1689</v>
+        <v>1673</v>
       </c>
       <c r="J446" s="104">
         <v>1</v>
@@ -20668,10 +20668,10 @@
         <v>50000</v>
       </c>
       <c r="B447" s="98" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="C447" s="98" t="s">
-        <v>1690</v>
+        <v>1674</v>
       </c>
       <c r="D447" s="100">
         <v>5</v>
@@ -20692,10 +20692,10 @@
         <v>50100</v>
       </c>
       <c r="B448" s="98" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C448" s="98" t="s">
-        <v>1691</v>
+        <v>1675</v>
       </c>
       <c r="E448" s="30"/>
       <c r="F448" s="100">
@@ -20716,10 +20716,10 @@
         <v>50200</v>
       </c>
       <c r="B449" s="98" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C449" s="98" t="s">
-        <v>1692</v>
+        <v>1676</v>
       </c>
       <c r="H449" s="104">
         <v>1</v>
@@ -20745,10 +20745,10 @@
         <v>50210</v>
       </c>
       <c r="B450" s="98" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C450" s="98" t="s">
-        <v>1693</v>
+        <v>1677</v>
       </c>
       <c r="J450" s="104">
         <v>1</v>
@@ -20775,10 +20775,10 @@
         <v>50300</v>
       </c>
       <c r="B451" s="98" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="C451" s="98" t="s">
-        <v>1694</v>
+        <v>1678</v>
       </c>
       <c r="H451" s="104">
         <v>2</v>
@@ -20796,10 +20796,10 @@
         <v>50310</v>
       </c>
       <c r="B452" s="98" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="C452" s="98" t="s">
-        <v>1695</v>
+        <v>1679</v>
       </c>
       <c r="J452" s="104">
         <v>1</v>
@@ -20837,10 +20837,10 @@
         <v>50320</v>
       </c>
       <c r="B453" s="98" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="C453" s="98" t="s">
-        <v>1698</v>
+        <v>1682</v>
       </c>
       <c r="J453" s="104">
         <v>2</v>
@@ -20878,10 +20878,10 @@
         <v>50330</v>
       </c>
       <c r="B454" s="98" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C454" s="98" t="s">
-        <v>1699</v>
+        <v>1683</v>
       </c>
       <c r="J454" s="104">
         <v>3</v>
@@ -20919,10 +20919,10 @@
         <v>50340</v>
       </c>
       <c r="B455" s="98" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C455" s="98" t="s">
-        <v>1700</v>
+        <v>1684</v>
       </c>
       <c r="J455" s="104">
         <v>4</v>
@@ -20960,10 +20960,10 @@
         <v>50350</v>
       </c>
       <c r="B456" s="98" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C456" s="98" t="s">
-        <v>1701</v>
+        <v>1685</v>
       </c>
       <c r="J456" s="104">
         <v>5</v>
@@ -21001,10 +21001,10 @@
         <v>50360</v>
       </c>
       <c r="B457" s="98" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C457" s="98" t="s">
-        <v>1702</v>
+        <v>1686</v>
       </c>
       <c r="J457" s="104">
         <v>6</v>
@@ -21042,10 +21042,10 @@
         <v>50370</v>
       </c>
       <c r="B458" s="98" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C458" s="98" t="s">
-        <v>1703</v>
+        <v>1687</v>
       </c>
       <c r="J458" s="104">
         <v>7</v>
@@ -21083,10 +21083,10 @@
         <v>50380</v>
       </c>
       <c r="B459" s="98" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C459" s="98" t="s">
-        <v>1704</v>
+        <v>1688</v>
       </c>
       <c r="J459" s="104">
         <v>8</v>
@@ -21124,10 +21124,10 @@
         <v>50390</v>
       </c>
       <c r="B460" s="98" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C460" s="98" t="s">
-        <v>1705</v>
+        <v>1689</v>
       </c>
       <c r="J460" s="104">
         <v>9</v>
@@ -21165,10 +21165,10 @@
         <v>50400</v>
       </c>
       <c r="B461" s="98" t="s">
-        <v>1895</v>
+        <v>1879</v>
       </c>
       <c r="C461" s="98" t="s">
-        <v>1897</v>
+        <v>1881</v>
       </c>
       <c r="J461" s="104">
         <v>10</v>
@@ -21206,10 +21206,10 @@
         <v>50410</v>
       </c>
       <c r="B462" s="98" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C462" s="98" t="s">
-        <v>1696</v>
+        <v>1680</v>
       </c>
       <c r="J462" s="104">
         <v>11</v>
@@ -21247,10 +21247,10 @@
         <v>50420</v>
       </c>
       <c r="B463" s="98" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C463" s="98" t="s">
-        <v>1697</v>
+        <v>1681</v>
       </c>
       <c r="J463" s="104">
         <v>12</v>
@@ -21285,10 +21285,10 @@
         <v>50500</v>
       </c>
       <c r="B464" s="98" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C464" s="98" t="s">
-        <v>1706</v>
+        <v>1690</v>
       </c>
       <c r="H464" s="104">
         <v>3</v>
@@ -21320,10 +21320,10 @@
         <v>50510</v>
       </c>
       <c r="B465" s="98" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C465" s="98" t="s">
-        <v>1707</v>
+        <v>1691</v>
       </c>
       <c r="J465" s="104">
         <v>1</v>
@@ -21353,10 +21353,10 @@
         <v>50520</v>
       </c>
       <c r="B466" s="98" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C466" s="98" t="s">
-        <v>1708</v>
+        <v>1692</v>
       </c>
       <c r="J466" s="104">
         <v>2</v>
@@ -21379,10 +21379,10 @@
         <v>50600</v>
       </c>
       <c r="B467" s="98" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C467" s="98" t="s">
-        <v>1709</v>
+        <v>1693</v>
       </c>
       <c r="H467" s="104">
         <v>4</v>
@@ -21399,10 +21399,10 @@
         <v>50610</v>
       </c>
       <c r="B468" s="98" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="C468" s="98" t="s">
-        <v>1710</v>
+        <v>1694</v>
       </c>
       <c r="J468" s="104">
         <v>1</v>
@@ -21419,10 +21419,10 @@
         <v>50620</v>
       </c>
       <c r="B469" s="98" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C469" s="98" t="s">
-        <v>1711</v>
+        <v>1695</v>
       </c>
       <c r="J469" s="104">
         <v>2</v>
@@ -21439,10 +21439,10 @@
         <v>51000</v>
       </c>
       <c r="B470" s="98" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C470" s="98" t="s">
-        <v>1712</v>
+        <v>1696</v>
       </c>
       <c r="E470" s="30"/>
       <c r="F470" s="100">
@@ -21463,10 +21463,10 @@
         <v>51100</v>
       </c>
       <c r="B471" s="98" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="C471" s="98" t="s">
-        <v>1713</v>
+        <v>1697</v>
       </c>
       <c r="H471" s="104">
         <v>1</v>
@@ -21483,10 +21483,10 @@
         <v>51110</v>
       </c>
       <c r="B472" s="98" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C472" s="98" t="s">
-        <v>1714</v>
+        <v>1698</v>
       </c>
       <c r="J472" s="104">
         <v>1</v>
@@ -21509,10 +21509,10 @@
         <v>51120</v>
       </c>
       <c r="B473" s="98" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C473" s="98" t="s">
-        <v>1715</v>
+        <v>1699</v>
       </c>
       <c r="J473" s="104">
         <v>2</v>
@@ -21541,10 +21541,10 @@
         <v>51200</v>
       </c>
       <c r="B474" s="98" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C474" s="98" t="s">
-        <v>1731</v>
+        <v>1715</v>
       </c>
       <c r="H474" s="104">
         <v>2</v>
@@ -21562,10 +21562,10 @@
         <v>51210</v>
       </c>
       <c r="B475" s="98" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C475" s="98" t="s">
-        <v>1732</v>
+        <v>1716</v>
       </c>
       <c r="J475" s="104">
         <v>1</v>
@@ -21597,10 +21597,10 @@
         <v>51220</v>
       </c>
       <c r="B476" s="98" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C476" s="98" t="s">
-        <v>1733</v>
+        <v>1717</v>
       </c>
       <c r="J476" s="104">
         <v>2</v>
@@ -21629,10 +21629,10 @@
         <v>51300</v>
       </c>
       <c r="B477" s="98" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C477" s="98" t="s">
-        <v>1734</v>
+        <v>1718</v>
       </c>
       <c r="H477" s="104">
         <v>3</v>
@@ -21650,10 +21650,10 @@
         <v>51310</v>
       </c>
       <c r="B478" s="98" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="C478" s="98" t="s">
-        <v>1735</v>
+        <v>1719</v>
       </c>
       <c r="J478" s="104">
         <v>1</v>
@@ -21685,10 +21685,10 @@
         <v>51320</v>
       </c>
       <c r="B479" s="98" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C479" s="98" t="s">
-        <v>1736</v>
+        <v>1720</v>
       </c>
       <c r="J479" s="104">
         <v>2</v>
@@ -21717,10 +21717,10 @@
         <v>51400</v>
       </c>
       <c r="B480" s="98" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C480" s="98" t="s">
-        <v>1737</v>
+        <v>1721</v>
       </c>
       <c r="H480" s="104">
         <v>4</v>
@@ -21738,10 +21738,10 @@
         <v>51410</v>
       </c>
       <c r="B481" s="98" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C481" s="98" t="s">
-        <v>1738</v>
+        <v>1722</v>
       </c>
       <c r="J481" s="104">
         <v>1</v>
@@ -21773,10 +21773,10 @@
         <v>51420</v>
       </c>
       <c r="B482" s="98" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="C482" s="98" t="s">
-        <v>1739</v>
+        <v>1723</v>
       </c>
       <c r="J482" s="104">
         <v>2</v>
@@ -21805,10 +21805,10 @@
         <v>51500</v>
       </c>
       <c r="B483" s="98" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="C483" s="98" t="s">
-        <v>1740</v>
+        <v>1724</v>
       </c>
       <c r="H483" s="104">
         <v>5</v>
@@ -21826,10 +21826,10 @@
         <v>51520</v>
       </c>
       <c r="B484" s="98" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C484" s="98" t="s">
-        <v>1741</v>
+        <v>1725</v>
       </c>
       <c r="J484" s="104">
         <v>1</v>
@@ -21861,10 +21861,10 @@
         <v>51530</v>
       </c>
       <c r="B485" s="98" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="C485" s="98" t="s">
-        <v>1742</v>
+        <v>1726</v>
       </c>
       <c r="J485" s="104">
         <v>2</v>
@@ -21893,10 +21893,10 @@
         <v>51600</v>
       </c>
       <c r="B486" s="98" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="C486" s="98" t="s">
-        <v>1743</v>
+        <v>1727</v>
       </c>
       <c r="H486" s="104">
         <v>6</v>
@@ -21914,10 +21914,10 @@
         <v>51610</v>
       </c>
       <c r="B487" s="98" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="C487" s="98" t="s">
-        <v>1744</v>
+        <v>1728</v>
       </c>
       <c r="J487" s="104">
         <v>1</v>
@@ -21949,10 +21949,10 @@
         <v>51620</v>
       </c>
       <c r="B488" s="98" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C488" s="98" t="s">
-        <v>1745</v>
+        <v>1729</v>
       </c>
       <c r="J488" s="104">
         <v>2</v>
@@ -21981,10 +21981,10 @@
         <v>51700</v>
       </c>
       <c r="B489" s="98" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="C489" s="98" t="s">
-        <v>1746</v>
+        <v>1730</v>
       </c>
       <c r="H489" s="104">
         <v>7</v>
@@ -22002,10 +22002,10 @@
         <v>51710</v>
       </c>
       <c r="B490" s="98" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C490" s="98" t="s">
-        <v>1747</v>
+        <v>1731</v>
       </c>
       <c r="J490" s="104">
         <v>1</v>
@@ -22037,10 +22037,10 @@
         <v>51720</v>
       </c>
       <c r="B491" s="98" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="C491" s="98" t="s">
-        <v>1748</v>
+        <v>1732</v>
       </c>
       <c r="J491" s="104">
         <v>2</v>
@@ -22069,10 +22069,10 @@
         <v>51800</v>
       </c>
       <c r="B492" s="98" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C492" s="98" t="s">
-        <v>1749</v>
+        <v>1733</v>
       </c>
       <c r="H492" s="104">
         <v>8</v>
@@ -22090,10 +22090,10 @@
         <v>51810</v>
       </c>
       <c r="B493" s="98" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="C493" s="98" t="s">
-        <v>1750</v>
+        <v>1734</v>
       </c>
       <c r="J493" s="104">
         <v>1</v>
@@ -22125,10 +22125,10 @@
         <v>51820</v>
       </c>
       <c r="B494" s="98" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="C494" s="98" t="s">
-        <v>1751</v>
+        <v>1735</v>
       </c>
       <c r="J494" s="104">
         <v>2</v>
@@ -22157,10 +22157,10 @@
         <v>51900</v>
       </c>
       <c r="B495" s="98" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="C495" s="98" t="s">
-        <v>1752</v>
+        <v>1736</v>
       </c>
       <c r="H495" s="104">
         <v>9</v>
@@ -22178,10 +22178,10 @@
         <v>51910</v>
       </c>
       <c r="B496" s="98" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="C496" s="98" t="s">
-        <v>1753</v>
+        <v>1737</v>
       </c>
       <c r="J496" s="104">
         <v>1</v>
@@ -22213,10 +22213,10 @@
         <v>51920</v>
       </c>
       <c r="B497" s="98" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="C497" s="98" t="s">
-        <v>1754</v>
+        <v>1738</v>
       </c>
       <c r="J497" s="104">
         <v>2</v>
@@ -22245,10 +22245,10 @@
         <v>52000</v>
       </c>
       <c r="B498" s="98" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="C498" s="98" t="s">
-        <v>1716</v>
+        <v>1700</v>
       </c>
       <c r="H498" s="104">
         <v>10</v>
@@ -22266,10 +22266,10 @@
         <v>52010</v>
       </c>
       <c r="B499" s="98" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="C499" s="98" t="s">
-        <v>1717</v>
+        <v>1701</v>
       </c>
       <c r="J499" s="104">
         <v>1</v>
@@ -22301,10 +22301,10 @@
         <v>52020</v>
       </c>
       <c r="B500" s="98" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="C500" s="98" t="s">
-        <v>1718</v>
+        <v>1702</v>
       </c>
       <c r="J500" s="104">
         <v>2</v>
@@ -22333,10 +22333,10 @@
         <v>52100</v>
       </c>
       <c r="B501" s="133" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="C501" s="133" t="s">
-        <v>1719</v>
+        <v>1703</v>
       </c>
       <c r="H501" s="104">
         <v>11</v>
@@ -22354,10 +22354,10 @@
         <v>52110</v>
       </c>
       <c r="B502" s="133" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="C502" s="133" t="s">
-        <v>1720</v>
+        <v>1704</v>
       </c>
       <c r="J502" s="104">
         <v>1</v>
@@ -22389,10 +22389,10 @@
         <v>52120</v>
       </c>
       <c r="B503" s="133" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="C503" s="133" t="s">
-        <v>1721</v>
+        <v>1705</v>
       </c>
       <c r="J503" s="104">
         <v>2</v>
@@ -22421,10 +22421,10 @@
         <v>52200</v>
       </c>
       <c r="B504" s="133" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="C504" s="133" t="s">
-        <v>1722</v>
+        <v>1706</v>
       </c>
       <c r="H504" s="104">
         <v>12</v>
@@ -22442,10 +22442,10 @@
         <v>52210</v>
       </c>
       <c r="B505" s="133" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="C505" s="133" t="s">
-        <v>1723</v>
+        <v>1707</v>
       </c>
       <c r="J505" s="104">
         <v>1</v>
@@ -22477,10 +22477,10 @@
         <v>52220</v>
       </c>
       <c r="B506" s="133" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="C506" s="133" t="s">
-        <v>1724</v>
+        <v>1708</v>
       </c>
       <c r="J506" s="104">
         <v>2</v>
@@ -22509,10 +22509,10 @@
         <v>52300</v>
       </c>
       <c r="B507" s="133" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="C507" s="133" t="s">
-        <v>1725</v>
+        <v>1709</v>
       </c>
       <c r="H507" s="104">
         <v>13</v>
@@ -22530,10 +22530,10 @@
         <v>52310</v>
       </c>
       <c r="B508" s="133" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="C508" s="133" t="s">
-        <v>1726</v>
+        <v>1710</v>
       </c>
       <c r="J508" s="104">
         <v>1</v>
@@ -22568,10 +22568,10 @@
         <v>52320</v>
       </c>
       <c r="B509" s="133" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C509" s="133" t="s">
-        <v>1727</v>
+        <v>1711</v>
       </c>
       <c r="J509" s="104">
         <v>2</v>
@@ -22603,10 +22603,10 @@
         <v>52400</v>
       </c>
       <c r="B510" s="133" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="C510" s="133" t="s">
-        <v>1728</v>
+        <v>1712</v>
       </c>
       <c r="H510" s="104">
         <v>14</v>
@@ -22623,10 +22623,10 @@
         <v>52410</v>
       </c>
       <c r="B511" s="133" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="C511" s="133" t="s">
-        <v>1729</v>
+        <v>1713</v>
       </c>
       <c r="J511" s="104">
         <v>1</v>
@@ -22646,10 +22646,10 @@
         <v>52420</v>
       </c>
       <c r="B512" s="133" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C512" s="133" t="s">
-        <v>1730</v>
+        <v>1714</v>
       </c>
       <c r="J512" s="107">
         <v>2</v>
@@ -22666,10 +22666,10 @@
         <v>52500</v>
       </c>
       <c r="B513" s="133" t="s">
-        <v>1898</v>
+        <v>1882</v>
       </c>
       <c r="C513" s="133" t="s">
-        <v>1901</v>
+        <v>1885</v>
       </c>
       <c r="H513" s="104">
         <v>15</v>
@@ -22686,10 +22686,10 @@
         <v>52510</v>
       </c>
       <c r="B514" s="133" t="s">
-        <v>1899</v>
+        <v>1883</v>
       </c>
       <c r="C514" s="133" t="s">
-        <v>1902</v>
+        <v>1886</v>
       </c>
       <c r="J514" s="104">
         <v>1</v>
@@ -22715,10 +22715,10 @@
         <v>52520</v>
       </c>
       <c r="B515" s="133" t="s">
-        <v>1900</v>
+        <v>1884</v>
       </c>
       <c r="C515" s="133" t="s">
-        <v>1903</v>
+        <v>1887</v>
       </c>
       <c r="J515" s="104">
         <v>2</v>
@@ -22735,10 +22735,10 @@
         <v>60000</v>
       </c>
       <c r="B516" s="98" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="C516" s="98" t="s">
-        <v>1755</v>
+        <v>1739</v>
       </c>
       <c r="D516" s="100">
         <v>6</v>
@@ -22759,10 +22759,10 @@
         <v>61000</v>
       </c>
       <c r="B517" s="98" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="C517" s="98" t="s">
-        <v>1756</v>
+        <v>1740</v>
       </c>
       <c r="E517" s="30"/>
       <c r="F517" s="100">
@@ -22783,10 +22783,10 @@
         <v>61100</v>
       </c>
       <c r="B518" s="98" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="C518" s="98" t="s">
-        <v>1757</v>
+        <v>1741</v>
       </c>
       <c r="H518" s="104">
         <v>1</v>
@@ -22803,10 +22803,10 @@
         <v>61110</v>
       </c>
       <c r="B519" s="98" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="C519" s="98" t="s">
-        <v>1758</v>
+        <v>1742</v>
       </c>
       <c r="J519" s="104">
         <v>1</v>
@@ -22824,10 +22824,10 @@
         <v>61120</v>
       </c>
       <c r="B520" s="98" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="C520" s="98" t="s">
-        <v>1759</v>
+        <v>1743</v>
       </c>
       <c r="L520" s="108">
         <v>1</v>
@@ -22859,10 +22859,10 @@
         <v>61200</v>
       </c>
       <c r="B521" s="98" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="C521" s="98" t="s">
-        <v>1760</v>
+        <v>1744</v>
       </c>
       <c r="J521" s="104">
         <v>2</v>
@@ -22880,10 +22880,10 @@
         <v>61210</v>
       </c>
       <c r="B522" s="98" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="C522" s="98" t="s">
-        <v>1761</v>
+        <v>1745</v>
       </c>
       <c r="L522" s="108">
         <v>1</v>
@@ -22915,10 +22915,10 @@
         <v>61300</v>
       </c>
       <c r="B523" s="98" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="C523" s="98" t="s">
-        <v>1762</v>
+        <v>1746</v>
       </c>
       <c r="J523" s="104">
         <v>3</v>
@@ -22935,10 +22935,10 @@
         <v>61310</v>
       </c>
       <c r="B524" s="98" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C524" s="98" t="s">
-        <v>1763</v>
+        <v>1747</v>
       </c>
       <c r="L524" s="108">
         <v>1</v>
@@ -22970,10 +22970,10 @@
         <v>61400</v>
       </c>
       <c r="B525" s="98" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="C525" s="98" t="s">
-        <v>1764</v>
+        <v>1748</v>
       </c>
       <c r="J525" s="104">
         <v>4</v>
@@ -22991,10 +22991,10 @@
         <v>61410</v>
       </c>
       <c r="B526" s="98" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C526" s="98" t="s">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="L526" s="108">
         <v>1</v>
@@ -23026,10 +23026,10 @@
         <v>61500</v>
       </c>
       <c r="B527" s="98" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="C527" s="98" t="s">
-        <v>1766</v>
+        <v>1750</v>
       </c>
       <c r="J527" s="104">
         <v>5</v>
@@ -23046,10 +23046,10 @@
         <v>61510</v>
       </c>
       <c r="B528" s="98" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="C528" s="98" t="s">
-        <v>1767</v>
+        <v>1751</v>
       </c>
       <c r="L528" s="108">
         <v>1</v>
@@ -23081,10 +23081,10 @@
         <v>61600</v>
       </c>
       <c r="B529" s="98" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="C529" s="98" t="s">
-        <v>1768</v>
+        <v>1752</v>
       </c>
       <c r="J529" s="104">
         <v>6</v>
@@ -23102,10 +23102,10 @@
         <v>61610</v>
       </c>
       <c r="B530" s="98" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="C530" s="98" t="s">
-        <v>1769</v>
+        <v>1753</v>
       </c>
       <c r="L530" s="108">
         <v>1</v>
@@ -23137,10 +23137,10 @@
         <v>61700</v>
       </c>
       <c r="B531" s="98" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C531" s="98" t="s">
-        <v>1770</v>
+        <v>1754</v>
       </c>
       <c r="J531" s="104">
         <v>7</v>
@@ -23157,10 +23157,10 @@
         <v>61710</v>
       </c>
       <c r="B532" s="98" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="C532" s="98" t="s">
-        <v>1771</v>
+        <v>1755</v>
       </c>
       <c r="L532" s="108">
         <v>1</v>
@@ -23192,10 +23192,10 @@
         <v>61800</v>
       </c>
       <c r="B533" s="98" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C533" s="98" t="s">
-        <v>1772</v>
+        <v>1756</v>
       </c>
       <c r="J533" s="104">
         <v>8</v>
@@ -23213,10 +23213,10 @@
         <v>61810</v>
       </c>
       <c r="B534" s="98" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="C534" s="98" t="s">
-        <v>1773</v>
+        <v>1757</v>
       </c>
       <c r="L534" s="108">
         <v>1</v>
@@ -23248,10 +23248,10 @@
         <v>62000</v>
       </c>
       <c r="B535" s="98" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="C535" s="98" t="s">
-        <v>1774</v>
+        <v>1758</v>
       </c>
       <c r="H535" s="104">
         <v>2</v>
@@ -23269,10 +23269,10 @@
         <v>62100</v>
       </c>
       <c r="B536" s="98" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="C536" s="98" t="s">
-        <v>1775</v>
+        <v>1759</v>
       </c>
       <c r="J536" s="104">
         <v>1</v>
@@ -23308,10 +23308,10 @@
         <v>62200</v>
       </c>
       <c r="B537" s="98" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="C537" s="98" t="s">
-        <v>1776</v>
+        <v>1760</v>
       </c>
       <c r="J537" s="104">
         <v>2</v>
@@ -23344,10 +23344,10 @@
         <v>62300</v>
       </c>
       <c r="B538" s="98" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="C538" s="98" t="s">
-        <v>1777</v>
+        <v>1761</v>
       </c>
       <c r="J538" s="104">
         <v>3</v>
@@ -23377,10 +23377,10 @@
         <v>62400</v>
       </c>
       <c r="B539" s="98" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="C539" s="98" t="s">
-        <v>1778</v>
+        <v>1762</v>
       </c>
       <c r="J539" s="104">
         <v>4</v>
@@ -23410,10 +23410,10 @@
         <v>62500</v>
       </c>
       <c r="B540" s="98" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="C540" s="98" t="s">
-        <v>1779</v>
+        <v>1763</v>
       </c>
       <c r="J540" s="104">
         <v>5</v>
@@ -23440,10 +23440,10 @@
         <v>62600</v>
       </c>
       <c r="B541" s="98" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="C541" s="98" t="s">
-        <v>1780</v>
+        <v>1764</v>
       </c>
       <c r="J541" s="104">
         <v>6</v>
@@ -23473,10 +23473,10 @@
         <v>63000</v>
       </c>
       <c r="B542" s="98" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="C542" s="98" t="s">
-        <v>1781</v>
+        <v>1765</v>
       </c>
       <c r="H542" s="104">
         <v>3</v>
@@ -23494,10 +23494,10 @@
         <v>63100</v>
       </c>
       <c r="B543" s="98" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C543" s="98" t="s">
-        <v>1782</v>
+        <v>1766</v>
       </c>
       <c r="J543" s="104">
         <v>1</v>
@@ -23529,10 +23529,10 @@
         <v>63200</v>
       </c>
       <c r="B544" s="98" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="C544" s="98" t="s">
-        <v>1783</v>
+        <v>1767</v>
       </c>
       <c r="J544" s="104">
         <v>2</v>
@@ -23561,10 +23561,10 @@
         <v>64000</v>
       </c>
       <c r="B545" s="98" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C545" s="98" t="s">
-        <v>1784</v>
+        <v>1768</v>
       </c>
       <c r="H545" s="104">
         <v>4</v>
@@ -23582,10 +23582,10 @@
         <v>64100</v>
       </c>
       <c r="B546" s="133" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="C546" s="133" t="s">
-        <v>1785</v>
+        <v>1769</v>
       </c>
       <c r="J546" s="104">
         <v>1</v>
@@ -23609,10 +23609,10 @@
         <v>64110</v>
       </c>
       <c r="B547" s="133" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="C547" s="133" t="s">
-        <v>1786</v>
+        <v>1770</v>
       </c>
       <c r="K547" s="19"/>
       <c r="L547" s="119">
@@ -23639,10 +23639,10 @@
         <v>64120</v>
       </c>
       <c r="B548" s="133" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="C548" s="133" t="s">
-        <v>1787</v>
+        <v>1771</v>
       </c>
       <c r="K548" s="19"/>
       <c r="L548" s="119">
@@ -23669,10 +23669,10 @@
         <v>64130</v>
       </c>
       <c r="B549" s="133" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="C549" s="133" t="s">
-        <v>1788</v>
+        <v>1772</v>
       </c>
       <c r="K549" s="19"/>
       <c r="L549" s="119">
@@ -23699,10 +23699,10 @@
         <v>64200</v>
       </c>
       <c r="B550" s="133" t="s">
-        <v>1904</v>
+        <v>1888</v>
       </c>
       <c r="C550" s="133" t="s">
-        <v>1907</v>
+        <v>1891</v>
       </c>
       <c r="J550" s="104">
         <v>2</v>
@@ -23721,10 +23721,10 @@
         <v>64210</v>
       </c>
       <c r="B551" s="133" t="s">
-        <v>1905</v>
+        <v>1889</v>
       </c>
       <c r="C551" s="133" t="s">
-        <v>1906</v>
+        <v>1890</v>
       </c>
       <c r="L551" s="108">
         <v>1</v>
@@ -23750,10 +23750,10 @@
         <v>64220</v>
       </c>
       <c r="B552" s="98" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="C552" s="98" t="s">
-        <v>1789</v>
+        <v>1773</v>
       </c>
       <c r="H552" s="104">
         <v>5</v>
@@ -23772,10 +23772,10 @@
         <v>64300</v>
       </c>
       <c r="B553" s="98" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="C553" s="98" t="s">
-        <v>1790</v>
+        <v>1774</v>
       </c>
       <c r="I553" s="14"/>
       <c r="J553" s="104">
@@ -23799,10 +23799,10 @@
         <v>70000</v>
       </c>
       <c r="B554" s="98" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="C554" s="98" t="s">
-        <v>1797</v>
+        <v>1781</v>
       </c>
       <c r="E554" s="30"/>
       <c r="F554" s="100">
@@ -23823,10 +23823,10 @@
         <v>70100</v>
       </c>
       <c r="B555" s="98" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="C555" s="98" t="s">
-        <v>1798</v>
+        <v>1782</v>
       </c>
       <c r="H555" s="104">
         <v>1</v>
@@ -23846,10 +23846,10 @@
         <v>70110</v>
       </c>
       <c r="B556" s="98" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="C556" s="98" t="s">
-        <v>1799</v>
+        <v>1783</v>
       </c>
       <c r="J556" s="104">
         <v>1</v>
@@ -23875,10 +23875,10 @@
         <v>70120</v>
       </c>
       <c r="B557" s="98" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="C557" s="98" t="s">
-        <v>1800</v>
+        <v>1784</v>
       </c>
       <c r="J557" s="104">
         <v>2</v>
@@ -23904,10 +23904,10 @@
         <v>70130</v>
       </c>
       <c r="B558" s="98" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C558" s="98" t="s">
-        <v>1801</v>
+        <v>1785</v>
       </c>
       <c r="J558" s="104">
         <v>3</v>
@@ -23933,10 +23933,10 @@
         <v>70140</v>
       </c>
       <c r="B559" s="98" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C559" s="98" t="s">
-        <v>1802</v>
+        <v>1786</v>
       </c>
       <c r="J559" s="104">
         <v>4</v>
@@ -23962,10 +23962,10 @@
         <v>70150</v>
       </c>
       <c r="B560" s="98" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C560" s="98" t="s">
-        <v>1803</v>
+        <v>1787</v>
       </c>
       <c r="J560" s="104">
         <v>5</v>
@@ -23991,10 +23991,10 @@
         <v>70160</v>
       </c>
       <c r="B561" s="98" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C561" s="98" t="s">
-        <v>1804</v>
+        <v>1788</v>
       </c>
       <c r="J561" s="104">
         <v>6</v>
@@ -24020,10 +24020,10 @@
         <v>70170</v>
       </c>
       <c r="B562" s="98" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C562" s="98" t="s">
-        <v>1805</v>
+        <v>1789</v>
       </c>
       <c r="J562" s="104">
         <v>7</v>
@@ -24049,10 +24049,10 @@
         <v>70200</v>
       </c>
       <c r="B563" s="98" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="C563" s="98" t="s">
-        <v>1806</v>
+        <v>1790</v>
       </c>
       <c r="E563" s="33"/>
       <c r="G563" s="33"/>
@@ -24072,10 +24072,10 @@
         <v>70210</v>
       </c>
       <c r="B564" s="98" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="C564" s="98" t="s">
-        <v>1807</v>
+        <v>1791</v>
       </c>
       <c r="E564" s="33"/>
       <c r="G564" s="33"/>
@@ -24103,10 +24103,10 @@
         <v>70220</v>
       </c>
       <c r="B565" s="98" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C565" s="98" t="s">
-        <v>1808</v>
+        <v>1792</v>
       </c>
       <c r="E565" s="33"/>
       <c r="G565" s="33"/>
@@ -24131,10 +24131,10 @@
         <v>70230</v>
       </c>
       <c r="B566" s="98" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="C566" s="98" t="s">
-        <v>1809</v>
+        <v>1793</v>
       </c>
       <c r="J566" s="104">
         <v>3</v>
@@ -24160,10 +24160,10 @@
         <v>70240</v>
       </c>
       <c r="B567" s="98" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="C567" s="98" t="s">
-        <v>1810</v>
+        <v>1794</v>
       </c>
       <c r="J567" s="104">
         <v>4</v>
@@ -24189,10 +24189,10 @@
         <v>70250</v>
       </c>
       <c r="B568" s="98" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="C568" s="98" t="s">
-        <v>1811</v>
+        <v>1795</v>
       </c>
       <c r="J568" s="104">
         <v>5</v>
@@ -24218,10 +24218,10 @@
         <v>70300</v>
       </c>
       <c r="B569" s="98" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="C569" s="98" t="s">
-        <v>1812</v>
+        <v>1796</v>
       </c>
       <c r="H569" s="104">
         <v>3</v>
@@ -24238,10 +24238,10 @@
         <v>70310</v>
       </c>
       <c r="B570" s="98" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="C570" s="98" t="s">
-        <v>1813</v>
+        <v>1797</v>
       </c>
       <c r="J570" s="104">
         <v>1</v>
@@ -24258,10 +24258,10 @@
         <v>71000</v>
       </c>
       <c r="B571" s="98" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C571" s="98" t="s">
-        <v>1814</v>
+        <v>1798</v>
       </c>
       <c r="E571" s="30"/>
       <c r="F571" s="100">
@@ -24282,10 +24282,10 @@
         <v>71100</v>
       </c>
       <c r="B572" s="98" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="C572" s="98" t="s">
-        <v>1815</v>
+        <v>1799</v>
       </c>
       <c r="H572" s="104">
         <v>1</v>
@@ -24304,10 +24304,10 @@
         <v>71110</v>
       </c>
       <c r="B573" s="98" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="C573" s="98" t="s">
-        <v>1816</v>
+        <v>1800</v>
       </c>
       <c r="J573" s="104">
         <v>1</v>
@@ -24334,10 +24334,10 @@
         <v>71120</v>
       </c>
       <c r="B574" s="98" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="C574" s="98" t="s">
-        <v>1824</v>
+        <v>1808</v>
       </c>
       <c r="J574" s="104">
         <v>2</v>
@@ -24363,10 +24363,10 @@
         <v>71130</v>
       </c>
       <c r="B575" s="98" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="C575" s="98" t="s">
-        <v>1825</v>
+        <v>1809</v>
       </c>
       <c r="J575" s="104">
         <v>3</v>
@@ -24392,10 +24392,10 @@
         <v>71140</v>
       </c>
       <c r="B576" s="98" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="C576" s="98" t="s">
-        <v>1826</v>
+        <v>1810</v>
       </c>
       <c r="J576" s="104">
         <v>4</v>
@@ -24421,10 +24421,10 @@
         <v>71150</v>
       </c>
       <c r="B577" s="98" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="C577" s="98" t="s">
-        <v>1827</v>
+        <v>1811</v>
       </c>
       <c r="J577" s="104">
         <v>5</v>
@@ -24451,10 +24451,10 @@
         <v>71160</v>
       </c>
       <c r="B578" s="98" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C578" s="98" t="s">
-        <v>1828</v>
+        <v>1812</v>
       </c>
       <c r="G578" s="10"/>
       <c r="J578" s="104">
@@ -24481,10 +24481,10 @@
         <v>71170</v>
       </c>
       <c r="B579" s="98" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="C579" s="98" t="s">
-        <v>1829</v>
+        <v>1813</v>
       </c>
       <c r="J579" s="104">
         <v>7</v>
@@ -24512,10 +24512,10 @@
         <v>71180</v>
       </c>
       <c r="B580" s="98" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="C580" s="98" t="s">
-        <v>1830</v>
+        <v>1814</v>
       </c>
       <c r="J580" s="104">
         <v>8</v>
@@ -24542,10 +24542,10 @@
         <v>71190</v>
       </c>
       <c r="B581" s="98" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="C581" s="98" t="s">
-        <v>1831</v>
+        <v>1815</v>
       </c>
       <c r="J581" s="104">
         <v>9</v>
@@ -24571,10 +24571,10 @@
         <v>71200</v>
       </c>
       <c r="B582" s="98" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C582" s="98" t="s">
-        <v>1817</v>
+        <v>1801</v>
       </c>
       <c r="J582" s="104">
         <v>10</v>
@@ -24601,10 +24601,10 @@
         <v>71210</v>
       </c>
       <c r="B583" s="98" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="C583" s="98" t="s">
-        <v>1818</v>
+        <v>1802</v>
       </c>
       <c r="J583" s="104">
         <v>11</v>
@@ -24630,10 +24630,10 @@
         <v>71220</v>
       </c>
       <c r="B584" s="98" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="C584" s="98" t="s">
-        <v>1819</v>
+        <v>1803</v>
       </c>
       <c r="E584" s="33"/>
       <c r="G584" s="33"/>
@@ -24664,10 +24664,10 @@
         <v>71230</v>
       </c>
       <c r="B585" s="98" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="C585" s="98" t="s">
-        <v>1820</v>
+        <v>1804</v>
       </c>
       <c r="J585" s="104">
         <v>13</v>
@@ -24693,10 +24693,10 @@
         <v>71240</v>
       </c>
       <c r="B586" s="98" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C586" s="98" t="s">
-        <v>1821</v>
+        <v>1805</v>
       </c>
       <c r="J586" s="104">
         <v>14</v>
@@ -24723,10 +24723,10 @@
         <v>71250</v>
       </c>
       <c r="B587" s="98" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="C587" s="98" t="s">
-        <v>1822</v>
+        <v>1806</v>
       </c>
       <c r="J587" s="104">
         <v>15</v>
@@ -24753,10 +24753,10 @@
         <v>71260</v>
       </c>
       <c r="B588" s="98" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="C588" s="98" t="s">
-        <v>1823</v>
+        <v>1807</v>
       </c>
       <c r="J588" s="104">
         <v>16</v>
@@ -24783,10 +24783,10 @@
         <v>72000</v>
       </c>
       <c r="B589" s="98" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="C589" s="98" t="s">
-        <v>1832</v>
+        <v>1816</v>
       </c>
       <c r="E589" s="30"/>
       <c r="F589" s="100">
@@ -24808,10 +24808,10 @@
         <v>72100</v>
       </c>
       <c r="B590" s="98" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="C590" s="98" t="s">
-        <v>1833</v>
+        <v>1817</v>
       </c>
       <c r="H590" s="104">
         <v>1</v>
@@ -24840,10 +24840,10 @@
         <v>72110</v>
       </c>
       <c r="B591" s="98" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="C591" s="98" t="s">
-        <v>1834</v>
+        <v>1818</v>
       </c>
       <c r="J591" s="104">
         <v>1</v>
@@ -24875,10 +24875,10 @@
         <v>72120</v>
       </c>
       <c r="B592" s="98" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="C592" s="98" t="s">
-        <v>1835</v>
+        <v>1819</v>
       </c>
       <c r="J592" s="104">
         <v>2</v>
@@ -24908,10 +24908,10 @@
         <v>72130</v>
       </c>
       <c r="B593" s="98" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="C593" s="98" t="s">
-        <v>1836</v>
+        <v>1820</v>
       </c>
       <c r="M593" s="41" t="s">
         <v>519</v>
@@ -24940,10 +24940,10 @@
         <v>72140</v>
       </c>
       <c r="B594" s="98" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="C594" s="98" t="s">
-        <v>1837</v>
+        <v>1821</v>
       </c>
       <c r="L594" s="104"/>
       <c r="M594" s="20" t="s">
@@ -24958,10 +24958,10 @@
         <v>72150</v>
       </c>
       <c r="B595" s="98" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="C595" s="98" t="s">
-        <v>1838</v>
+        <v>1822</v>
       </c>
       <c r="M595" s="41" t="s">
         <v>520</v>
@@ -24975,10 +24975,10 @@
         <v>72200</v>
       </c>
       <c r="B596" s="98" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="C596" s="98" t="s">
-        <v>1839</v>
+        <v>1823</v>
       </c>
       <c r="H596" s="104">
         <v>2</v>
@@ -24996,10 +24996,10 @@
         <v>72210</v>
       </c>
       <c r="B597" s="98" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="C597" s="98" t="s">
-        <v>1840</v>
+        <v>1824</v>
       </c>
       <c r="J597" s="104">
         <v>1</v>
@@ -25019,10 +25019,10 @@
         <v>72220</v>
       </c>
       <c r="B598" s="98" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="C598" s="98" t="s">
-        <v>1841</v>
+        <v>1825</v>
       </c>
       <c r="J598" s="104">
         <v>2</v>
@@ -25044,10 +25044,10 @@
         <v>72230</v>
       </c>
       <c r="B599" s="98" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="C599" s="98" t="s">
-        <v>1842</v>
+        <v>1826</v>
       </c>
       <c r="J599" s="104">
         <v>3</v>
@@ -25081,10 +25081,10 @@
         <v>72240</v>
       </c>
       <c r="B600" s="98" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="C600" s="98" t="s">
-        <v>1843</v>
+        <v>1827</v>
       </c>
       <c r="J600" s="104">
         <v>4</v>
@@ -25106,10 +25106,10 @@
         <v>73000</v>
       </c>
       <c r="B601" s="98" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="C601" s="98" t="s">
-        <v>1844</v>
+        <v>1828</v>
       </c>
       <c r="E601" s="30"/>
       <c r="F601" s="100">
@@ -25130,10 +25130,10 @@
         <v>73100</v>
       </c>
       <c r="B602" s="98" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="C602" s="98" t="s">
-        <v>1845</v>
+        <v>1829</v>
       </c>
       <c r="H602" s="104">
         <v>1</v>
@@ -25150,10 +25150,10 @@
         <v>73110</v>
       </c>
       <c r="B603" s="98" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="C603" s="98" t="s">
-        <v>1846</v>
+        <v>1830</v>
       </c>
       <c r="J603" s="104">
         <v>1</v>
@@ -25173,10 +25173,10 @@
         <v>73120</v>
       </c>
       <c r="B604" s="98" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="C604" s="98" t="s">
-        <v>1847</v>
+        <v>1831</v>
       </c>
       <c r="J604" s="104">
         <v>2</v>
@@ -25196,10 +25196,10 @@
         <v>73200</v>
       </c>
       <c r="B605" s="98" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="C605" s="98" t="s">
-        <v>1848</v>
+        <v>1832</v>
       </c>
       <c r="H605" s="104">
         <v>2</v>
@@ -25216,10 +25216,10 @@
         <v>73210</v>
       </c>
       <c r="B606" s="98" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="C606" s="98" t="s">
-        <v>1849</v>
+        <v>1833</v>
       </c>
       <c r="J606" s="104">
         <v>1</v>
@@ -25239,10 +25239,10 @@
         <v>73300</v>
       </c>
       <c r="B607" s="98" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="C607" s="98" t="s">
-        <v>1850</v>
+        <v>1834</v>
       </c>
       <c r="H607" s="104">
         <v>3</v>
@@ -25259,10 +25259,10 @@
         <v>73310</v>
       </c>
       <c r="B608" s="98" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="C608" s="98" t="s">
-        <v>1851</v>
+        <v>1835</v>
       </c>
       <c r="J608" s="104">
         <v>1</v>
@@ -25282,10 +25282,10 @@
         <v>74000</v>
       </c>
       <c r="B609" s="98" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="C609" s="98" t="s">
-        <v>1852</v>
+        <v>1836</v>
       </c>
       <c r="E609" s="30"/>
       <c r="F609" s="100">
@@ -25306,10 +25306,10 @@
         <v>74100</v>
       </c>
       <c r="B610" s="98" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="C610" s="98" t="s">
-        <v>1853</v>
+        <v>1837</v>
       </c>
       <c r="H610" s="104">
         <v>1</v>
@@ -25327,10 +25327,10 @@
         <v>74110</v>
       </c>
       <c r="B611" s="133" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="C611" s="133" t="s">
-        <v>1854</v>
+        <v>1838</v>
       </c>
       <c r="J611" s="104">
         <v>1</v>
@@ -25360,10 +25360,10 @@
         <v>74120</v>
       </c>
       <c r="B612" s="133" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="C612" s="133" t="s">
-        <v>1855</v>
+        <v>1839</v>
       </c>
       <c r="J612" s="104">
         <v>2</v>
@@ -25393,10 +25393,10 @@
         <v>74130</v>
       </c>
       <c r="B613" s="133" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="C613" s="133" t="s">
-        <v>1856</v>
+        <v>1840</v>
       </c>
       <c r="J613" s="104">
         <v>3</v>
@@ -25425,10 +25425,10 @@
         <v>74140</v>
       </c>
       <c r="B614" s="133" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="C614" s="133" t="s">
-        <v>1857</v>
+        <v>1841</v>
       </c>
       <c r="J614" s="104">
         <v>4</v>
@@ -25459,10 +25459,10 @@
         <v>74150</v>
       </c>
       <c r="B615" s="133" t="s">
-        <v>1908</v>
+        <v>1892</v>
       </c>
       <c r="C615" s="133" t="s">
-        <v>1909</v>
+        <v>1893</v>
       </c>
       <c r="J615" s="104">
         <v>5</v>
@@ -25490,10 +25490,10 @@
         <v>74200</v>
       </c>
       <c r="B616" s="98" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="C616" s="98" t="s">
-        <v>1858</v>
+        <v>1842</v>
       </c>
       <c r="H616" s="104">
         <v>2</v>
@@ -25510,10 +25510,10 @@
         <v>74210</v>
       </c>
       <c r="B617" s="98" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="C617" s="98" t="s">
-        <v>1859</v>
+        <v>1843</v>
       </c>
       <c r="J617" s="104">
         <v>1</v>
@@ -25530,10 +25530,10 @@
         <v>75000</v>
       </c>
       <c r="B618" s="98" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="C618" s="98" t="s">
-        <v>1860</v>
+        <v>1844</v>
       </c>
       <c r="E618" s="30"/>
       <c r="F618" s="100">
@@ -25554,10 +25554,10 @@
         <v>75100</v>
       </c>
       <c r="B619" s="98" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="C619" s="98" t="s">
-        <v>1861</v>
+        <v>1845</v>
       </c>
       <c r="H619" s="104">
         <v>1</v>
@@ -25578,10 +25578,10 @@
         <v>75110</v>
       </c>
       <c r="B620" s="98" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="C620" s="98" t="s">
-        <v>1862</v>
+        <v>1846</v>
       </c>
       <c r="J620" s="104">
         <v>1</v>
@@ -25602,10 +25602,10 @@
         <v>75120</v>
       </c>
       <c r="B621" s="98" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="C621" s="98" t="s">
-        <v>1863</v>
+        <v>1847</v>
       </c>
       <c r="J621" s="104">
         <v>2</v>
@@ -25632,10 +25632,10 @@
         <v>75130</v>
       </c>
       <c r="B622" s="133" t="s">
-        <v>1910</v>
+        <v>1894</v>
       </c>
       <c r="C622" s="133" t="s">
-        <v>1911</v>
+        <v>1895</v>
       </c>
       <c r="J622" s="104">
         <v>3</v>
@@ -25661,10 +25661,10 @@
         <v>75200</v>
       </c>
       <c r="B623" s="98" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="C623" s="98" t="s">
-        <v>1864</v>
+        <v>1848</v>
       </c>
       <c r="H623" s="104">
         <v>2</v>
@@ -25688,10 +25688,10 @@
         <v>75210</v>
       </c>
       <c r="B624" s="98" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="C624" s="98" t="s">
-        <v>1865</v>
+        <v>1849</v>
       </c>
       <c r="J624" s="104">
         <v>1</v>
@@ -25717,10 +25717,10 @@
         <v>75220</v>
       </c>
       <c r="B625" s="98" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="C625" s="98" t="s">
-        <v>1866</v>
+        <v>1850</v>
       </c>
       <c r="J625" s="104">
         <v>2</v>
@@ -25746,10 +25746,10 @@
         <v>75230</v>
       </c>
       <c r="B626" s="98" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="C626" s="98" t="s">
-        <v>1867</v>
+        <v>1851</v>
       </c>
       <c r="J626" s="104">
         <v>3</v>
@@ -25775,10 +25775,10 @@
         <v>75240</v>
       </c>
       <c r="B627" s="98" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="C627" s="98" t="s">
-        <v>1868</v>
+        <v>1852</v>
       </c>
       <c r="J627" s="104">
         <v>4</v>
@@ -25804,10 +25804,10 @@
         <v>75300</v>
       </c>
       <c r="B628" s="98" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="C628" s="98" t="s">
-        <v>1869</v>
+        <v>1853</v>
       </c>
       <c r="H628" s="104">
         <v>3</v>
@@ -25825,10 +25825,10 @@
         <v>75310</v>
       </c>
       <c r="B629" s="98" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="C629" s="98" t="s">
-        <v>1870</v>
+        <v>1854</v>
       </c>
       <c r="J629" s="104">
         <v>1</v>
@@ -25854,10 +25854,10 @@
         <v>75320</v>
       </c>
       <c r="B630" s="98" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="C630" s="98" t="s">
-        <v>1871</v>
+        <v>1855</v>
       </c>
       <c r="J630" s="104">
         <v>2</v>
@@ -25883,10 +25883,10 @@
         <v>75400</v>
       </c>
       <c r="B631" s="98" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="C631" s="98" t="s">
-        <v>1872</v>
+        <v>1856</v>
       </c>
       <c r="H631" s="104">
         <v>4</v>
@@ -25903,10 +25903,10 @@
         <v>75410</v>
       </c>
       <c r="B632" s="98" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="C632" s="98" t="s">
-        <v>1873</v>
+        <v>1857</v>
       </c>
       <c r="J632" s="104">
         <v>1</v>
@@ -25929,10 +25929,10 @@
         <v>76000</v>
       </c>
       <c r="B633" s="98" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="C633" s="98" t="s">
-        <v>1874</v>
+        <v>1858</v>
       </c>
       <c r="E633" s="30"/>
       <c r="F633" s="100">
@@ -25953,10 +25953,10 @@
         <v>76100</v>
       </c>
       <c r="B634" s="98" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="C634" s="98" t="s">
-        <v>1875</v>
+        <v>1859</v>
       </c>
       <c r="H634" s="104">
         <v>1</v>
@@ -25973,10 +25973,10 @@
         <v>76110</v>
       </c>
       <c r="B635" s="98" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C635" s="98" t="s">
-        <v>1876</v>
+        <v>1860</v>
       </c>
       <c r="J635" s="104">
         <v>1</v>
@@ -26002,10 +26002,10 @@
         <v>76120</v>
       </c>
       <c r="B636" s="98" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="C636" s="98" t="s">
-        <v>1877</v>
+        <v>1861</v>
       </c>
       <c r="J636" s="104">
         <v>2</v>
@@ -26028,10 +26028,10 @@
         <v>76200</v>
       </c>
       <c r="B637" s="98" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="C637" s="98" t="s">
-        <v>1878</v>
+        <v>1862</v>
       </c>
       <c r="H637" s="104">
         <v>2</v>
@@ -26048,10 +26048,10 @@
         <v>76210</v>
       </c>
       <c r="B638" s="98" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="C638" s="98" t="s">
-        <v>1879</v>
+        <v>1863</v>
       </c>
       <c r="J638" s="104">
         <v>1</v>
@@ -26077,10 +26077,10 @@
         <v>76300</v>
       </c>
       <c r="B639" s="98" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="C639" s="98" t="s">
-        <v>1880</v>
+        <v>1864</v>
       </c>
       <c r="H639" s="104">
         <v>3</v>
@@ -26097,10 +26097,10 @@
         <v>76310</v>
       </c>
       <c r="B640" s="98" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="C640" s="98" t="s">
-        <v>1881</v>
+        <v>1865</v>
       </c>
       <c r="J640" s="104">
         <v>1</v>
@@ -26126,10 +26126,10 @@
         <v>76400</v>
       </c>
       <c r="B641" s="98" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="C641" s="98" t="s">
-        <v>1882</v>
+        <v>1866</v>
       </c>
       <c r="H641" s="104">
         <v>4</v>
@@ -26146,10 +26146,10 @@
         <v>76410</v>
       </c>
       <c r="B642" s="98" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="C642" s="98" t="s">
-        <v>1883</v>
+        <v>1867</v>
       </c>
       <c r="J642" s="104">
         <v>1</v>
@@ -26172,10 +26172,10 @@
         <v>76420</v>
       </c>
       <c r="B643" s="98" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="C643" s="98" t="s">
-        <v>1884</v>
+        <v>1868</v>
       </c>
       <c r="J643" s="104">
         <v>2</v>
@@ -26198,10 +26198,10 @@
         <v>76500</v>
       </c>
       <c r="B644" s="98" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="C644" s="98" t="s">
-        <v>1885</v>
+        <v>1869</v>
       </c>
       <c r="H644" s="104">
         <v>5</v>
@@ -26218,10 +26218,10 @@
         <v>76510</v>
       </c>
       <c r="B645" s="98" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="C645" s="98" t="s">
-        <v>1886</v>
+        <v>1870</v>
       </c>
       <c r="J645" s="104">
         <v>1</v>
@@ -26244,10 +26244,10 @@
         <v>76520</v>
       </c>
       <c r="B646" s="98" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="C646" s="98" t="s">
-        <v>1887</v>
+        <v>1871</v>
       </c>
       <c r="J646" s="104">
         <v>2</v>
@@ -26270,10 +26270,10 @@
         <v>76600</v>
       </c>
       <c r="B647" s="98" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="C647" s="98" t="s">
-        <v>1888</v>
+        <v>1872</v>
       </c>
       <c r="H647" s="104">
         <v>6</v>
@@ -26290,10 +26290,10 @@
         <v>76610</v>
       </c>
       <c r="B648" s="98" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="C648" s="98" t="s">
-        <v>1889</v>
+        <v>1873</v>
       </c>
       <c r="I648" s="14"/>
       <c r="J648" s="104">
@@ -26317,10 +26317,10 @@
         <v>77000</v>
       </c>
       <c r="B649" s="98" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="C649" s="98" t="s">
-        <v>1890</v>
+        <v>1874</v>
       </c>
       <c r="E649" s="30"/>
       <c r="F649" s="100">
@@ -26341,10 +26341,10 @@
         <v>77100</v>
       </c>
       <c r="B650" s="98" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="C650" s="98" t="s">
-        <v>1891</v>
+        <v>1875</v>
       </c>
       <c r="E650" s="33"/>
       <c r="G650" s="33"/>
@@ -26365,10 +26365,10 @@
         <v>77110</v>
       </c>
       <c r="B651" s="98" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="C651" s="98" t="s">
-        <v>1892</v>
+        <v>1876</v>
       </c>
       <c r="E651" s="33"/>
       <c r="G651" s="33"/>
@@ -26395,10 +26395,10 @@
         <v>77200</v>
       </c>
       <c r="B652" s="98" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="C652" s="98" t="s">
-        <v>1893</v>
+        <v>1877</v>
       </c>
       <c r="H652" s="104">
         <v>2</v>
@@ -26417,10 +26417,10 @@
         <v>77210</v>
       </c>
       <c r="B653" s="98" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="C653" s="98" t="s">
-        <v>1894</v>
+        <v>1878</v>
       </c>
       <c r="I653" s="14"/>
       <c r="J653" s="104">
@@ -26444,10 +26444,10 @@
         <v>78000</v>
       </c>
       <c r="B654" s="98" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="C654" s="98" t="s">
-        <v>1791</v>
+        <v>1775</v>
       </c>
       <c r="E654" s="30"/>
       <c r="F654" s="100">
@@ -26468,10 +26468,10 @@
         <v>78100</v>
       </c>
       <c r="B655" s="98" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="C655" s="98" t="s">
-        <v>1792</v>
+        <v>1776</v>
       </c>
       <c r="G655" s="10"/>
       <c r="H655" s="104">
@@ -26494,10 +26494,10 @@
         <v>78110</v>
       </c>
       <c r="B656" s="98" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="C656" s="98" t="s">
-        <v>1793</v>
+        <v>1777</v>
       </c>
       <c r="I656" s="14"/>
       <c r="J656" s="104">
@@ -26522,10 +26522,10 @@
         <v>78120</v>
       </c>
       <c r="B657" s="98" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C657" s="98" t="s">
-        <v>1794</v>
+        <v>1778</v>
       </c>
       <c r="I657" s="14"/>
       <c r="J657" s="104">
@@ -26550,10 +26550,10 @@
         <v>78130</v>
       </c>
       <c r="B658" s="98" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="C658" s="98" t="s">
-        <v>1795</v>
+        <v>1779</v>
       </c>
       <c r="I658" s="14"/>
       <c r="J658" s="104">
@@ -26578,10 +26578,10 @@
         <v>78140</v>
       </c>
       <c r="B659" s="98" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C659" s="98" t="s">
-        <v>1796</v>
+        <v>1780</v>
       </c>
       <c r="J659" s="104">
         <v>4</v>
@@ -27210,7 +27210,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>1921</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -27230,7 +27230,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1925</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -27280,7 +27280,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1922</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
@@ -27300,7 +27300,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1923</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
@@ -27320,7 +27320,7 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1924</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="1958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3734" uniqueCount="1958">
   <si>
     <t>Autres</t>
   </si>
@@ -7129,8 +7129,8 @@
   <dimension ref="A1:AS677"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C161" sqref="C161"/>
+      <pane ySplit="4" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A595" sqref="A595:XFD595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
@@ -11683,9 +11683,7 @@
         <v>564</v>
       </c>
       <c r="AB147" s="98"/>
-      <c r="AC147" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC147" s="143"/>
       <c r="AD147" s="136"/>
     </row>
     <row r="148" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -11723,9 +11721,7 @@
         <v>565</v>
       </c>
       <c r="AB148" s="98"/>
-      <c r="AC148" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC148" s="143"/>
       <c r="AD148" s="136"/>
     </row>
     <row r="149" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -11763,9 +11759,7 @@
         <v>566</v>
       </c>
       <c r="AB149" s="98"/>
-      <c r="AC149" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC149" s="143"/>
       <c r="AD149" s="136"/>
     </row>
     <row r="150" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -11803,9 +11797,7 @@
         <v>567</v>
       </c>
       <c r="AB150" s="98"/>
-      <c r="AC150" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC150" s="143"/>
       <c r="AD150" s="136"/>
     </row>
     <row r="151" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -11843,9 +11835,7 @@
         <v>568</v>
       </c>
       <c r="AB151" s="98"/>
-      <c r="AC151" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC151" s="143"/>
       <c r="AD151" s="136"/>
     </row>
     <row r="152" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -11883,9 +11873,7 @@
         <v>569</v>
       </c>
       <c r="AB152" s="98"/>
-      <c r="AC152" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC152" s="143"/>
       <c r="AD152" s="136"/>
     </row>
     <row r="153" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -11923,9 +11911,7 @@
         <v>570</v>
       </c>
       <c r="AB153" s="98"/>
-      <c r="AC153" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC153" s="143"/>
       <c r="AD153" s="136"/>
     </row>
     <row r="154" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -11963,9 +11949,7 @@
         <v>571</v>
       </c>
       <c r="AB154" s="98"/>
-      <c r="AC154" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC154" s="143"/>
       <c r="AD154" s="136"/>
     </row>
     <row r="155" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -12003,9 +11987,7 @@
         <v>572</v>
       </c>
       <c r="AB155" s="98"/>
-      <c r="AC155" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC155" s="143"/>
       <c r="AD155" s="136"/>
     </row>
     <row r="156" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -12043,9 +12025,7 @@
         <v>573</v>
       </c>
       <c r="AB156" s="98"/>
-      <c r="AC156" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC156" s="143"/>
       <c r="AD156" s="136"/>
     </row>
     <row r="157" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -12083,9 +12063,7 @@
         <v>574</v>
       </c>
       <c r="AB157" s="98"/>
-      <c r="AC157" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC157" s="143"/>
       <c r="AD157" s="136"/>
     </row>
     <row r="158" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -12123,9 +12101,7 @@
         <v>575</v>
       </c>
       <c r="AB158" s="98"/>
-      <c r="AC158" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC158" s="143"/>
       <c r="AD158" s="136"/>
     </row>
     <row r="159" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -12163,9 +12139,7 @@
         <v>576</v>
       </c>
       <c r="AB159" s="98"/>
-      <c r="AC159" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC159" s="143"/>
       <c r="AD159" s="136"/>
     </row>
     <row r="160" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -12206,9 +12180,7 @@
         <v>577</v>
       </c>
       <c r="AB160" s="98"/>
-      <c r="AC160" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC160" s="143"/>
       <c r="AD160" s="136"/>
     </row>
     <row r="161" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
@@ -12249,9 +12221,7 @@
         <v>578</v>
       </c>
       <c r="AB161" s="98"/>
-      <c r="AC161" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC161" s="143"/>
       <c r="AD161" s="136"/>
     </row>
     <row r="162" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -13269,9 +13239,7 @@
       <c r="AB189" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC189" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC189" s="143"/>
       <c r="AD189" s="136"/>
     </row>
     <row r="190" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -13374,9 +13342,7 @@
       <c r="AB193" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC193" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC193" s="143"/>
       <c r="AD193" s="136"/>
     </row>
     <row r="194" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -13671,9 +13637,7 @@
       <c r="AB202" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC202" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC202" s="143"/>
       <c r="AD202" s="136"/>
     </row>
     <row r="203" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -13771,9 +13735,7 @@
       <c r="AB205" s="136" t="s">
         <v>628</v>
       </c>
-      <c r="AC205" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC205" s="143"/>
       <c r="AD205" s="136"/>
     </row>
     <row r="206" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -13876,9 +13838,7 @@
       <c r="AB208" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC208" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC208" s="143"/>
       <c r="AD208" s="136"/>
     </row>
     <row r="209" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -13915,9 +13875,7 @@
       <c r="AB209" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC209" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC209" s="143"/>
       <c r="AD209" s="136"/>
     </row>
     <row r="210" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -13952,9 +13910,7 @@
       <c r="AB210" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC210" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC210" s="143"/>
       <c r="AD210" s="136"/>
     </row>
     <row r="211" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -14010,9 +13966,7 @@
       <c r="AB212" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC212" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC212" s="143"/>
       <c r="AD212" s="136"/>
     </row>
     <row r="213" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -14094,9 +14048,7 @@
       <c r="AB215" s="136" t="s">
         <v>628</v>
       </c>
-      <c r="AC215" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC215" s="143"/>
       <c r="AD215" s="136"/>
     </row>
     <row r="216" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -14200,9 +14152,7 @@
         <v>348</v>
       </c>
       <c r="AB218" s="136"/>
-      <c r="AC218" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC218" s="143"/>
       <c r="AD218" s="136"/>
     </row>
     <row r="219" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -14286,9 +14236,7 @@
         <v>346</v>
       </c>
       <c r="AB221" s="136"/>
-      <c r="AC221" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC221" s="143"/>
       <c r="AD221" s="136"/>
     </row>
     <row r="222" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -14371,9 +14319,7 @@
         <v>346</v>
       </c>
       <c r="AB224" s="136"/>
-      <c r="AC224" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC224" s="143"/>
       <c r="AD224" s="136"/>
     </row>
     <row r="225" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -14454,9 +14400,7 @@
         <v>346</v>
       </c>
       <c r="AB227" s="136"/>
-      <c r="AC227" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC227" s="143"/>
       <c r="AD227" s="136"/>
     </row>
     <row r="228" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -14577,9 +14521,7 @@
         <v>346</v>
       </c>
       <c r="AB231" s="136"/>
-      <c r="AC231" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC231" s="143"/>
       <c r="AD231" s="136"/>
     </row>
     <row r="232" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -14677,9 +14619,7 @@
         <v>346</v>
       </c>
       <c r="AB234" s="136"/>
-      <c r="AC234" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC234" s="143"/>
       <c r="AD234" s="136"/>
     </row>
     <row r="235" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -14776,9 +14716,7 @@
         <v>346</v>
       </c>
       <c r="AB237" s="136"/>
-      <c r="AC237" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC237" s="143"/>
       <c r="AD237" s="136"/>
     </row>
     <row r="238" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -14875,9 +14813,7 @@
         <v>346</v>
       </c>
       <c r="AB240" s="136"/>
-      <c r="AC240" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC240" s="143"/>
       <c r="AD240" s="136"/>
     </row>
     <row r="241" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -16082,9 +16018,7 @@
       <c r="AB288" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC288" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC288" s="143"/>
       <c r="AD288" s="136"/>
     </row>
     <row r="289" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -16465,9 +16399,7 @@
       <c r="AB300" s="136" t="s">
         <v>898</v>
       </c>
-      <c r="AC300" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC300" s="143"/>
       <c r="AD300" s="136"/>
     </row>
     <row r="301" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -16501,9 +16433,7 @@
       <c r="AB301" s="136" t="s">
         <v>898</v>
       </c>
-      <c r="AC301" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC301" s="143"/>
       <c r="AD301" s="136"/>
     </row>
     <row r="302" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -16525,9 +16455,7 @@
       <c r="AB302" s="136" t="s">
         <v>898</v>
       </c>
-      <c r="AC302" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC302" s="143"/>
       <c r="AD302" s="136"/>
     </row>
     <row r="303" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -16561,9 +16489,7 @@
       <c r="AB303" s="136" t="s">
         <v>898</v>
       </c>
-      <c r="AC303" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC303" s="143"/>
       <c r="AD303" s="136"/>
     </row>
     <row r="304" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -16607,9 +16533,7 @@
       <c r="AB305" s="136" t="s">
         <v>672</v>
       </c>
-      <c r="AC305" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC305" s="143"/>
       <c r="AD305" s="136"/>
     </row>
     <row r="306" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -16679,9 +16603,7 @@
       <c r="AB308" s="136" t="s">
         <v>906</v>
       </c>
-      <c r="AC308" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC308" s="143"/>
       <c r="AD308" s="136"/>
     </row>
     <row r="309" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -16715,9 +16637,7 @@
       <c r="AB309" s="136" t="s">
         <v>906</v>
       </c>
-      <c r="AC309" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC309" s="143"/>
       <c r="AD309" s="136"/>
     </row>
     <row r="310" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -16751,9 +16671,7 @@
       <c r="AB310" s="136" t="s">
         <v>906</v>
       </c>
-      <c r="AC310" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC310" s="143"/>
       <c r="AD310" s="136"/>
     </row>
     <row r="311" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -16787,9 +16705,7 @@
       <c r="AB311" s="136" t="s">
         <v>906</v>
       </c>
-      <c r="AC311" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC311" s="143"/>
       <c r="AD311" s="136"/>
     </row>
     <row r="312" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -16857,9 +16773,7 @@
       <c r="AB313" s="136" t="s">
         <v>911</v>
       </c>
-      <c r="AC313" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC313" s="143"/>
       <c r="AD313" s="136"/>
     </row>
     <row r="314" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -16893,9 +16807,7 @@
       <c r="AB314" s="136" t="s">
         <v>911</v>
       </c>
-      <c r="AC314" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC314" s="143"/>
       <c r="AD314" s="136"/>
     </row>
     <row r="315" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -16929,9 +16841,7 @@
       <c r="AB315" s="136" t="s">
         <v>911</v>
       </c>
-      <c r="AC315" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC315" s="143"/>
       <c r="AD315" s="136"/>
     </row>
     <row r="316" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -16965,9 +16875,7 @@
       <c r="AB316" s="136" t="s">
         <v>911</v>
       </c>
-      <c r="AC316" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC316" s="143"/>
       <c r="AD316" s="136"/>
     </row>
     <row r="317" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17001,9 +16909,7 @@
       <c r="AB317" s="136" t="s">
         <v>911</v>
       </c>
-      <c r="AC317" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC317" s="143"/>
       <c r="AD317" s="136"/>
     </row>
     <row r="318" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17037,9 +16943,7 @@
       <c r="AB318" s="136" t="s">
         <v>911</v>
       </c>
-      <c r="AC318" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC318" s="143"/>
       <c r="AD318" s="136"/>
     </row>
     <row r="319" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -17106,9 +17010,7 @@
       <c r="AB320" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC320" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC320" s="143"/>
       <c r="AD320" s="136"/>
     </row>
     <row r="321" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17142,9 +17044,7 @@
       <c r="AB321" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC321" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC321" s="143"/>
       <c r="AD321" s="136"/>
     </row>
     <row r="322" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17178,9 +17078,7 @@
       <c r="AB322" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC322" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC322" s="143"/>
       <c r="AD322" s="136"/>
     </row>
     <row r="323" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17214,9 +17112,7 @@
       <c r="AB323" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC323" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC323" s="143"/>
       <c r="AD323" s="136"/>
     </row>
     <row r="324" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17250,9 +17146,7 @@
       <c r="AB324" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC324" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC324" s="143"/>
       <c r="AD324" s="136"/>
     </row>
     <row r="325" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17287,9 +17181,7 @@
       <c r="AB325" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC325" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC325" s="143"/>
       <c r="AD325" s="136"/>
     </row>
     <row r="326" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17323,9 +17215,7 @@
       <c r="AB326" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC326" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC326" s="143"/>
       <c r="AD326" s="136"/>
     </row>
     <row r="327" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17359,9 +17249,7 @@
       <c r="AB327" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC327" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC327" s="143"/>
       <c r="AD327" s="136"/>
     </row>
     <row r="328" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -17415,9 +17303,7 @@
       <c r="AB329" s="136" t="s">
         <v>672</v>
       </c>
-      <c r="AC329" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC329" s="143"/>
       <c r="AD329" s="136"/>
     </row>
     <row r="330" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -17473,9 +17359,7 @@
       <c r="AB331" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC331" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC331" s="143"/>
       <c r="AD331" s="136"/>
     </row>
     <row r="332" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17509,9 +17393,7 @@
       <c r="AB332" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC332" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC332" s="143"/>
       <c r="AD332" s="136"/>
     </row>
     <row r="333" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17545,9 +17427,7 @@
       <c r="AB333" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC333" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC333" s="143"/>
       <c r="AD333" s="136"/>
     </row>
     <row r="334" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17569,9 +17449,7 @@
       <c r="AB334" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC334" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC334" s="143"/>
       <c r="AD334" s="136"/>
     </row>
     <row r="335" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17605,9 +17483,7 @@
       <c r="AB335" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC335" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC335" s="143"/>
       <c r="AD335" s="136"/>
     </row>
     <row r="336" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17629,9 +17505,7 @@
       <c r="AB336" s="136" t="s">
         <v>672</v>
       </c>
-      <c r="AC336" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC336" s="143"/>
       <c r="AD336" s="136"/>
     </row>
     <row r="337" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17696,9 +17570,7 @@
       <c r="AB338" s="136" t="s">
         <v>672</v>
       </c>
-      <c r="AC338" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC338" s="143"/>
       <c r="AD338" s="136"/>
     </row>
     <row r="339" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -17743,9 +17615,7 @@
       <c r="AB340" s="136" t="s">
         <v>672</v>
       </c>
-      <c r="AC340" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC340" s="143"/>
       <c r="AD340" s="136"/>
     </row>
     <row r="341" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -17811,9 +17681,7 @@
       <c r="AB342" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC342" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC342" s="143"/>
       <c r="AD342" s="136"/>
     </row>
     <row r="343" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -17844,9 +17712,7 @@
       <c r="AB343" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC343" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC343" s="143"/>
       <c r="AD343" s="136"/>
     </row>
     <row r="344" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -17909,9 +17775,7 @@
       <c r="AB345" s="136" t="s">
         <v>672</v>
       </c>
-      <c r="AC345" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC345" s="143"/>
       <c r="AD345" s="136"/>
     </row>
     <row r="346" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -17994,9 +17858,7 @@
       <c r="AB348" s="136" t="s">
         <v>945</v>
       </c>
-      <c r="AC348" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC348" s="143"/>
       <c r="AD348" s="136"/>
     </row>
     <row r="349" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -18030,9 +17892,7 @@
       <c r="AB349" s="136" t="s">
         <v>945</v>
       </c>
-      <c r="AC349" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC349" s="143"/>
       <c r="AD349" s="136"/>
     </row>
     <row r="350" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -18063,9 +17923,7 @@
       <c r="AB350" s="136" t="s">
         <v>945</v>
       </c>
-      <c r="AC350" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC350" s="143"/>
       <c r="AD350" s="136"/>
     </row>
     <row r="351" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -18093,9 +17951,7 @@
       <c r="AB351" s="136" t="s">
         <v>945</v>
       </c>
-      <c r="AC351" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC351" s="143"/>
       <c r="AD351" s="136"/>
     </row>
     <row r="352" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -18433,7 +18289,9 @@
       <c r="AB365" s="136" t="s">
         <v>1911</v>
       </c>
-      <c r="AC365" s="143"/>
+      <c r="AC365" s="143" t="s">
+        <v>1940</v>
+      </c>
       <c r="AD365" s="136"/>
     </row>
     <row r="366" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -18807,9 +18665,7 @@
       <c r="AB378" s="136" t="s">
         <v>973</v>
       </c>
-      <c r="AC378" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC378" s="143"/>
       <c r="AD378" s="136"/>
     </row>
     <row r="379" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -18837,9 +18693,7 @@
       <c r="AB379" s="136" t="s">
         <v>973</v>
       </c>
-      <c r="AC379" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC379" s="143"/>
       <c r="AD379" s="136"/>
     </row>
     <row r="380" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
@@ -18895,9 +18749,7 @@
       <c r="AB381" s="136" t="s">
         <v>976</v>
       </c>
-      <c r="AC381" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC381" s="143"/>
       <c r="AD381" s="136"/>
     </row>
     <row r="382" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -18931,9 +18783,7 @@
       <c r="AB382" s="136" t="s">
         <v>976</v>
       </c>
-      <c r="AC382" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC382" s="143"/>
       <c r="AD382" s="136"/>
     </row>
     <row r="383" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
@@ -18967,9 +18817,7 @@
       <c r="AB383" s="136" t="s">
         <v>976</v>
       </c>
-      <c r="AC383" s="143" t="s">
-        <v>1940</v>
-      </c>
+      <c r="AC383" s="143"/>
       <c r="AD383" s="136"/>
     </row>
     <row r="384" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3734" uniqueCount="1958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="1960">
   <si>
     <t>Autres</t>
   </si>
@@ -5896,6 +5896,12 @@
   </si>
   <si>
     <t>0201010115</t>
+  </si>
+  <si>
+    <t>0700000000</t>
+  </si>
+  <si>
+    <t>Personnes sans paroisse</t>
   </si>
 </sst>
 </file>
@@ -7129,8 +7135,8 @@
   <dimension ref="A1:AS677"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A576" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A595" sqref="A595:XFD595"/>
+      <pane ySplit="4" topLeftCell="A645" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G665" sqref="G665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
@@ -7139,7 +7145,7 @@
     <col min="2" max="2" width="10" style="10" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.875" style="100" customWidth="1"/>
-    <col min="5" max="5" width="20.875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="29" customWidth="1"/>
     <col min="6" max="6" width="2.875" style="100" customWidth="1"/>
     <col min="7" max="7" width="21.875" style="29" customWidth="1"/>
     <col min="8" max="8" width="2.875" style="104" customWidth="1"/>
@@ -26449,7 +26455,12 @@
       <c r="AD659" s="136"/>
     </row>
     <row r="660" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C660" s="8"/>
+      <c r="C660" s="98" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E660" s="29" t="s">
+        <v>1959</v>
+      </c>
     </row>
     <row r="661" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C661" s="8"/>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
@@ -12,8 +12,8 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Groupes!$M$1:$M$677</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Groupes!$A$1:$M$659</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Groupes!$M$1:$M$678</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Groupes!$A$1:$M$660</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Groupes!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="1960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3738" uniqueCount="1962">
   <si>
     <t>Autres</t>
   </si>
@@ -5902,6 +5902,12 @@
   </si>
   <si>
     <t>Personnes sans paroisse</t>
+  </si>
+  <si>
+    <t>0407000000</t>
+  </si>
+  <si>
+    <t>Personnes importées</t>
   </si>
 </sst>
 </file>
@@ -7132,11 +7138,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS677"/>
+  <dimension ref="A1:AS678"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A645" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G665" sqref="G665"/>
+      <pane ySplit="4" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G447" sqref="G447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
@@ -20517,190 +20523,163 @@
       <c r="AC446" s="143"/>
       <c r="AD446" s="136"/>
     </row>
-    <row r="447" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A447" s="130">
-        <v>50000</v>
-      </c>
-      <c r="B447" s="98" t="s">
-        <v>1040</v>
-      </c>
+    <row r="447" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="B447" s="98"/>
       <c r="C447" s="98" t="s">
-        <v>1674</v>
-      </c>
-      <c r="D447" s="100">
-        <v>5</v>
-      </c>
-      <c r="E447" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="G447" s="31"/>
-      <c r="I447" s="25"/>
-      <c r="K447" s="25"/>
-      <c r="M447" s="48"/>
+        <v>1960</v>
+      </c>
+      <c r="E447" s="97"/>
+      <c r="G447" s="97" t="s">
+        <v>1961</v>
+      </c>
+      <c r="K447" s="87"/>
       <c r="AB447" s="136"/>
       <c r="AC447" s="143"/>
       <c r="AD447" s="136"/>
     </row>
-    <row r="448" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A448" s="19">
-        <v>50100</v>
+    <row r="448" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="130">
+        <v>50000</v>
       </c>
       <c r="B448" s="98" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C448" s="98" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E448" s="30"/>
-      <c r="F448" s="100">
-        <v>1</v>
-      </c>
-      <c r="G448" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="I448" s="22"/>
-      <c r="K448" s="22"/>
-      <c r="M448" s="47"/>
+        <v>1674</v>
+      </c>
+      <c r="D448" s="100">
+        <v>5</v>
+      </c>
+      <c r="E448" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="G448" s="31"/>
+      <c r="I448" s="25"/>
+      <c r="K448" s="25"/>
+      <c r="M448" s="48"/>
       <c r="AB448" s="136"/>
       <c r="AC448" s="143"/>
       <c r="AD448" s="136"/>
     </row>
-    <row r="449" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A449" s="19">
-        <v>50200</v>
+        <v>50100</v>
       </c>
       <c r="B449" s="98" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C449" s="98" t="s">
-        <v>1676</v>
-      </c>
-      <c r="H449" s="104">
+        <v>1675</v>
+      </c>
+      <c r="E449" s="30"/>
+      <c r="F449" s="100">
         <v>1</v>
       </c>
-      <c r="I449" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="N449" s="55"/>
-      <c r="O449" s="36"/>
-      <c r="P449" s="58"/>
-      <c r="Q449" s="61"/>
-      <c r="R449" s="39"/>
-      <c r="T449" s="67"/>
-      <c r="U449" s="40"/>
-      <c r="V449" s="70"/>
-      <c r="W449" s="76"/>
+      <c r="G449" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="I449" s="22"/>
+      <c r="K449" s="22"/>
+      <c r="M449" s="47"/>
       <c r="AB449" s="136"/>
       <c r="AC449" s="143"/>
       <c r="AD449" s="136"/>
     </row>
-    <row r="450" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A450" s="19">
-        <v>50210</v>
+        <v>50200</v>
       </c>
       <c r="B450" s="98" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C450" s="98" t="s">
-        <v>1677</v>
-      </c>
-      <c r="J450" s="104">
+        <v>1676</v>
+      </c>
+      <c r="H450" s="104">
         <v>1</v>
       </c>
-      <c r="K450" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="S450" s="64"/>
-      <c r="T450" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="X450" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y450" s="77">
-        <v>2</v>
-      </c>
+      <c r="I450" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="N450" s="55"/>
+      <c r="O450" s="36"/>
+      <c r="P450" s="58"/>
+      <c r="Q450" s="61"/>
+      <c r="R450" s="39"/>
+      <c r="T450" s="67"/>
+      <c r="U450" s="40"/>
+      <c r="V450" s="70"/>
+      <c r="W450" s="76"/>
       <c r="AB450" s="136"/>
       <c r="AC450" s="143"/>
       <c r="AD450" s="136"/>
     </row>
-    <row r="451" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A451" s="19">
-        <v>50300</v>
+        <v>50210</v>
       </c>
       <c r="B451" s="98" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C451" s="98" t="s">
-        <v>1678</v>
-      </c>
-      <c r="H451" s="104">
+        <v>1677</v>
+      </c>
+      <c r="J451" s="104">
+        <v>1</v>
+      </c>
+      <c r="K451" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="S451" s="64"/>
+      <c r="T451" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="X451" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y451" s="77">
         <v>2</v>
       </c>
-      <c r="I451" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="X451" s="73"/>
       <c r="AB451" s="136"/>
       <c r="AC451" s="143"/>
       <c r="AD451" s="136"/>
     </row>
-    <row r="452" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A452" s="19">
-        <v>50310</v>
+        <v>50300</v>
       </c>
       <c r="B452" s="98" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C452" s="98" t="s">
-        <v>1679</v>
-      </c>
-      <c r="J452" s="104">
-        <v>1</v>
-      </c>
-      <c r="K452" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="N452" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O452" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q452" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T452" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="X452" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y452" s="77">
+        <v>1678</v>
+      </c>
+      <c r="H452" s="104">
         <v>2</v>
       </c>
-      <c r="AA452" s="94" t="s">
-        <v>126</v>
-      </c>
+      <c r="I452" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="X452" s="73"/>
       <c r="AB452" s="136"/>
       <c r="AC452" s="143"/>
       <c r="AD452" s="136"/>
     </row>
     <row r="453" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A453" s="19">
-        <v>50320</v>
+        <v>50310</v>
       </c>
       <c r="B453" s="98" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C453" s="98" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="J453" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K453" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="N453" s="54" t="s">
         <v>346</v>
@@ -20721,7 +20700,7 @@
         <v>2</v>
       </c>
       <c r="AA453" s="94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AB453" s="136"/>
       <c r="AC453" s="143"/>
@@ -20729,19 +20708,19 @@
     </row>
     <row r="454" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A454" s="19">
-        <v>50330</v>
+        <v>50320</v>
       </c>
       <c r="B454" s="98" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C454" s="98" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="J454" s="104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K454" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N454" s="54" t="s">
         <v>346</v>
@@ -20762,7 +20741,7 @@
         <v>2</v>
       </c>
       <c r="AA454" s="94" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AB454" s="136"/>
       <c r="AC454" s="143"/>
@@ -20770,19 +20749,19 @@
     </row>
     <row r="455" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A455" s="19">
-        <v>50340</v>
+        <v>50330</v>
       </c>
       <c r="B455" s="98" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C455" s="98" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="J455" s="104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K455" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N455" s="54" t="s">
         <v>346</v>
@@ -20803,7 +20782,7 @@
         <v>2</v>
       </c>
       <c r="AA455" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB455" s="136"/>
       <c r="AC455" s="143"/>
@@ -20811,19 +20790,19 @@
     </row>
     <row r="456" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A456" s="19">
-        <v>50350</v>
+        <v>50340</v>
       </c>
       <c r="B456" s="98" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C456" s="98" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="J456" s="104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K456" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N456" s="54" t="s">
         <v>346</v>
@@ -20844,7 +20823,7 @@
         <v>2</v>
       </c>
       <c r="AA456" s="94" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AB456" s="136"/>
       <c r="AC456" s="143"/>
@@ -20852,19 +20831,19 @@
     </row>
     <row r="457" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A457" s="19">
-        <v>50360</v>
+        <v>50350</v>
       </c>
       <c r="B457" s="98" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C457" s="98" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="J457" s="104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K457" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N457" s="54" t="s">
         <v>346</v>
@@ -20884,8 +20863,8 @@
       <c r="Y457" s="77">
         <v>2</v>
       </c>
-      <c r="AA457" s="10" t="s">
-        <v>135</v>
+      <c r="AA457" s="94" t="s">
+        <v>136</v>
       </c>
       <c r="AB457" s="136"/>
       <c r="AC457" s="143"/>
@@ -20893,19 +20872,19 @@
     </row>
     <row r="458" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A458" s="19">
-        <v>50370</v>
+        <v>50360</v>
       </c>
       <c r="B458" s="98" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C458" s="98" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="J458" s="104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K458" s="10" t="s">
-        <v>303</v>
+        <v>135</v>
       </c>
       <c r="N458" s="54" t="s">
         <v>346</v>
@@ -20926,7 +20905,7 @@
         <v>2</v>
       </c>
       <c r="AA458" s="10" t="s">
-        <v>303</v>
+        <v>135</v>
       </c>
       <c r="AB458" s="136"/>
       <c r="AC458" s="143"/>
@@ -20934,19 +20913,19 @@
     </row>
     <row r="459" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A459" s="19">
-        <v>50380</v>
+        <v>50370</v>
       </c>
       <c r="B459" s="98" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C459" s="98" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="J459" s="104">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K459" s="10" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="N459" s="54" t="s">
         <v>346</v>
@@ -20967,7 +20946,7 @@
         <v>2</v>
       </c>
       <c r="AA459" s="10" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="AB459" s="136"/>
       <c r="AC459" s="143"/>
@@ -20975,19 +20954,19 @@
     </row>
     <row r="460" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A460" s="19">
-        <v>50390</v>
+        <v>50380</v>
       </c>
       <c r="B460" s="98" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C460" s="98" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="J460" s="104">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K460" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N460" s="54" t="s">
         <v>346</v>
@@ -21008,7 +20987,7 @@
         <v>2</v>
       </c>
       <c r="AA460" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB460" s="136"/>
       <c r="AC460" s="143"/>
@@ -21016,19 +20995,19 @@
     </row>
     <row r="461" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A461" s="19">
-        <v>50400</v>
+        <v>50390</v>
       </c>
       <c r="B461" s="98" t="s">
-        <v>1879</v>
+        <v>1053</v>
       </c>
       <c r="C461" s="98" t="s">
-        <v>1881</v>
+        <v>1689</v>
       </c>
       <c r="J461" s="104">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K461" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N461" s="54" t="s">
         <v>346</v>
@@ -21049,7 +21028,7 @@
         <v>2</v>
       </c>
       <c r="AA461" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AB461" s="136"/>
       <c r="AC461" s="143"/>
@@ -21057,19 +21036,19 @@
     </row>
     <row r="462" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A462" s="19">
-        <v>50410</v>
+        <v>50400</v>
       </c>
       <c r="B462" s="98" t="s">
-        <v>1054</v>
+        <v>1879</v>
       </c>
       <c r="C462" s="98" t="s">
-        <v>1680</v>
+        <v>1881</v>
       </c>
       <c r="J462" s="104">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K462" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N462" s="54" t="s">
         <v>346</v>
@@ -21090,7 +21069,7 @@
         <v>2</v>
       </c>
       <c r="AA462" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AB462" s="136"/>
       <c r="AC462" s="143"/>
@@ -21098,19 +21077,19 @@
     </row>
     <row r="463" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A463" s="19">
-        <v>50420</v>
+        <v>50410</v>
       </c>
       <c r="B463" s="98" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C463" s="98" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="J463" s="104">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K463" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N463" s="54" t="s">
         <v>346</v>
@@ -21125,30 +21104,33 @@
         <v>346</v>
       </c>
       <c r="X463" s="73" t="s">
-        <v>345</v>
+        <v>157</v>
       </c>
       <c r="Y463" s="77">
         <v>2</v>
+      </c>
+      <c r="AA463" s="10" t="s">
+        <v>131</v>
       </c>
       <c r="AB463" s="136"/>
       <c r="AC463" s="143"/>
       <c r="AD463" s="136"/>
     </row>
-    <row r="464" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A464" s="19">
-        <v>50500</v>
+        <v>50420</v>
       </c>
       <c r="B464" s="98" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C464" s="98" t="s">
-        <v>1690</v>
-      </c>
-      <c r="H464" s="104">
-        <v>3</v>
-      </c>
-      <c r="I464" s="10" t="s">
-        <v>466</v>
+        <v>1681</v>
+      </c>
+      <c r="J464" s="104">
+        <v>12</v>
+      </c>
+      <c r="K464" s="10" t="s">
+        <v>134</v>
       </c>
       <c r="N464" s="54" t="s">
         <v>346</v>
@@ -21163,29 +21145,31 @@
         <v>346</v>
       </c>
       <c r="X464" s="73" t="s">
-        <v>157</v>
+        <v>345</v>
+      </c>
+      <c r="Y464" s="77">
+        <v>2</v>
       </c>
       <c r="AB464" s="136"/>
       <c r="AC464" s="143"/>
       <c r="AD464" s="136"/>
     </row>
-    <row r="465" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A465" s="19">
-        <v>50510</v>
+        <v>50500</v>
       </c>
       <c r="B465" s="98" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C465" s="98" t="s">
-        <v>1691</v>
-      </c>
-      <c r="J465" s="104">
-        <v>1</v>
-      </c>
-      <c r="K465" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="L465" s="119"/>
+        <v>1690</v>
+      </c>
+      <c r="H465" s="104">
+        <v>3</v>
+      </c>
+      <c r="I465" s="10" t="s">
+        <v>466</v>
+      </c>
       <c r="N465" s="54" t="s">
         <v>346</v>
       </c>
@@ -21195,8 +21179,11 @@
       <c r="Q465" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="Y465" s="77">
-        <v>2</v>
+      <c r="T465" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="X465" s="73" t="s">
+        <v>157</v>
       </c>
       <c r="AB465" s="136"/>
       <c r="AC465" s="143"/>
@@ -21204,65 +21191,78 @@
     </row>
     <row r="466" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A466" s="19">
-        <v>50520</v>
+        <v>50510</v>
       </c>
       <c r="B466" s="98" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C466" s="98" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="J466" s="104">
-        <v>2</v>
-      </c>
-      <c r="K466" s="10" t="s">
-        <v>304</v>
+        <v>1</v>
+      </c>
+      <c r="K466" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="L466" s="119"/>
+      <c r="N466" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O466" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q466" s="60" t="s">
+        <v>346</v>
       </c>
       <c r="Y466" s="77">
         <v>2</v>
-      </c>
-      <c r="AA466" s="94" t="s">
-        <v>608</v>
       </c>
       <c r="AB466" s="136"/>
       <c r="AC466" s="143"/>
       <c r="AD466" s="136"/>
     </row>
-    <row r="467" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A467" s="19">
-        <v>50600</v>
+        <v>50520</v>
       </c>
       <c r="B467" s="98" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C467" s="98" t="s">
-        <v>1693</v>
-      </c>
-      <c r="H467" s="104">
-        <v>4</v>
-      </c>
-      <c r="I467" s="10" t="s">
-        <v>467</v>
+        <v>1692</v>
+      </c>
+      <c r="J467" s="104">
+        <v>2</v>
+      </c>
+      <c r="K467" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y467" s="77">
+        <v>2</v>
+      </c>
+      <c r="AA467" s="94" t="s">
+        <v>608</v>
       </c>
       <c r="AB467" s="136"/>
       <c r="AC467" s="143"/>
       <c r="AD467" s="136"/>
     </row>
-    <row r="468" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A468" s="19">
-        <v>50610</v>
+        <v>50600</v>
       </c>
       <c r="B468" s="98" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C468" s="98" t="s">
-        <v>1694</v>
-      </c>
-      <c r="J468" s="104">
-        <v>1</v>
-      </c>
-      <c r="K468" s="10" t="s">
-        <v>468</v>
+        <v>1693</v>
+      </c>
+      <c r="H468" s="104">
+        <v>4</v>
+      </c>
+      <c r="I468" s="10" t="s">
+        <v>467</v>
       </c>
       <c r="AB468" s="136"/>
       <c r="AC468" s="143"/>
@@ -21270,89 +21270,83 @@
     </row>
     <row r="469" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A469" s="19">
-        <v>50620</v>
+        <v>50610</v>
       </c>
       <c r="B469" s="98" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C469" s="98" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="J469" s="104">
-        <v>2</v>
-      </c>
-      <c r="K469" s="87" t="s">
-        <v>469</v>
+        <v>1</v>
+      </c>
+      <c r="K469" s="10" t="s">
+        <v>468</v>
       </c>
       <c r="AB469" s="136"/>
       <c r="AC469" s="143"/>
       <c r="AD469" s="136"/>
     </row>
-    <row r="470" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A470" s="130">
-        <v>51000</v>
+    <row r="470" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A470" s="19">
+        <v>50620</v>
       </c>
       <c r="B470" s="98" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C470" s="98" t="s">
-        <v>1696</v>
-      </c>
-      <c r="E470" s="30"/>
-      <c r="F470" s="100">
+        <v>1695</v>
+      </c>
+      <c r="J470" s="104">
         <v>2</v>
       </c>
-      <c r="G470" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="I470" s="22"/>
-      <c r="K470" s="22"/>
-      <c r="M470" s="47"/>
+      <c r="K470" s="87" t="s">
+        <v>469</v>
+      </c>
       <c r="AB470" s="136"/>
       <c r="AC470" s="143"/>
       <c r="AD470" s="136"/>
     </row>
-    <row r="471" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A471" s="19">
-        <v>51100</v>
+    <row r="471" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="130">
+        <v>51000</v>
       </c>
       <c r="B471" s="98" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C471" s="98" t="s">
-        <v>1697</v>
-      </c>
-      <c r="H471" s="104">
-        <v>1</v>
-      </c>
-      <c r="I471" s="10" t="s">
-        <v>140</v>
-      </c>
+        <v>1696</v>
+      </c>
+      <c r="E471" s="30"/>
+      <c r="F471" s="100">
+        <v>2</v>
+      </c>
+      <c r="G471" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="I471" s="22"/>
+      <c r="K471" s="22"/>
+      <c r="M471" s="47"/>
       <c r="AB471" s="136"/>
       <c r="AC471" s="143"/>
       <c r="AD471" s="136"/>
     </row>
-    <row r="472" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A472" s="19">
-        <v>51110</v>
+        <v>51100</v>
       </c>
       <c r="B472" s="98" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C472" s="98" t="s">
-        <v>1698</v>
-      </c>
-      <c r="J472" s="104">
+        <v>1697</v>
+      </c>
+      <c r="H472" s="104">
         <v>1</v>
       </c>
-      <c r="K472" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="T472" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y472" s="77">
-        <v>10</v>
+      <c r="I472" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="AB472" s="136"/>
       <c r="AC472" s="143"/>
@@ -21360,107 +21354,98 @@
     </row>
     <row r="473" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A473" s="19">
-        <v>51120</v>
+        <v>51110</v>
       </c>
       <c r="B473" s="98" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C473" s="98" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J473" s="104">
-        <v>2</v>
-      </c>
-      <c r="K473" s="87" t="s">
-        <v>471</v>
-      </c>
-      <c r="N473" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O473" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q473" s="60" t="s">
-        <v>346</v>
+        <v>1</v>
+      </c>
+      <c r="K473" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="T473" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y473" s="77">
+        <v>10</v>
       </c>
       <c r="AB473" s="136"/>
       <c r="AC473" s="143"/>
       <c r="AD473" s="136"/>
     </row>
-    <row r="474" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A474" s="19">
-        <v>51200</v>
+        <v>51120</v>
       </c>
       <c r="B474" s="98" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C474" s="98" t="s">
-        <v>1715</v>
-      </c>
-      <c r="H474" s="104">
+        <v>1699</v>
+      </c>
+      <c r="J474" s="104">
         <v>2</v>
       </c>
-      <c r="I474" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="K474" s="19"/>
+      <c r="K474" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N474" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O474" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q474" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T474" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB474" s="136"/>
       <c r="AC474" s="143"/>
       <c r="AD474" s="136"/>
     </row>
-    <row r="475" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A475" s="19">
-        <v>51210</v>
+        <v>51200</v>
       </c>
       <c r="B475" s="98" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C475" s="98" t="s">
-        <v>1716</v>
-      </c>
-      <c r="J475" s="104">
-        <v>1</v>
-      </c>
-      <c r="K475" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N475" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O475" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q475" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T475" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y475" s="77">
-        <v>10</v>
-      </c>
+        <v>1715</v>
+      </c>
+      <c r="H475" s="104">
+        <v>2</v>
+      </c>
+      <c r="I475" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="K475" s="19"/>
       <c r="AB475" s="136"/>
       <c r="AC475" s="143"/>
       <c r="AD475" s="136"/>
     </row>
     <row r="476" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A476" s="19">
-        <v>51220</v>
+        <v>51210</v>
       </c>
       <c r="B476" s="98" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C476" s="98" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="J476" s="104">
-        <v>2</v>
-      </c>
-      <c r="K476" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K476" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N476" s="54" t="s">
         <v>346</v>
@@ -21473,82 +21458,82 @@
       </c>
       <c r="T476" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y476" s="77">
+        <v>10</v>
       </c>
       <c r="AB476" s="136"/>
       <c r="AC476" s="143"/>
       <c r="AD476" s="136"/>
     </row>
-    <row r="477" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A477" s="19">
-        <v>51300</v>
+        <v>51220</v>
       </c>
       <c r="B477" s="98" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C477" s="98" t="s">
-        <v>1718</v>
-      </c>
-      <c r="H477" s="104">
-        <v>3</v>
-      </c>
-      <c r="I477" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="K477" s="19"/>
+        <v>1717</v>
+      </c>
+      <c r="J477" s="104">
+        <v>2</v>
+      </c>
+      <c r="K477" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N477" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O477" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q477" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T477" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB477" s="136"/>
       <c r="AC477" s="143"/>
       <c r="AD477" s="136"/>
     </row>
-    <row r="478" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A478" s="19">
-        <v>51310</v>
+        <v>51300</v>
       </c>
       <c r="B478" s="98" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C478" s="98" t="s">
-        <v>1719</v>
-      </c>
-      <c r="J478" s="104">
-        <v>1</v>
-      </c>
-      <c r="K478" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N478" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O478" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q478" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T478" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y478" s="77">
-        <v>10</v>
-      </c>
+        <v>1718</v>
+      </c>
+      <c r="H478" s="104">
+        <v>3</v>
+      </c>
+      <c r="I478" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="K478" s="19"/>
       <c r="AB478" s="136"/>
       <c r="AC478" s="143"/>
       <c r="AD478" s="136"/>
     </row>
     <row r="479" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A479" s="19">
-        <v>51320</v>
+        <v>51310</v>
       </c>
       <c r="B479" s="98" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C479" s="98" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="J479" s="104">
-        <v>2</v>
-      </c>
-      <c r="K479" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K479" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N479" s="54" t="s">
         <v>346</v>
@@ -21561,82 +21546,82 @@
       </c>
       <c r="T479" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y479" s="77">
+        <v>10</v>
       </c>
       <c r="AB479" s="136"/>
       <c r="AC479" s="143"/>
       <c r="AD479" s="136"/>
     </row>
-    <row r="480" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A480" s="19">
-        <v>51400</v>
+        <v>51320</v>
       </c>
       <c r="B480" s="98" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C480" s="98" t="s">
-        <v>1721</v>
-      </c>
-      <c r="H480" s="104">
-        <v>4</v>
-      </c>
-      <c r="I480" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K480" s="19"/>
+        <v>1720</v>
+      </c>
+      <c r="J480" s="104">
+        <v>2</v>
+      </c>
+      <c r="K480" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N480" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O480" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q480" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T480" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB480" s="136"/>
       <c r="AC480" s="143"/>
       <c r="AD480" s="136"/>
     </row>
-    <row r="481" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A481" s="19">
-        <v>51410</v>
+        <v>51400</v>
       </c>
       <c r="B481" s="98" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C481" s="98" t="s">
-        <v>1722</v>
-      </c>
-      <c r="J481" s="104">
-        <v>1</v>
-      </c>
-      <c r="K481" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N481" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O481" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q481" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T481" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y481" s="77">
-        <v>10</v>
-      </c>
+        <v>1721</v>
+      </c>
+      <c r="H481" s="104">
+        <v>4</v>
+      </c>
+      <c r="I481" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K481" s="19"/>
       <c r="AB481" s="136"/>
       <c r="AC481" s="143"/>
       <c r="AD481" s="136"/>
     </row>
     <row r="482" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A482" s="19">
-        <v>51420</v>
+        <v>51410</v>
       </c>
       <c r="B482" s="98" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C482" s="98" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="J482" s="104">
-        <v>2</v>
-      </c>
-      <c r="K482" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K482" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N482" s="54" t="s">
         <v>346</v>
@@ -21649,82 +21634,82 @@
       </c>
       <c r="T482" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y482" s="77">
+        <v>10</v>
       </c>
       <c r="AB482" s="136"/>
       <c r="AC482" s="143"/>
       <c r="AD482" s="136"/>
     </row>
-    <row r="483" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A483" s="19">
-        <v>51500</v>
+        <v>51420</v>
       </c>
       <c r="B483" s="98" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C483" s="98" t="s">
-        <v>1724</v>
-      </c>
-      <c r="H483" s="104">
-        <v>5</v>
-      </c>
-      <c r="I483" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="K483" s="19"/>
+        <v>1723</v>
+      </c>
+      <c r="J483" s="104">
+        <v>2</v>
+      </c>
+      <c r="K483" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N483" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O483" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q483" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T483" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB483" s="136"/>
       <c r="AC483" s="143"/>
       <c r="AD483" s="136"/>
     </row>
-    <row r="484" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A484" s="19">
-        <v>51520</v>
+        <v>51500</v>
       </c>
       <c r="B484" s="98" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C484" s="98" t="s">
-        <v>1725</v>
-      </c>
-      <c r="J484" s="104">
-        <v>1</v>
-      </c>
-      <c r="K484" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N484" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O484" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q484" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T484" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y484" s="77">
-        <v>10</v>
-      </c>
+        <v>1724</v>
+      </c>
+      <c r="H484" s="104">
+        <v>5</v>
+      </c>
+      <c r="I484" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="K484" s="19"/>
       <c r="AB484" s="136"/>
       <c r="AC484" s="143"/>
       <c r="AD484" s="136"/>
     </row>
     <row r="485" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A485" s="19">
-        <v>51530</v>
+        <v>51520</v>
       </c>
       <c r="B485" s="98" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C485" s="98" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="J485" s="104">
-        <v>2</v>
-      </c>
-      <c r="K485" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K485" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N485" s="54" t="s">
         <v>346</v>
@@ -21737,82 +21722,82 @@
       </c>
       <c r="T485" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y485" s="77">
+        <v>10</v>
       </c>
       <c r="AB485" s="136"/>
       <c r="AC485" s="143"/>
       <c r="AD485" s="136"/>
     </row>
-    <row r="486" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A486" s="19">
-        <v>51600</v>
+        <v>51530</v>
       </c>
       <c r="B486" s="98" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C486" s="98" t="s">
-        <v>1727</v>
-      </c>
-      <c r="H486" s="104">
-        <v>6</v>
-      </c>
-      <c r="I486" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="K486" s="19"/>
+        <v>1726</v>
+      </c>
+      <c r="J486" s="104">
+        <v>2</v>
+      </c>
+      <c r="K486" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N486" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O486" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q486" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T486" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB486" s="136"/>
       <c r="AC486" s="143"/>
       <c r="AD486" s="136"/>
     </row>
-    <row r="487" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A487" s="19">
-        <v>51610</v>
+        <v>51600</v>
       </c>
       <c r="B487" s="98" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C487" s="98" t="s">
-        <v>1728</v>
-      </c>
-      <c r="J487" s="104">
-        <v>1</v>
-      </c>
-      <c r="K487" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N487" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O487" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q487" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T487" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y487" s="77">
-        <v>10</v>
-      </c>
+        <v>1727</v>
+      </c>
+      <c r="H487" s="104">
+        <v>6</v>
+      </c>
+      <c r="I487" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="K487" s="19"/>
       <c r="AB487" s="136"/>
       <c r="AC487" s="143"/>
       <c r="AD487" s="136"/>
     </row>
     <row r="488" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A488" s="19">
-        <v>51620</v>
+        <v>51610</v>
       </c>
       <c r="B488" s="98" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C488" s="98" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="J488" s="104">
-        <v>2</v>
-      </c>
-      <c r="K488" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K488" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N488" s="54" t="s">
         <v>346</v>
@@ -21825,82 +21810,82 @@
       </c>
       <c r="T488" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y488" s="77">
+        <v>10</v>
       </c>
       <c r="AB488" s="136"/>
       <c r="AC488" s="143"/>
       <c r="AD488" s="136"/>
     </row>
-    <row r="489" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A489" s="19">
-        <v>51700</v>
+        <v>51620</v>
       </c>
       <c r="B489" s="98" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C489" s="98" t="s">
-        <v>1730</v>
-      </c>
-      <c r="H489" s="104">
-        <v>7</v>
-      </c>
-      <c r="I489" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="K489" s="19"/>
+        <v>1729</v>
+      </c>
+      <c r="J489" s="104">
+        <v>2</v>
+      </c>
+      <c r="K489" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N489" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O489" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q489" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T489" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB489" s="136"/>
       <c r="AC489" s="143"/>
       <c r="AD489" s="136"/>
     </row>
-    <row r="490" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A490" s="19">
-        <v>51710</v>
+        <v>51700</v>
       </c>
       <c r="B490" s="98" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C490" s="98" t="s">
-        <v>1731</v>
-      </c>
-      <c r="J490" s="104">
-        <v>1</v>
-      </c>
-      <c r="K490" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N490" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O490" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q490" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T490" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y490" s="77">
-        <v>10</v>
-      </c>
+        <v>1730</v>
+      </c>
+      <c r="H490" s="104">
+        <v>7</v>
+      </c>
+      <c r="I490" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="K490" s="19"/>
       <c r="AB490" s="136"/>
       <c r="AC490" s="143"/>
       <c r="AD490" s="136"/>
     </row>
     <row r="491" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A491" s="19">
-        <v>51720</v>
+        <v>51710</v>
       </c>
       <c r="B491" s="98" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C491" s="98" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J491" s="104">
-        <v>2</v>
-      </c>
-      <c r="K491" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K491" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N491" s="54" t="s">
         <v>346</v>
@@ -21913,82 +21898,82 @@
       </c>
       <c r="T491" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y491" s="77">
+        <v>10</v>
       </c>
       <c r="AB491" s="136"/>
       <c r="AC491" s="143"/>
       <c r="AD491" s="136"/>
     </row>
-    <row r="492" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A492" s="19">
-        <v>51800</v>
+        <v>51720</v>
       </c>
       <c r="B492" s="98" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C492" s="98" t="s">
-        <v>1733</v>
-      </c>
-      <c r="H492" s="104">
-        <v>8</v>
-      </c>
-      <c r="I492" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K492" s="19"/>
+        <v>1732</v>
+      </c>
+      <c r="J492" s="104">
+        <v>2</v>
+      </c>
+      <c r="K492" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N492" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O492" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q492" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T492" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB492" s="136"/>
       <c r="AC492" s="143"/>
       <c r="AD492" s="136"/>
     </row>
-    <row r="493" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A493" s="19">
-        <v>51810</v>
+        <v>51800</v>
       </c>
       <c r="B493" s="98" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C493" s="98" t="s">
-        <v>1734</v>
-      </c>
-      <c r="J493" s="104">
-        <v>1</v>
-      </c>
-      <c r="K493" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N493" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O493" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q493" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T493" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y493" s="77">
-        <v>10</v>
-      </c>
+        <v>1733</v>
+      </c>
+      <c r="H493" s="104">
+        <v>8</v>
+      </c>
+      <c r="I493" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="K493" s="19"/>
       <c r="AB493" s="136"/>
       <c r="AC493" s="143"/>
       <c r="AD493" s="136"/>
     </row>
     <row r="494" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A494" s="19">
-        <v>51820</v>
+        <v>51810</v>
       </c>
       <c r="B494" s="98" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C494" s="98" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="J494" s="104">
-        <v>2</v>
-      </c>
-      <c r="K494" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K494" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N494" s="54" t="s">
         <v>346</v>
@@ -22001,82 +21986,82 @@
       </c>
       <c r="T494" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y494" s="77">
+        <v>10</v>
       </c>
       <c r="AB494" s="136"/>
       <c r="AC494" s="143"/>
       <c r="AD494" s="136"/>
     </row>
-    <row r="495" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A495" s="19">
-        <v>51900</v>
+        <v>51820</v>
       </c>
       <c r="B495" s="98" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C495" s="98" t="s">
-        <v>1736</v>
-      </c>
-      <c r="H495" s="104">
-        <v>9</v>
-      </c>
-      <c r="I495" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="K495" s="19"/>
+        <v>1735</v>
+      </c>
+      <c r="J495" s="104">
+        <v>2</v>
+      </c>
+      <c r="K495" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N495" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O495" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q495" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T495" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB495" s="136"/>
       <c r="AC495" s="143"/>
       <c r="AD495" s="136"/>
     </row>
-    <row r="496" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A496" s="19">
-        <v>51910</v>
+        <v>51900</v>
       </c>
       <c r="B496" s="98" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C496" s="98" t="s">
-        <v>1737</v>
-      </c>
-      <c r="J496" s="104">
-        <v>1</v>
-      </c>
-      <c r="K496" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N496" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O496" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q496" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T496" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y496" s="77">
-        <v>10</v>
-      </c>
+        <v>1736</v>
+      </c>
+      <c r="H496" s="104">
+        <v>9</v>
+      </c>
+      <c r="I496" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="K496" s="19"/>
       <c r="AB496" s="136"/>
       <c r="AC496" s="143"/>
       <c r="AD496" s="136"/>
     </row>
     <row r="497" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A497" s="19">
-        <v>51920</v>
+        <v>51910</v>
       </c>
       <c r="B497" s="98" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C497" s="98" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="J497" s="104">
-        <v>2</v>
-      </c>
-      <c r="K497" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K497" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N497" s="54" t="s">
         <v>346</v>
@@ -22089,82 +22074,82 @@
       </c>
       <c r="T497" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y497" s="77">
+        <v>10</v>
       </c>
       <c r="AB497" s="136"/>
       <c r="AC497" s="143"/>
       <c r="AD497" s="136"/>
     </row>
-    <row r="498" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A498" s="19">
-        <v>52000</v>
+        <v>51920</v>
       </c>
       <c r="B498" s="98" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C498" s="98" t="s">
-        <v>1700</v>
-      </c>
-      <c r="H498" s="104">
-        <v>10</v>
-      </c>
-      <c r="I498" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K498" s="19"/>
+        <v>1738</v>
+      </c>
+      <c r="J498" s="104">
+        <v>2</v>
+      </c>
+      <c r="K498" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N498" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O498" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q498" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T498" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB498" s="136"/>
       <c r="AC498" s="143"/>
       <c r="AD498" s="136"/>
     </row>
-    <row r="499" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A499" s="19">
-        <v>52010</v>
+        <v>52000</v>
       </c>
       <c r="B499" s="98" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C499" s="98" t="s">
-        <v>1701</v>
-      </c>
-      <c r="J499" s="104">
-        <v>1</v>
-      </c>
-      <c r="K499" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N499" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O499" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q499" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T499" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y499" s="77">
+        <v>1700</v>
+      </c>
+      <c r="H499" s="104">
         <v>10</v>
       </c>
+      <c r="I499" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="K499" s="19"/>
       <c r="AB499" s="136"/>
       <c r="AC499" s="143"/>
       <c r="AD499" s="136"/>
     </row>
     <row r="500" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A500" s="19">
-        <v>52020</v>
+        <v>52010</v>
       </c>
       <c r="B500" s="98" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C500" s="98" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="J500" s="104">
-        <v>2</v>
-      </c>
-      <c r="K500" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K500" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N500" s="54" t="s">
         <v>346</v>
@@ -22177,82 +22162,82 @@
       </c>
       <c r="T500" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y500" s="77">
+        <v>10</v>
       </c>
       <c r="AB500" s="136"/>
       <c r="AC500" s="143"/>
       <c r="AD500" s="136"/>
     </row>
-    <row r="501" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A501" s="19">
-        <v>52100</v>
-      </c>
-      <c r="B501" s="133" t="s">
-        <v>1093</v>
-      </c>
-      <c r="C501" s="133" t="s">
-        <v>1703</v>
-      </c>
-      <c r="H501" s="104">
-        <v>11</v>
-      </c>
-      <c r="I501" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="K501" s="19"/>
+        <v>52020</v>
+      </c>
+      <c r="B501" s="98" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C501" s="98" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J501" s="104">
+        <v>2</v>
+      </c>
+      <c r="K501" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N501" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O501" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q501" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T501" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB501" s="136"/>
       <c r="AC501" s="143"/>
       <c r="AD501" s="136"/>
     </row>
-    <row r="502" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A502" s="19">
-        <v>52110</v>
+        <v>52100</v>
       </c>
       <c r="B502" s="133" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C502" s="133" t="s">
-        <v>1704</v>
-      </c>
-      <c r="J502" s="104">
-        <v>1</v>
-      </c>
-      <c r="K502" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N502" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O502" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q502" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T502" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y502" s="77">
-        <v>10</v>
-      </c>
+        <v>1703</v>
+      </c>
+      <c r="H502" s="104">
+        <v>11</v>
+      </c>
+      <c r="I502" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="K502" s="19"/>
       <c r="AB502" s="136"/>
       <c r="AC502" s="143"/>
       <c r="AD502" s="136"/>
     </row>
     <row r="503" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A503" s="19">
-        <v>52120</v>
+        <v>52110</v>
       </c>
       <c r="B503" s="133" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C503" s="133" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="J503" s="104">
-        <v>2</v>
-      </c>
-      <c r="K503" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K503" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N503" s="54" t="s">
         <v>346</v>
@@ -22265,82 +22250,82 @@
       </c>
       <c r="T503" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y503" s="77">
+        <v>10</v>
       </c>
       <c r="AB503" s="136"/>
       <c r="AC503" s="143"/>
       <c r="AD503" s="136"/>
     </row>
-    <row r="504" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A504" s="19">
-        <v>52200</v>
+        <v>52120</v>
       </c>
       <c r="B504" s="133" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C504" s="133" t="s">
-        <v>1706</v>
-      </c>
-      <c r="H504" s="104">
-        <v>12</v>
-      </c>
-      <c r="I504" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="K504" s="19"/>
+        <v>1705</v>
+      </c>
+      <c r="J504" s="104">
+        <v>2</v>
+      </c>
+      <c r="K504" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N504" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O504" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q504" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T504" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB504" s="136"/>
       <c r="AC504" s="143"/>
       <c r="AD504" s="136"/>
     </row>
-    <row r="505" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A505" s="19">
-        <v>52210</v>
+        <v>52200</v>
       </c>
       <c r="B505" s="133" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C505" s="133" t="s">
-        <v>1707</v>
-      </c>
-      <c r="J505" s="104">
-        <v>1</v>
-      </c>
-      <c r="K505" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N505" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O505" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q505" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T505" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y505" s="77">
-        <v>10</v>
-      </c>
+        <v>1706</v>
+      </c>
+      <c r="H505" s="104">
+        <v>12</v>
+      </c>
+      <c r="I505" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K505" s="19"/>
       <c r="AB505" s="136"/>
       <c r="AC505" s="143"/>
       <c r="AD505" s="136"/>
     </row>
     <row r="506" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A506" s="19">
-        <v>52220</v>
+        <v>52210</v>
       </c>
       <c r="B506" s="133" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C506" s="133" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="J506" s="104">
-        <v>2</v>
-      </c>
-      <c r="K506" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K506" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N506" s="54" t="s">
         <v>346</v>
@@ -22353,85 +22338,82 @@
       </c>
       <c r="T506" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y506" s="77">
+        <v>10</v>
       </c>
       <c r="AB506" s="136"/>
       <c r="AC506" s="143"/>
       <c r="AD506" s="136"/>
     </row>
-    <row r="507" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A507" s="19">
-        <v>52300</v>
+        <v>52220</v>
       </c>
       <c r="B507" s="133" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C507" s="133" t="s">
-        <v>1709</v>
-      </c>
-      <c r="H507" s="104">
-        <v>13</v>
-      </c>
-      <c r="I507" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="K507" s="19"/>
+        <v>1708</v>
+      </c>
+      <c r="J507" s="104">
+        <v>2</v>
+      </c>
+      <c r="K507" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N507" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O507" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q507" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T507" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="AB507" s="136"/>
       <c r="AC507" s="143"/>
       <c r="AD507" s="136"/>
     </row>
-    <row r="508" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A508" s="19">
-        <v>52310</v>
+        <v>52300</v>
       </c>
       <c r="B508" s="133" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C508" s="133" t="s">
-        <v>1710</v>
-      </c>
-      <c r="J508" s="104">
-        <v>1</v>
-      </c>
-      <c r="K508" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="N508" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O508" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q508" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T508" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="W508" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y508" s="77">
-        <v>10</v>
-      </c>
+        <v>1709</v>
+      </c>
+      <c r="H508" s="104">
+        <v>13</v>
+      </c>
+      <c r="I508" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="K508" s="19"/>
       <c r="AB508" s="136"/>
       <c r="AC508" s="143"/>
       <c r="AD508" s="136"/>
     </row>
     <row r="509" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A509" s="19">
-        <v>52320</v>
+        <v>52310</v>
       </c>
       <c r="B509" s="133" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C509" s="133" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="J509" s="104">
-        <v>2</v>
-      </c>
-      <c r="K509" s="87" t="s">
-        <v>471</v>
+        <v>1</v>
+      </c>
+      <c r="K509" s="19" t="s">
+        <v>437</v>
       </c>
       <c r="N509" s="54" t="s">
         <v>346</v>
@@ -22447,49 +22429,64 @@
       </c>
       <c r="W509" s="74" t="s">
         <v>157</v>
+      </c>
+      <c r="Y509" s="77">
+        <v>10</v>
       </c>
       <c r="AB509" s="136"/>
       <c r="AC509" s="143"/>
       <c r="AD509" s="136"/>
     </row>
-    <row r="510" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A510" s="19">
-        <v>52400</v>
+        <v>52320</v>
       </c>
       <c r="B510" s="133" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C510" s="133" t="s">
-        <v>1712</v>
-      </c>
-      <c r="H510" s="104">
-        <v>14</v>
-      </c>
-      <c r="I510" s="10" t="s">
-        <v>472</v>
+        <v>1711</v>
+      </c>
+      <c r="J510" s="104">
+        <v>2</v>
+      </c>
+      <c r="K510" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="N510" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O510" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q510" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T510" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="W510" s="74" t="s">
+        <v>157</v>
       </c>
       <c r="AB510" s="136"/>
       <c r="AC510" s="143"/>
       <c r="AD510" s="136"/>
     </row>
-    <row r="511" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A511" s="19">
-        <v>52410</v>
+        <v>52400</v>
       </c>
       <c r="B511" s="133" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C511" s="133" t="s">
-        <v>1713</v>
-      </c>
-      <c r="J511" s="104">
-        <v>1</v>
-      </c>
-      <c r="K511" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y511" s="77">
-        <v>10</v>
+        <v>1712</v>
+      </c>
+      <c r="H511" s="104">
+        <v>14</v>
+      </c>
+      <c r="I511" s="10" t="s">
+        <v>472</v>
       </c>
       <c r="AB511" s="136"/>
       <c r="AC511" s="143"/>
@@ -22497,68 +22494,62 @@
     </row>
     <row r="512" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A512" s="19">
-        <v>52420</v>
+        <v>52410</v>
       </c>
       <c r="B512" s="133" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C512" s="133" t="s">
-        <v>1714</v>
-      </c>
-      <c r="J512" s="107">
-        <v>2</v>
-      </c>
-      <c r="K512" s="91" t="s">
-        <v>471</v>
+        <v>1713</v>
+      </c>
+      <c r="J512" s="104">
+        <v>1</v>
+      </c>
+      <c r="K512" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y512" s="77">
+        <v>10</v>
       </c>
       <c r="AB512" s="136"/>
       <c r="AC512" s="143"/>
       <c r="AD512" s="136"/>
     </row>
-    <row r="513" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A513" s="19">
-        <v>52500</v>
+        <v>52420</v>
       </c>
       <c r="B513" s="133" t="s">
-        <v>1882</v>
+        <v>1104</v>
       </c>
       <c r="C513" s="133" t="s">
-        <v>1885</v>
-      </c>
-      <c r="H513" s="104">
-        <v>15</v>
-      </c>
-      <c r="I513" s="10" t="s">
-        <v>318</v>
+        <v>1714</v>
+      </c>
+      <c r="J513" s="107">
+        <v>2</v>
+      </c>
+      <c r="K513" s="91" t="s">
+        <v>471</v>
       </c>
       <c r="AB513" s="136"/>
       <c r="AC513" s="143"/>
       <c r="AD513" s="136"/>
     </row>
-    <row r="514" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A514" s="19">
-        <v>52510</v>
+        <v>52500</v>
       </c>
       <c r="B514" s="133" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="C514" s="133" t="s">
-        <v>1886</v>
-      </c>
-      <c r="J514" s="104">
-        <v>1</v>
-      </c>
-      <c r="K514" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="N514" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O514" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q514" s="60" t="s">
-        <v>346</v>
+        <v>1885</v>
+      </c>
+      <c r="H514" s="104">
+        <v>15</v>
+      </c>
+      <c r="I514" s="10" t="s">
+        <v>318</v>
       </c>
       <c r="AB514" s="136"/>
       <c r="AC514" s="143"/>
@@ -22566,612 +22557,602 @@
     </row>
     <row r="515" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A515" s="19">
-        <v>52520</v>
+        <v>52510</v>
       </c>
       <c r="B515" s="133" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="C515" s="133" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="J515" s="104">
-        <v>2</v>
-      </c>
-      <c r="K515" s="87" t="s">
-        <v>473</v>
+        <v>1</v>
+      </c>
+      <c r="K515" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="N515" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O515" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q515" s="60" t="s">
+        <v>346</v>
       </c>
       <c r="AB515" s="136"/>
       <c r="AC515" s="143"/>
       <c r="AD515" s="136"/>
     </row>
-    <row r="516" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A516" s="130">
-        <v>60000</v>
-      </c>
-      <c r="B516" s="98" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C516" s="98" t="s">
-        <v>1739</v>
-      </c>
-      <c r="D516" s="100">
-        <v>6</v>
-      </c>
-      <c r="E516" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="G516" s="31"/>
-      <c r="I516" s="25"/>
-      <c r="K516" s="25"/>
-      <c r="M516" s="48"/>
+    <row r="516" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A516" s="19">
+        <v>52520</v>
+      </c>
+      <c r="B516" s="133" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C516" s="133" t="s">
+        <v>1887</v>
+      </c>
+      <c r="J516" s="104">
+        <v>2</v>
+      </c>
+      <c r="K516" s="87" t="s">
+        <v>473</v>
+      </c>
       <c r="AB516" s="136"/>
       <c r="AC516" s="143"/>
       <c r="AD516" s="136"/>
     </row>
-    <row r="517" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A517" s="19">
-        <v>61000</v>
+    <row r="517" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="130">
+        <v>60000</v>
       </c>
       <c r="B517" s="98" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C517" s="98" t="s">
-        <v>1740</v>
-      </c>
-      <c r="E517" s="30"/>
-      <c r="F517" s="100">
-        <v>1</v>
-      </c>
-      <c r="G517" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="I517" s="22"/>
-      <c r="K517" s="22"/>
-      <c r="M517" s="47"/>
+        <v>1739</v>
+      </c>
+      <c r="D517" s="100">
+        <v>6</v>
+      </c>
+      <c r="E517" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="G517" s="31"/>
+      <c r="I517" s="25"/>
+      <c r="K517" s="25"/>
+      <c r="M517" s="48"/>
       <c r="AB517" s="136"/>
       <c r="AC517" s="143"/>
       <c r="AD517" s="136"/>
     </row>
-    <row r="518" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A518" s="19">
-        <v>61100</v>
+        <v>61000</v>
       </c>
       <c r="B518" s="98" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C518" s="98" t="s">
-        <v>1741</v>
-      </c>
-      <c r="H518" s="104">
+        <v>1740</v>
+      </c>
+      <c r="E518" s="30"/>
+      <c r="F518" s="100">
         <v>1</v>
       </c>
-      <c r="I518" s="10" t="s">
-        <v>320</v>
-      </c>
+      <c r="G518" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="I518" s="22"/>
+      <c r="K518" s="22"/>
+      <c r="M518" s="47"/>
       <c r="AB518" s="136"/>
       <c r="AC518" s="143"/>
       <c r="AD518" s="136"/>
     </row>
-    <row r="519" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A519" s="19">
-        <v>61110</v>
+        <v>61100</v>
       </c>
       <c r="B519" s="98" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C519" s="98" t="s">
-        <v>1742</v>
-      </c>
-      <c r="J519" s="104">
+        <v>1741</v>
+      </c>
+      <c r="H519" s="104">
         <v>1</v>
       </c>
-      <c r="K519" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="M519" s="51"/>
+      <c r="I519" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="AB519" s="136"/>
       <c r="AC519" s="143"/>
       <c r="AD519" s="136"/>
     </row>
-    <row r="520" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A520" s="19">
-        <v>61120</v>
+        <v>61110</v>
       </c>
       <c r="B520" s="98" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C520" s="98" t="s">
-        <v>1743</v>
-      </c>
-      <c r="L520" s="108">
+        <v>1742</v>
+      </c>
+      <c r="J520" s="104">
         <v>1</v>
       </c>
-      <c r="M520" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="N520" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O520" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q520" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T520" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y520" s="77">
-        <v>11</v>
-      </c>
+      <c r="K520" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M520" s="51"/>
       <c r="AB520" s="136"/>
       <c r="AC520" s="143"/>
       <c r="AD520" s="136"/>
     </row>
-    <row r="521" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A521" s="19">
-        <v>61200</v>
+        <v>61120</v>
       </c>
       <c r="B521" s="98" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C521" s="98" t="s">
-        <v>1744</v>
-      </c>
-      <c r="J521" s="104">
-        <v>2</v>
-      </c>
-      <c r="K521" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="M521" s="51"/>
+        <v>1743</v>
+      </c>
+      <c r="L521" s="108">
+        <v>1</v>
+      </c>
+      <c r="M521" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="N521" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O521" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q521" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T521" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y521" s="77">
+        <v>11</v>
+      </c>
       <c r="AB521" s="136"/>
       <c r="AC521" s="143"/>
       <c r="AD521" s="136"/>
     </row>
-    <row r="522" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A522" s="19">
-        <v>61210</v>
+        <v>61200</v>
       </c>
       <c r="B522" s="98" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C522" s="98" t="s">
-        <v>1745</v>
-      </c>
-      <c r="L522" s="108">
-        <v>1</v>
-      </c>
-      <c r="M522" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="N522" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O522" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q522" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T522" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y522" s="77">
-        <v>11</v>
-      </c>
+        <v>1744</v>
+      </c>
+      <c r="J522" s="104">
+        <v>2</v>
+      </c>
+      <c r="K522" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="M522" s="51"/>
       <c r="AB522" s="136"/>
       <c r="AC522" s="143"/>
       <c r="AD522" s="136"/>
     </row>
-    <row r="523" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A523" s="19">
-        <v>61300</v>
+        <v>61210</v>
       </c>
       <c r="B523" s="98" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C523" s="98" t="s">
-        <v>1746</v>
-      </c>
-      <c r="J523" s="104">
-        <v>3</v>
-      </c>
-      <c r="K523" s="10" t="s">
-        <v>145</v>
+        <v>1745</v>
+      </c>
+      <c r="L523" s="108">
+        <v>1</v>
+      </c>
+      <c r="M523" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="N523" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O523" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q523" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T523" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y523" s="77">
+        <v>11</v>
       </c>
       <c r="AB523" s="136"/>
       <c r="AC523" s="143"/>
       <c r="AD523" s="136"/>
     </row>
-    <row r="524" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A524" s="19">
-        <v>61310</v>
+        <v>61300</v>
       </c>
       <c r="B524" s="98" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C524" s="98" t="s">
-        <v>1747</v>
-      </c>
-      <c r="L524" s="108">
-        <v>1</v>
-      </c>
-      <c r="M524" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="N524" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O524" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q524" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T524" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y524" s="77">
-        <v>11</v>
+        <v>1746</v>
+      </c>
+      <c r="J524" s="104">
+        <v>3</v>
+      </c>
+      <c r="K524" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="AB524" s="136"/>
       <c r="AC524" s="143"/>
       <c r="AD524" s="136"/>
     </row>
-    <row r="525" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A525" s="19">
-        <v>61400</v>
+        <v>61310</v>
       </c>
       <c r="B525" s="98" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C525" s="98" t="s">
-        <v>1748</v>
-      </c>
-      <c r="J525" s="104">
-        <v>4</v>
-      </c>
-      <c r="K525" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="M525" s="51"/>
+        <v>1747</v>
+      </c>
+      <c r="L525" s="108">
+        <v>1</v>
+      </c>
+      <c r="M525" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="N525" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O525" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q525" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T525" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y525" s="77">
+        <v>11</v>
+      </c>
       <c r="AB525" s="136"/>
       <c r="AC525" s="143"/>
       <c r="AD525" s="136"/>
     </row>
-    <row r="526" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A526" s="19">
-        <v>61410</v>
+        <v>61400</v>
       </c>
       <c r="B526" s="98" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C526" s="98" t="s">
-        <v>1749</v>
-      </c>
-      <c r="L526" s="108">
-        <v>1</v>
-      </c>
-      <c r="M526" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="N526" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O526" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q526" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T526" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y526" s="77">
-        <v>11</v>
-      </c>
+        <v>1748</v>
+      </c>
+      <c r="J526" s="104">
+        <v>4</v>
+      </c>
+      <c r="K526" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M526" s="51"/>
       <c r="AB526" s="136"/>
       <c r="AC526" s="143"/>
       <c r="AD526" s="136"/>
     </row>
-    <row r="527" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A527" s="19">
-        <v>61500</v>
+        <v>61410</v>
       </c>
       <c r="B527" s="98" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C527" s="98" t="s">
-        <v>1750</v>
-      </c>
-      <c r="J527" s="104">
-        <v>5</v>
-      </c>
-      <c r="K527" s="10" t="s">
-        <v>142</v>
+        <v>1749</v>
+      </c>
+      <c r="L527" s="108">
+        <v>1</v>
+      </c>
+      <c r="M527" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="N527" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O527" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q527" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T527" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y527" s="77">
+        <v>11</v>
       </c>
       <c r="AB527" s="136"/>
       <c r="AC527" s="143"/>
       <c r="AD527" s="136"/>
     </row>
-    <row r="528" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A528" s="19">
-        <v>61510</v>
+        <v>61500</v>
       </c>
       <c r="B528" s="98" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C528" s="98" t="s">
-        <v>1751</v>
-      </c>
-      <c r="L528" s="108">
-        <v>1</v>
-      </c>
-      <c r="M528" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="N528" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O528" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q528" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T528" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y528" s="77">
-        <v>11</v>
+        <v>1750</v>
+      </c>
+      <c r="J528" s="104">
+        <v>5</v>
+      </c>
+      <c r="K528" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="AB528" s="136"/>
       <c r="AC528" s="143"/>
       <c r="AD528" s="136"/>
     </row>
-    <row r="529" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A529" s="19">
-        <v>61600</v>
+        <v>61510</v>
       </c>
       <c r="B529" s="98" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C529" s="98" t="s">
-        <v>1752</v>
-      </c>
-      <c r="J529" s="104">
-        <v>6</v>
-      </c>
-      <c r="K529" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="M529" s="51"/>
+        <v>1751</v>
+      </c>
+      <c r="L529" s="108">
+        <v>1</v>
+      </c>
+      <c r="M529" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="N529" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O529" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q529" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T529" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y529" s="77">
+        <v>11</v>
+      </c>
       <c r="AB529" s="136"/>
       <c r="AC529" s="143"/>
       <c r="AD529" s="136"/>
     </row>
-    <row r="530" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A530" s="19">
-        <v>61610</v>
+        <v>61600</v>
       </c>
       <c r="B530" s="98" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C530" s="98" t="s">
-        <v>1753</v>
-      </c>
-      <c r="L530" s="108">
-        <v>1</v>
-      </c>
-      <c r="M530" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="N530" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O530" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q530" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T530" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y530" s="77">
-        <v>11</v>
-      </c>
+        <v>1752</v>
+      </c>
+      <c r="J530" s="104">
+        <v>6</v>
+      </c>
+      <c r="K530" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M530" s="51"/>
       <c r="AB530" s="136"/>
       <c r="AC530" s="143"/>
       <c r="AD530" s="136"/>
     </row>
-    <row r="531" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A531" s="19">
-        <v>61700</v>
+        <v>61610</v>
       </c>
       <c r="B531" s="98" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C531" s="98" t="s">
-        <v>1754</v>
-      </c>
-      <c r="J531" s="104">
-        <v>7</v>
-      </c>
-      <c r="K531" s="10" t="s">
-        <v>144</v>
+        <v>1753</v>
+      </c>
+      <c r="L531" s="108">
+        <v>1</v>
+      </c>
+      <c r="M531" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="N531" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O531" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q531" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T531" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y531" s="77">
+        <v>11</v>
       </c>
       <c r="AB531" s="136"/>
       <c r="AC531" s="143"/>
       <c r="AD531" s="136"/>
     </row>
-    <row r="532" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A532" s="19">
-        <v>61710</v>
+        <v>61700</v>
       </c>
       <c r="B532" s="98" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C532" s="98" t="s">
-        <v>1755</v>
-      </c>
-      <c r="L532" s="108">
-        <v>1</v>
-      </c>
-      <c r="M532" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="N532" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O532" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q532" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T532" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y532" s="77">
-        <v>11</v>
+        <v>1754</v>
+      </c>
+      <c r="J532" s="104">
+        <v>7</v>
+      </c>
+      <c r="K532" s="10" t="s">
+        <v>144</v>
       </c>
       <c r="AB532" s="136"/>
       <c r="AC532" s="143"/>
       <c r="AD532" s="136"/>
     </row>
-    <row r="533" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A533" s="19">
-        <v>61800</v>
+        <v>61710</v>
       </c>
       <c r="B533" s="98" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C533" s="98" t="s">
-        <v>1756</v>
-      </c>
-      <c r="J533" s="104">
-        <v>8</v>
-      </c>
-      <c r="K533" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="M533" s="51"/>
+        <v>1755</v>
+      </c>
+      <c r="L533" s="108">
+        <v>1</v>
+      </c>
+      <c r="M533" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="N533" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O533" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q533" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T533" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y533" s="77">
+        <v>11</v>
+      </c>
       <c r="AB533" s="136"/>
       <c r="AC533" s="143"/>
       <c r="AD533" s="136"/>
     </row>
-    <row r="534" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A534" s="19">
-        <v>61810</v>
+        <v>61800</v>
       </c>
       <c r="B534" s="98" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C534" s="98" t="s">
-        <v>1757</v>
-      </c>
-      <c r="L534" s="108">
-        <v>1</v>
-      </c>
-      <c r="M534" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="N534" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O534" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q534" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T534" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y534" s="77">
-        <v>11</v>
-      </c>
+        <v>1756</v>
+      </c>
+      <c r="J534" s="104">
+        <v>8</v>
+      </c>
+      <c r="K534" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="M534" s="51"/>
       <c r="AB534" s="136"/>
       <c r="AC534" s="143"/>
       <c r="AD534" s="136"/>
     </row>
-    <row r="535" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A535" s="19">
-        <v>62000</v>
+        <v>61810</v>
       </c>
       <c r="B535" s="98" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C535" s="98" t="s">
-        <v>1758</v>
-      </c>
-      <c r="H535" s="104">
-        <v>2</v>
-      </c>
-      <c r="I535" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="M535" s="51"/>
+        <v>1757</v>
+      </c>
+      <c r="L535" s="108">
+        <v>1</v>
+      </c>
+      <c r="M535" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="N535" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O535" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q535" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T535" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y535" s="77">
+        <v>11</v>
+      </c>
       <c r="AB535" s="136"/>
       <c r="AC535" s="143"/>
       <c r="AD535" s="136"/>
     </row>
-    <row r="536" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A536" s="19">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="B536" s="98" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C536" s="98" t="s">
-        <v>1759</v>
-      </c>
-      <c r="J536" s="104">
-        <v>1</v>
-      </c>
-      <c r="K536" s="10" t="s">
-        <v>159</v>
+        <v>1758</v>
+      </c>
+      <c r="H536" s="104">
+        <v>2</v>
+      </c>
+      <c r="I536" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="M536" s="51"/>
-      <c r="N536" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O536" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q536" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T536" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y536" s="77">
-        <v>17</v>
-      </c>
-      <c r="AA536" s="94" t="s">
-        <v>609</v>
-      </c>
       <c r="AB536" s="136"/>
       <c r="AC536" s="143"/>
       <c r="AD536" s="136"/>
     </row>
     <row r="537" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A537" s="19">
-        <v>62200</v>
+        <v>62100</v>
       </c>
       <c r="B537" s="98" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C537" s="98" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="J537" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K537" s="10" t="s">
-        <v>322</v>
+        <v>159</v>
       </c>
       <c r="M537" s="51"/>
       <c r="N537" s="54" t="s">
@@ -23187,7 +23168,10 @@
         <v>346</v>
       </c>
       <c r="Y537" s="77">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="AA537" s="94" t="s">
+        <v>609</v>
       </c>
       <c r="AB537" s="136"/>
       <c r="AC537" s="143"/>
@@ -23195,19 +23179,19 @@
     </row>
     <row r="538" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A538" s="19">
-        <v>62300</v>
+        <v>62200</v>
       </c>
       <c r="B538" s="98" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C538" s="98" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="J538" s="104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K538" s="10" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="M538" s="51"/>
       <c r="N538" s="54" t="s">
@@ -23221,6 +23205,9 @@
       </c>
       <c r="T538" s="66" t="s">
         <v>346</v>
+      </c>
+      <c r="Y538" s="77">
+        <v>7</v>
       </c>
       <c r="AB538" s="136"/>
       <c r="AC538" s="143"/>
@@ -23228,19 +23215,19 @@
     </row>
     <row r="539" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A539" s="19">
-        <v>62400</v>
+        <v>62300</v>
       </c>
       <c r="B539" s="98" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C539" s="98" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="J539" s="104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K539" s="10" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
       <c r="M539" s="51"/>
       <c r="N539" s="54" t="s">
@@ -23252,8 +23239,8 @@
       <c r="Q539" s="60" t="s">
         <v>346</v>
       </c>
-      <c r="Y539" s="77">
-        <v>17</v>
+      <c r="T539" s="66" t="s">
+        <v>346</v>
       </c>
       <c r="AB539" s="136"/>
       <c r="AC539" s="143"/>
@@ -23261,19 +23248,19 @@
     </row>
     <row r="540" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A540" s="19">
-        <v>62500</v>
+        <v>62400</v>
       </c>
       <c r="B540" s="98" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C540" s="98" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="J540" s="104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K540" s="10" t="s">
-        <v>323</v>
+        <v>260</v>
       </c>
       <c r="M540" s="51"/>
       <c r="N540" s="54" t="s">
@@ -23282,8 +23269,11 @@
       <c r="O540" s="28" t="s">
         <v>346</v>
       </c>
+      <c r="Q540" s="60" t="s">
+        <v>346</v>
+      </c>
       <c r="Y540" s="77">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB540" s="136"/>
       <c r="AC540" s="143"/>
@@ -23291,28 +23281,25 @@
     </row>
     <row r="541" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A541" s="19">
-        <v>62600</v>
+        <v>62500</v>
       </c>
       <c r="B541" s="98" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C541" s="98" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="J541" s="104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K541" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M541" s="51"/>
       <c r="N541" s="54" t="s">
         <v>346</v>
       </c>
       <c r="O541" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="T541" s="66" t="s">
         <v>346</v>
       </c>
       <c r="Y541" s="77">
@@ -23322,77 +23309,75 @@
       <c r="AC541" s="143"/>
       <c r="AD541" s="136"/>
     </row>
-    <row r="542" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A542" s="19">
-        <v>63000</v>
+        <v>62600</v>
       </c>
       <c r="B542" s="98" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C542" s="98" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H542" s="104">
-        <v>3</v>
-      </c>
-      <c r="I542" s="10" t="s">
-        <v>358</v>
+        <v>1764</v>
+      </c>
+      <c r="J542" s="104">
+        <v>6</v>
+      </c>
+      <c r="K542" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="M542" s="51"/>
+      <c r="N542" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O542" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="T542" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y542" s="77">
+        <v>11</v>
+      </c>
       <c r="AB542" s="136"/>
       <c r="AC542" s="143"/>
       <c r="AD542" s="136"/>
     </row>
-    <row r="543" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A543" s="19">
-        <v>63100</v>
+        <v>63000</v>
       </c>
       <c r="B543" s="98" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C543" s="98" t="s">
-        <v>1766</v>
-      </c>
-      <c r="J543" s="104">
-        <v>1</v>
-      </c>
-      <c r="K543" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="N543" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O543" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q543" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T543" s="66" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y543" s="77">
-        <v>11</v>
-      </c>
+        <v>1765</v>
+      </c>
+      <c r="H543" s="104">
+        <v>3</v>
+      </c>
+      <c r="I543" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="M543" s="51"/>
       <c r="AB543" s="136"/>
       <c r="AC543" s="143"/>
       <c r="AD543" s="136"/>
     </row>
     <row r="544" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A544" s="19">
-        <v>63200</v>
+        <v>63100</v>
       </c>
       <c r="B544" s="98" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C544" s="98" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="J544" s="104">
-        <v>2</v>
-      </c>
-      <c r="K544" s="87" t="s">
-        <v>393</v>
+        <v>1</v>
+      </c>
+      <c r="K544" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="N544" s="54" t="s">
         <v>346</v>
@@ -23401,6 +23386,9 @@
         <v>346</v>
       </c>
       <c r="Q544" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T544" s="66" t="s">
         <v>346</v>
       </c>
       <c r="Y544" s="77">
@@ -23410,79 +23398,81 @@
       <c r="AC544" s="143"/>
       <c r="AD544" s="136"/>
     </row>
-    <row r="545" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A545" s="19">
-        <v>64000</v>
+        <v>63200</v>
       </c>
       <c r="B545" s="98" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C545" s="98" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H545" s="104">
-        <v>4</v>
-      </c>
-      <c r="I545" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K545" s="14"/>
+        <v>1767</v>
+      </c>
+      <c r="J545" s="104">
+        <v>2</v>
+      </c>
+      <c r="K545" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="N545" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O545" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q545" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y545" s="77">
+        <v>11</v>
+      </c>
       <c r="AB545" s="136"/>
       <c r="AC545" s="143"/>
       <c r="AD545" s="136"/>
     </row>
-    <row r="546" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A546" s="19">
-        <v>64100</v>
-      </c>
-      <c r="B546" s="133" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C546" s="133" t="s">
-        <v>1769</v>
-      </c>
-      <c r="J546" s="104">
-        <v>1</v>
-      </c>
-      <c r="K546" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="L546" s="119"/>
-      <c r="N546" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O546" s="28" t="s">
-        <v>346</v>
-      </c>
+        <v>64000</v>
+      </c>
+      <c r="B546" s="98" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C546" s="98" t="s">
+        <v>1768</v>
+      </c>
+      <c r="H546" s="104">
+        <v>4</v>
+      </c>
+      <c r="I546" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K546" s="14"/>
       <c r="AB546" s="136"/>
       <c r="AC546" s="143"/>
       <c r="AD546" s="136"/>
     </row>
-    <row r="547" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A547" s="19">
-        <v>64110</v>
+        <v>64100</v>
       </c>
       <c r="B547" s="133" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C547" s="133" t="s">
-        <v>1770</v>
-      </c>
-      <c r="K547" s="19"/>
-      <c r="L547" s="119">
+        <v>1769</v>
+      </c>
+      <c r="J547" s="104">
         <v>1</v>
       </c>
-      <c r="M547" s="41" t="s">
-        <v>152</v>
-      </c>
+      <c r="K547" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="L547" s="119"/>
       <c r="N547" s="54" t="s">
         <v>346</v>
       </c>
       <c r="O547" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="Y547" s="77">
-        <v>11</v>
       </c>
       <c r="AB547" s="136"/>
       <c r="AC547" s="143"/>
@@ -23490,20 +23480,20 @@
     </row>
     <row r="548" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A548" s="19">
-        <v>64120</v>
+        <v>64110</v>
       </c>
       <c r="B548" s="133" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C548" s="133" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="K548" s="19"/>
       <c r="L548" s="119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M548" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N548" s="54" t="s">
         <v>346</v>
@@ -23520,20 +23510,20 @@
     </row>
     <row r="549" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A549" s="19">
-        <v>64130</v>
+        <v>64120</v>
       </c>
       <c r="B549" s="133" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C549" s="133" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="K549" s="19"/>
       <c r="L549" s="119">
-        <v>3</v>
-      </c>
-      <c r="M549" s="92" t="s">
-        <v>476</v>
+        <v>2</v>
+      </c>
+      <c r="M549" s="41" t="s">
+        <v>153</v>
       </c>
       <c r="N549" s="54" t="s">
         <v>346</v>
@@ -23548,177 +23538,178 @@
       <c r="AC549" s="143"/>
       <c r="AD549" s="136"/>
     </row>
-    <row r="550" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A550" s="19">
-        <v>64200</v>
+        <v>64130</v>
       </c>
       <c r="B550" s="133" t="s">
-        <v>1888</v>
+        <v>1138</v>
       </c>
       <c r="C550" s="133" t="s">
-        <v>1891</v>
-      </c>
-      <c r="J550" s="104">
-        <v>2</v>
-      </c>
-      <c r="K550" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="L550" s="119"/>
-      <c r="M550" s="51"/>
+        <v>1772</v>
+      </c>
+      <c r="K550" s="19"/>
+      <c r="L550" s="119">
+        <v>3</v>
+      </c>
+      <c r="M550" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="N550" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O550" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y550" s="77">
+        <v>11</v>
+      </c>
       <c r="AB550" s="136"/>
       <c r="AC550" s="143"/>
       <c r="AD550" s="136"/>
     </row>
-    <row r="551" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A551" s="19">
-        <v>64210</v>
+        <v>64200</v>
       </c>
       <c r="B551" s="133" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="C551" s="133" t="s">
-        <v>1890</v>
-      </c>
-      <c r="L551" s="108">
-        <v>1</v>
-      </c>
-      <c r="M551" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="N551" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O551" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y551" s="77">
-        <v>11</v>
-      </c>
+        <v>1891</v>
+      </c>
+      <c r="J551" s="104">
+        <v>2</v>
+      </c>
+      <c r="K551" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="L551" s="119"/>
+      <c r="M551" s="51"/>
       <c r="AB551" s="136"/>
       <c r="AC551" s="143"/>
       <c r="AD551" s="136"/>
     </row>
-    <row r="552" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A552" s="19">
-        <v>64220</v>
-      </c>
-      <c r="B552" s="98" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C552" s="98" t="s">
-        <v>1773</v>
-      </c>
-      <c r="H552" s="104">
-        <v>5</v>
-      </c>
-      <c r="I552" s="87" t="s">
-        <v>394</v>
-      </c>
-      <c r="N552" s="55"/>
-      <c r="O552" s="36"/>
+        <v>64210</v>
+      </c>
+      <c r="B552" s="133" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C552" s="133" t="s">
+        <v>1890</v>
+      </c>
+      <c r="L552" s="108">
+        <v>1</v>
+      </c>
+      <c r="M552" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="N552" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O552" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y552" s="77">
+        <v>11</v>
+      </c>
       <c r="AB552" s="136"/>
       <c r="AC552" s="143"/>
       <c r="AD552" s="136"/>
     </row>
-    <row r="553" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A553" s="19">
-        <v>64300</v>
+        <v>64220</v>
       </c>
       <c r="B553" s="98" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C553" s="98" t="s">
-        <v>1774</v>
-      </c>
-      <c r="I553" s="14"/>
-      <c r="J553" s="104">
-        <v>1</v>
-      </c>
-      <c r="K553" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="N553" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O553" s="28" t="s">
-        <v>346</v>
-      </c>
+        <v>1773</v>
+      </c>
+      <c r="H553" s="104">
+        <v>5</v>
+      </c>
+      <c r="I553" s="87" t="s">
+        <v>394</v>
+      </c>
+      <c r="N553" s="55"/>
+      <c r="O553" s="36"/>
       <c r="AB553" s="136"/>
       <c r="AC553" s="143"/>
       <c r="AD553" s="136"/>
     </row>
-    <row r="554" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="130">
-        <v>70000</v>
+    <row r="554" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A554" s="19">
+        <v>64300</v>
       </c>
       <c r="B554" s="98" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C554" s="98" t="s">
-        <v>1781</v>
-      </c>
-      <c r="E554" s="30"/>
-      <c r="F554" s="100">
-        <v>2</v>
-      </c>
-      <c r="G554" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="I554" s="22"/>
-      <c r="K554" s="22"/>
-      <c r="M554" s="47"/>
+        <v>1774</v>
+      </c>
+      <c r="I554" s="14"/>
+      <c r="J554" s="104">
+        <v>1</v>
+      </c>
+      <c r="K554" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="N554" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O554" s="28" t="s">
+        <v>346</v>
+      </c>
       <c r="AB554" s="136"/>
       <c r="AC554" s="143"/>
       <c r="AD554" s="136"/>
     </row>
-    <row r="555" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A555" s="19">
-        <v>70100</v>
+    <row r="555" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="130">
+        <v>70000</v>
       </c>
       <c r="B555" s="98" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C555" s="98" t="s">
-        <v>1782</v>
-      </c>
-      <c r="H555" s="104">
-        <v>1</v>
-      </c>
-      <c r="I555" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA555" s="94" t="s">
-        <v>610</v>
-      </c>
+        <v>1781</v>
+      </c>
+      <c r="E555" s="30"/>
+      <c r="F555" s="100">
+        <v>2</v>
+      </c>
+      <c r="G555" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I555" s="22"/>
+      <c r="K555" s="22"/>
+      <c r="M555" s="47"/>
       <c r="AB555" s="136"/>
       <c r="AC555" s="143"/>
       <c r="AD555" s="136"/>
     </row>
-    <row r="556" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A556" s="19">
-        <v>70110</v>
+        <v>70100</v>
       </c>
       <c r="B556" s="98" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C556" s="98" t="s">
-        <v>1783</v>
-      </c>
-      <c r="J556" s="104">
+        <v>1782</v>
+      </c>
+      <c r="H556" s="104">
         <v>1</v>
       </c>
-      <c r="K556" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="N556" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O556" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y556" s="77">
-        <v>12</v>
+      <c r="I556" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA556" s="94" t="s">
+        <v>610</v>
       </c>
       <c r="AB556" s="136"/>
       <c r="AC556" s="143"/>
@@ -23726,19 +23717,19 @@
     </row>
     <row r="557" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A557" s="19">
-        <v>70120</v>
+        <v>70110</v>
       </c>
       <c r="B557" s="98" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C557" s="98" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="J557" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K557" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="N557" s="54" t="s">
         <v>346</v>
@@ -23755,19 +23746,19 @@
     </row>
     <row r="558" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A558" s="19">
-        <v>70130</v>
+        <v>70120</v>
       </c>
       <c r="B558" s="98" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C558" s="98" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="J558" s="104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K558" s="10" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N558" s="54" t="s">
         <v>346</v>
@@ -23784,19 +23775,19 @@
     </row>
     <row r="559" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A559" s="19">
-        <v>70140</v>
+        <v>70130</v>
       </c>
       <c r="B559" s="98" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C559" s="98" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="J559" s="104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K559" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N559" s="54" t="s">
         <v>346</v>
@@ -23813,19 +23804,19 @@
     </row>
     <row r="560" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A560" s="19">
-        <v>70150</v>
+        <v>70140</v>
       </c>
       <c r="B560" s="98" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C560" s="98" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="J560" s="104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K560" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="N560" s="54" t="s">
         <v>346</v>
@@ -23842,19 +23833,19 @@
     </row>
     <row r="561" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A561" s="19">
-        <v>70160</v>
+        <v>70150</v>
       </c>
       <c r="B561" s="98" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C561" s="98" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="J561" s="104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K561" s="10" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="N561" s="54" t="s">
         <v>346</v>
@@ -23871,19 +23862,19 @@
     </row>
     <row r="562" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A562" s="19">
-        <v>70170</v>
+        <v>70160</v>
       </c>
       <c r="B562" s="98" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C562" s="98" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="J562" s="104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K562" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N562" s="54" t="s">
         <v>346</v>
@@ -23898,83 +23889,84 @@
       <c r="AC562" s="143"/>
       <c r="AD562" s="136"/>
     </row>
-    <row r="563" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A563" s="19">
-        <v>70200</v>
+        <v>70170</v>
       </c>
       <c r="B563" s="98" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C563" s="98" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E563" s="33"/>
-      <c r="G563" s="33"/>
-      <c r="H563" s="104">
-        <v>2</v>
-      </c>
-      <c r="I563" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="M563" s="52"/>
+        <v>1789</v>
+      </c>
+      <c r="J563" s="104">
+        <v>7</v>
+      </c>
+      <c r="K563" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="N563" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O563" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y563" s="77">
+        <v>12</v>
+      </c>
       <c r="AB563" s="136"/>
       <c r="AC563" s="143"/>
       <c r="AD563" s="136"/>
     </row>
-    <row r="564" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A564" s="19">
-        <v>70210</v>
+        <v>70200</v>
       </c>
       <c r="B564" s="98" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C564" s="98" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="E564" s="33"/>
       <c r="G564" s="33"/>
-      <c r="J564" s="104">
-        <v>1</v>
-      </c>
-      <c r="K564" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="N564" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O564" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA564" s="94" t="s">
-        <v>326</v>
-      </c>
+      <c r="H564" s="104">
+        <v>2</v>
+      </c>
+      <c r="I564" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="M564" s="52"/>
       <c r="AB564" s="136"/>
       <c r="AC564" s="143"/>
       <c r="AD564" s="136"/>
     </row>
     <row r="565" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A565" s="19">
-        <v>70220</v>
+        <v>70210</v>
       </c>
       <c r="B565" s="98" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C565" s="98" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="E565" s="33"/>
       <c r="G565" s="33"/>
       <c r="J565" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K565" s="10" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N565" s="54" t="s">
         <v>346</v>
       </c>
       <c r="O565" s="28" t="s">
         <v>346</v>
+      </c>
+      <c r="AA565" s="94" t="s">
+        <v>326</v>
       </c>
       <c r="AB565" s="136"/>
       <c r="AC565" s="143"/>
@@ -23982,28 +23974,27 @@
     </row>
     <row r="566" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A566" s="19">
-        <v>70230</v>
+        <v>70220</v>
       </c>
       <c r="B566" s="98" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C566" s="98" t="s">
-        <v>1793</v>
-      </c>
+        <v>1792</v>
+      </c>
+      <c r="E566" s="33"/>
+      <c r="G566" s="33"/>
       <c r="J566" s="104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K566" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N566" s="54" t="s">
         <v>346</v>
       </c>
       <c r="O566" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="Y566" s="77">
-        <v>13</v>
       </c>
       <c r="AB566" s="136"/>
       <c r="AC566" s="143"/>
@@ -24011,19 +24002,19 @@
     </row>
     <row r="567" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A567" s="19">
-        <v>70240</v>
+        <v>70230</v>
       </c>
       <c r="B567" s="98" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C567" s="98" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="J567" s="104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K567" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N567" s="54" t="s">
         <v>346</v>
@@ -24040,19 +24031,19 @@
     </row>
     <row r="568" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A568" s="19">
-        <v>70250</v>
+        <v>70240</v>
       </c>
       <c r="B568" s="98" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C568" s="98" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J568" s="104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K568" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N568" s="54" t="s">
         <v>346</v>
@@ -24067,138 +24058,138 @@
       <c r="AC568" s="143"/>
       <c r="AD568" s="136"/>
     </row>
-    <row r="569" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A569" s="19">
-        <v>70300</v>
+        <v>70250</v>
       </c>
       <c r="B569" s="98" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C569" s="98" t="s">
-        <v>1796</v>
-      </c>
-      <c r="H569" s="104">
-        <v>3</v>
-      </c>
-      <c r="I569" s="10" t="s">
-        <v>511</v>
+        <v>1795</v>
+      </c>
+      <c r="J569" s="104">
+        <v>5</v>
+      </c>
+      <c r="K569" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="N569" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O569" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y569" s="77">
+        <v>13</v>
       </c>
       <c r="AB569" s="136"/>
       <c r="AC569" s="143"/>
       <c r="AD569" s="136"/>
     </row>
-    <row r="570" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A570" s="19">
-        <v>70310</v>
+        <v>70300</v>
       </c>
       <c r="B570" s="98" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C570" s="98" t="s">
-        <v>1797</v>
-      </c>
-      <c r="J570" s="104">
-        <v>1</v>
-      </c>
-      <c r="K570" s="87" t="s">
-        <v>510</v>
+        <v>1796</v>
+      </c>
+      <c r="H570" s="104">
+        <v>3</v>
+      </c>
+      <c r="I570" s="10" t="s">
+        <v>511</v>
       </c>
       <c r="AB570" s="136"/>
       <c r="AC570" s="143"/>
       <c r="AD570" s="136"/>
     </row>
-    <row r="571" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A571" s="130">
-        <v>71000</v>
+    <row r="571" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A571" s="19">
+        <v>70310</v>
       </c>
       <c r="B571" s="98" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C571" s="98" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E571" s="30"/>
-      <c r="F571" s="100">
-        <v>3</v>
-      </c>
-      <c r="G571" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="I571" s="22"/>
-      <c r="K571" s="22"/>
-      <c r="M571" s="47"/>
+        <v>1797</v>
+      </c>
+      <c r="J571" s="104">
+        <v>1</v>
+      </c>
+      <c r="K571" s="87" t="s">
+        <v>510</v>
+      </c>
       <c r="AB571" s="136"/>
       <c r="AC571" s="143"/>
       <c r="AD571" s="136"/>
     </row>
-    <row r="572" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A572" s="19">
-        <v>71100</v>
+    <row r="572" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="130">
+        <v>71000</v>
       </c>
       <c r="B572" s="98" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C572" s="98" t="s">
-        <v>1799</v>
-      </c>
-      <c r="H572" s="104">
-        <v>1</v>
-      </c>
-      <c r="I572" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="K572" s="20"/>
-      <c r="L572" s="119"/>
+        <v>1798</v>
+      </c>
+      <c r="E572" s="30"/>
+      <c r="F572" s="100">
+        <v>3</v>
+      </c>
+      <c r="G572" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="I572" s="22"/>
+      <c r="K572" s="22"/>
+      <c r="M572" s="47"/>
       <c r="AB572" s="136"/>
       <c r="AC572" s="143"/>
       <c r="AD572" s="136"/>
     </row>
-    <row r="573" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A573" s="19">
-        <v>71110</v>
+        <v>71100</v>
       </c>
       <c r="B573" s="98" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C573" s="98" t="s">
-        <v>1800</v>
-      </c>
-      <c r="J573" s="104">
+        <v>1799</v>
+      </c>
+      <c r="H573" s="104">
         <v>1</v>
       </c>
-      <c r="K573" s="20" t="s">
-        <v>500</v>
-      </c>
+      <c r="I573" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="K573" s="20"/>
       <c r="L573" s="119"/>
-      <c r="N573" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O573" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y573" s="77">
-        <v>13</v>
-      </c>
       <c r="AB573" s="136"/>
       <c r="AC573" s="143"/>
       <c r="AD573" s="136"/>
     </row>
     <row r="574" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A574" s="19">
-        <v>71120</v>
+        <v>71110</v>
       </c>
       <c r="B574" s="98" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C574" s="98" t="s">
-        <v>1808</v>
+        <v>1800</v>
       </c>
       <c r="J574" s="104">
-        <v>2</v>
-      </c>
-      <c r="K574" s="10" t="s">
-        <v>494</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K574" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="L574" s="119"/>
       <c r="N574" s="54" t="s">
         <v>346</v>
       </c>
@@ -24214,19 +24205,19 @@
     </row>
     <row r="575" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A575" s="19">
-        <v>71130</v>
+        <v>71120</v>
       </c>
       <c r="B575" s="98" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C575" s="98" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="J575" s="104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K575" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N575" s="54" t="s">
         <v>346</v>
@@ -24243,19 +24234,19 @@
     </row>
     <row r="576" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A576" s="19">
-        <v>71140</v>
+        <v>71130</v>
       </c>
       <c r="B576" s="98" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C576" s="98" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="J576" s="104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K576" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N576" s="54" t="s">
         <v>346</v>
@@ -24272,21 +24263,20 @@
     </row>
     <row r="577" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A577" s="19">
-        <v>71150</v>
+        <v>71140</v>
       </c>
       <c r="B577" s="98" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C577" s="98" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="J577" s="104">
-        <v>5</v>
-      </c>
-      <c r="K577" s="20" t="s">
-        <v>502</v>
-      </c>
-      <c r="L577" s="119"/>
+        <v>4</v>
+      </c>
+      <c r="K577" s="10" t="s">
+        <v>495</v>
+      </c>
       <c r="N577" s="54" t="s">
         <v>346</v>
       </c>
@@ -24302,21 +24292,21 @@
     </row>
     <row r="578" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A578" s="19">
-        <v>71160</v>
+        <v>71150</v>
       </c>
       <c r="B578" s="98" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C578" s="98" t="s">
-        <v>1812</v>
-      </c>
-      <c r="G578" s="10"/>
+        <v>1811</v>
+      </c>
       <c r="J578" s="104">
-        <v>6</v>
-      </c>
-      <c r="K578" s="10" t="s">
-        <v>506</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="K578" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="L578" s="119"/>
       <c r="N578" s="54" t="s">
         <v>346</v>
       </c>
@@ -24332,22 +24322,21 @@
     </row>
     <row r="579" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A579" s="19">
-        <v>71170</v>
+        <v>71160</v>
       </c>
       <c r="B579" s="98" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C579" s="98" t="s">
-        <v>1813</v>
-      </c>
+        <v>1812</v>
+      </c>
+      <c r="G579" s="10"/>
       <c r="J579" s="104">
-        <v>7</v>
-      </c>
-      <c r="K579" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="L579" s="119"/>
-      <c r="M579" s="52"/>
+        <v>6</v>
+      </c>
+      <c r="K579" s="10" t="s">
+        <v>506</v>
+      </c>
       <c r="N579" s="54" t="s">
         <v>346</v>
       </c>
@@ -24363,21 +24352,22 @@
     </row>
     <row r="580" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A580" s="19">
-        <v>71180</v>
+        <v>71170</v>
       </c>
       <c r="B580" s="98" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C580" s="98" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="J580" s="104">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K580" s="20" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L580" s="119"/>
+      <c r="M580" s="52"/>
       <c r="N580" s="54" t="s">
         <v>346</v>
       </c>
@@ -24393,20 +24383,21 @@
     </row>
     <row r="581" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A581" s="19">
-        <v>71190</v>
+        <v>71180</v>
       </c>
       <c r="B581" s="98" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C581" s="98" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="J581" s="104">
-        <v>9</v>
-      </c>
-      <c r="K581" s="10" t="s">
-        <v>509</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K581" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="L581" s="119"/>
       <c r="N581" s="54" t="s">
         <v>346</v>
       </c>
@@ -24420,23 +24411,22 @@
       <c r="AC581" s="143"/>
       <c r="AD581" s="136"/>
     </row>
-    <row r="582" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A582" s="19">
-        <v>71200</v>
+        <v>71190</v>
       </c>
       <c r="B582" s="98" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C582" s="98" t="s">
-        <v>1801</v>
+        <v>1815</v>
       </c>
       <c r="J582" s="104">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K582" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="M582" s="52"/>
+        <v>509</v>
+      </c>
       <c r="N582" s="54" t="s">
         <v>346</v>
       </c>
@@ -24452,20 +24442,21 @@
     </row>
     <row r="583" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A583" s="19">
-        <v>71210</v>
+        <v>71200</v>
       </c>
       <c r="B583" s="98" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C583" s="98" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="J583" s="104">
-        <v>11</v>
-      </c>
-      <c r="K583" s="14" t="s">
-        <v>507</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="K583" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="M583" s="52"/>
       <c r="N583" s="54" t="s">
         <v>346</v>
       </c>
@@ -24479,27 +24470,22 @@
       <c r="AC583" s="143"/>
       <c r="AD583" s="136"/>
     </row>
-    <row r="584" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A584" s="19">
-        <v>71220</v>
+        <v>71210</v>
       </c>
       <c r="B584" s="98" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C584" s="98" t="s">
-        <v>1803</v>
-      </c>
-      <c r="E584" s="33"/>
-      <c r="G584" s="33"/>
-      <c r="I584" s="14"/>
+        <v>1802</v>
+      </c>
       <c r="J584" s="104">
-        <v>12</v>
-      </c>
-      <c r="K584" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="L584" s="119"/>
-      <c r="M584" s="46"/>
+        <v>11</v>
+      </c>
+      <c r="K584" s="14" t="s">
+        <v>507</v>
+      </c>
       <c r="N584" s="54" t="s">
         <v>346</v>
       </c>
@@ -24515,20 +24501,25 @@
     </row>
     <row r="585" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A585" s="19">
-        <v>71230</v>
+        <v>71220</v>
       </c>
       <c r="B585" s="98" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C585" s="98" t="s">
-        <v>1804</v>
-      </c>
+        <v>1803</v>
+      </c>
+      <c r="E585" s="33"/>
+      <c r="G585" s="33"/>
+      <c r="I585" s="14"/>
       <c r="J585" s="104">
-        <v>13</v>
-      </c>
-      <c r="K585" s="10" t="s">
-        <v>505</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K585" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="L585" s="119"/>
+      <c r="M585" s="46"/>
       <c r="N585" s="54" t="s">
         <v>346</v>
       </c>
@@ -24544,21 +24535,20 @@
     </row>
     <row r="586" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A586" s="19">
-        <v>71240</v>
+        <v>71230</v>
       </c>
       <c r="B586" s="98" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C586" s="98" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="J586" s="104">
-        <v>14</v>
-      </c>
-      <c r="K586" s="20" t="s">
-        <v>503</v>
-      </c>
-      <c r="L586" s="119"/>
+        <v>13</v>
+      </c>
+      <c r="K586" s="10" t="s">
+        <v>505</v>
+      </c>
       <c r="N586" s="54" t="s">
         <v>346</v>
       </c>
@@ -24574,27 +24564,27 @@
     </row>
     <row r="587" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A587" s="19">
-        <v>71250</v>
+        <v>71240</v>
       </c>
       <c r="B587" s="98" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C587" s="98" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="J587" s="104">
-        <v>15</v>
-      </c>
-      <c r="K587" s="10" t="s">
-        <v>508</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="K587" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="L587" s="119"/>
       <c r="N587" s="54" t="s">
         <v>346</v>
       </c>
       <c r="O587" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="P587" s="58"/>
       <c r="Y587" s="77">
         <v>13</v>
       </c>
@@ -24604,27 +24594,27 @@
     </row>
     <row r="588" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A588" s="19">
-        <v>71260</v>
+        <v>71250</v>
       </c>
       <c r="B588" s="98" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C588" s="98" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="J588" s="104">
-        <v>16</v>
-      </c>
-      <c r="K588" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="L588" s="119"/>
+        <v>15</v>
+      </c>
+      <c r="K588" s="10" t="s">
+        <v>508</v>
+      </c>
       <c r="N588" s="54" t="s">
         <v>346</v>
       </c>
       <c r="O588" s="28" t="s">
         <v>346</v>
       </c>
+      <c r="P588" s="58"/>
       <c r="Y588" s="77">
         <v>13</v>
       </c>
@@ -24632,78 +24622,76 @@
       <c r="AC588" s="143"/>
       <c r="AD588" s="136"/>
     </row>
-    <row r="589" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A589" s="130">
-        <v>72000</v>
+    <row r="589" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A589" s="19">
+        <v>71260</v>
       </c>
       <c r="B589" s="98" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C589" s="98" t="s">
-        <v>1816</v>
-      </c>
-      <c r="E589" s="30"/>
-      <c r="F589" s="100">
-        <v>4</v>
-      </c>
-      <c r="G589" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="I589" s="22"/>
-      <c r="K589" s="82"/>
+        <v>1807</v>
+      </c>
+      <c r="J589" s="104">
+        <v>16</v>
+      </c>
+      <c r="K589" s="20" t="s">
+        <v>499</v>
+      </c>
       <c r="L589" s="119"/>
-      <c r="M589" s="47"/>
+      <c r="N589" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O589" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y589" s="77">
+        <v>13</v>
+      </c>
       <c r="AB589" s="136"/>
       <c r="AC589" s="143"/>
       <c r="AD589" s="136"/>
     </row>
-    <row r="590" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A590" s="19">
-        <v>72100</v>
+    <row r="590" spans="1:30" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="130">
+        <v>72000</v>
       </c>
       <c r="B590" s="98" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C590" s="98" t="s">
-        <v>1817</v>
-      </c>
-      <c r="H590" s="104">
-        <v>1</v>
-      </c>
-      <c r="I590" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="N590" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O590" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q590" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T590" s="66" t="s">
-        <v>346</v>
-      </c>
+        <v>1816</v>
+      </c>
+      <c r="E590" s="30"/>
+      <c r="F590" s="100">
+        <v>4</v>
+      </c>
+      <c r="G590" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I590" s="22"/>
+      <c r="K590" s="82"/>
+      <c r="L590" s="119"/>
+      <c r="M590" s="47"/>
       <c r="AB590" s="136"/>
       <c r="AC590" s="143"/>
       <c r="AD590" s="136"/>
     </row>
-    <row r="591" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A591" s="19">
-        <v>72110</v>
+        <v>72100</v>
       </c>
       <c r="B591" s="98" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C591" s="98" t="s">
-        <v>1818</v>
-      </c>
-      <c r="J591" s="104">
+        <v>1817</v>
+      </c>
+      <c r="H591" s="104">
         <v>1</v>
       </c>
-      <c r="K591" s="10" t="s">
-        <v>169</v>
+      <c r="I591" s="10" t="s">
+        <v>517</v>
       </c>
       <c r="N591" s="54" t="s">
         <v>346</v>
@@ -24716,9 +24704,6 @@
       </c>
       <c r="T591" s="66" t="s">
         <v>346</v>
-      </c>
-      <c r="Y591" s="77">
-        <v>2</v>
       </c>
       <c r="AB591" s="136"/>
       <c r="AC591" s="143"/>
@@ -24726,50 +24711,56 @@
     </row>
     <row r="592" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A592" s="19">
-        <v>72120</v>
+        <v>72110</v>
       </c>
       <c r="B592" s="98" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C592" s="98" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="J592" s="104">
+        <v>1</v>
+      </c>
+      <c r="K592" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N592" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O592" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q592" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T592" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y592" s="77">
         <v>2</v>
-      </c>
-      <c r="K592" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="L592" s="119"/>
-      <c r="N592" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O592" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q592" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T592" s="66" t="s">
-        <v>346</v>
       </c>
       <c r="AB592" s="136"/>
       <c r="AC592" s="143"/>
       <c r="AD592" s="136"/>
     </row>
-    <row r="593" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A593" s="19">
-        <v>72130</v>
+        <v>72120</v>
       </c>
       <c r="B593" s="98" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C593" s="98" t="s">
-        <v>1820</v>
-      </c>
-      <c r="M593" s="41" t="s">
-        <v>519</v>
-      </c>
+        <v>1819</v>
+      </c>
+      <c r="J593" s="104">
+        <v>2</v>
+      </c>
+      <c r="K593" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="L593" s="119"/>
       <c r="N593" s="54" t="s">
         <v>346</v>
       </c>
@@ -24781,9 +24772,6 @@
       </c>
       <c r="T593" s="66" t="s">
         <v>346</v>
-      </c>
-      <c r="Y593" s="77">
-        <v>1</v>
       </c>
       <c r="AB593" s="136"/>
       <c r="AC593" s="143"/>
@@ -24791,17 +24779,31 @@
     </row>
     <row r="594" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A594" s="19">
-        <v>72140</v>
+        <v>72130</v>
       </c>
       <c r="B594" s="98" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C594" s="98" t="s">
-        <v>1821</v>
-      </c>
-      <c r="L594" s="104"/>
-      <c r="M594" s="20" t="s">
-        <v>332</v>
+        <v>1820</v>
+      </c>
+      <c r="M594" s="41" t="s">
+        <v>519</v>
+      </c>
+      <c r="N594" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O594" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q594" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T594" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y594" s="77">
+        <v>1</v>
       </c>
       <c r="AB594" s="136"/>
       <c r="AC594" s="143"/>
@@ -24809,83 +24811,76 @@
     </row>
     <row r="595" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A595" s="19">
-        <v>72150</v>
+        <v>72140</v>
       </c>
       <c r="B595" s="98" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C595" s="98" t="s">
-        <v>1822</v>
-      </c>
-      <c r="M595" s="41" t="s">
-        <v>520</v>
+        <v>1821</v>
+      </c>
+      <c r="L595" s="104"/>
+      <c r="M595" s="20" t="s">
+        <v>332</v>
       </c>
       <c r="AB595" s="136"/>
       <c r="AC595" s="143"/>
       <c r="AD595" s="136"/>
     </row>
-    <row r="596" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:30" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A596" s="19">
-        <v>72200</v>
+        <v>72150</v>
       </c>
       <c r="B596" s="98" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C596" s="98" t="s">
-        <v>1823</v>
-      </c>
-      <c r="H596" s="104">
-        <v>2</v>
-      </c>
-      <c r="I596" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="J596" s="125"/>
+        <v>1822</v>
+      </c>
+      <c r="M596" s="41" t="s">
+        <v>520</v>
+      </c>
       <c r="AB596" s="136"/>
       <c r="AC596" s="143"/>
       <c r="AD596" s="136"/>
     </row>
-    <row r="597" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:30" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A597" s="19">
-        <v>72210</v>
+        <v>72200</v>
       </c>
       <c r="B597" s="98" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C597" s="98" t="s">
-        <v>1824</v>
-      </c>
-      <c r="J597" s="104">
-        <v>1</v>
-      </c>
-      <c r="K597" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y597" s="77">
-        <v>14</v>
-      </c>
+        <v>1823</v>
+      </c>
+      <c r="H597" s="104">
+        <v>2</v>
+      </c>
+      <c r="I597" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="J597" s="125"/>
       <c r="AB597" s="136"/>
       <c r="AC597" s="143"/>
       <c r="AD597" s="136"/>
     </row>
     <row r="598" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A598" s="19">
-        <v>72220</v>
+        <v>72210</v>
       </c>
       <c r="B598" s="98" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C598" s="98" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="J598" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K598" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="L598" s="104"/>
-      <c r="M598" s="10"/>
+        <v>270</v>
+      </c>
       <c r="Y598" s="77">
         <v>14</v>
       </c>
@@ -24895,34 +24890,22 @@
     </row>
     <row r="599" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A599" s="19">
-        <v>72230</v>
+        <v>72220</v>
       </c>
       <c r="B599" s="98" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C599" s="98" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="J599" s="104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K599" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L599" s="104"/>
       <c r="M599" s="10"/>
-      <c r="N599" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O599" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q599" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="T599" s="66" t="s">
-        <v>346</v>
-      </c>
       <c r="Y599" s="77">
         <v>14</v>
       </c>
@@ -24930,24 +24913,36 @@
       <c r="AC599" s="143"/>
       <c r="AD599" s="136"/>
     </row>
-    <row r="600" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:30" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A600" s="19">
-        <v>72240</v>
+        <v>72230</v>
       </c>
       <c r="B600" s="98" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C600" s="98" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="J600" s="104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K600" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L600" s="104"/>
       <c r="M600" s="10"/>
+      <c r="N600" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O600" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q600" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="T600" s="66" t="s">
+        <v>346</v>
+      </c>
       <c r="Y600" s="77">
         <v>14</v>
       </c>
@@ -24955,68 +24950,70 @@
       <c r="AC600" s="143"/>
       <c r="AD600" s="136"/>
     </row>
-    <row r="601" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A601" s="130">
-        <v>73000</v>
+    <row r="601" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A601" s="19">
+        <v>72240</v>
       </c>
       <c r="B601" s="98" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C601" s="98" t="s">
-        <v>1828</v>
-      </c>
-      <c r="E601" s="30"/>
-      <c r="F601" s="100">
-        <v>5</v>
-      </c>
-      <c r="G601" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="I601" s="22"/>
-      <c r="K601" s="22"/>
-      <c r="M601" s="47"/>
+        <v>1827</v>
+      </c>
+      <c r="J601" s="104">
+        <v>4</v>
+      </c>
+      <c r="K601" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="L601" s="104"/>
+      <c r="M601" s="10"/>
+      <c r="Y601" s="77">
+        <v>14</v>
+      </c>
       <c r="AB601" s="136"/>
       <c r="AC601" s="143"/>
       <c r="AD601" s="136"/>
     </row>
-    <row r="602" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A602" s="19">
-        <v>73100</v>
+    <row r="602" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="130">
+        <v>73000</v>
       </c>
       <c r="B602" s="98" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C602" s="98" t="s">
-        <v>1829</v>
-      </c>
-      <c r="H602" s="104">
-        <v>1</v>
-      </c>
-      <c r="I602" s="10" t="s">
-        <v>525</v>
-      </c>
+        <v>1828</v>
+      </c>
+      <c r="E602" s="30"/>
+      <c r="F602" s="100">
+        <v>5</v>
+      </c>
+      <c r="G602" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="I602" s="22"/>
+      <c r="K602" s="22"/>
+      <c r="M602" s="47"/>
       <c r="AB602" s="136"/>
       <c r="AC602" s="143"/>
       <c r="AD602" s="136"/>
     </row>
-    <row r="603" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A603" s="19">
-        <v>73110</v>
+        <v>73100</v>
       </c>
       <c r="B603" s="98" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C603" s="98" t="s">
-        <v>1830</v>
-      </c>
-      <c r="J603" s="104">
+        <v>1829</v>
+      </c>
+      <c r="H603" s="104">
         <v>1</v>
       </c>
-      <c r="K603" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="Y603" s="77">
-        <v>11</v>
+      <c r="I603" s="10" t="s">
+        <v>525</v>
       </c>
       <c r="AB603" s="136"/>
       <c r="AC603" s="143"/>
@@ -25024,19 +25021,19 @@
     </row>
     <row r="604" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A604" s="19">
-        <v>73120</v>
+        <v>73110</v>
       </c>
       <c r="B604" s="98" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C604" s="98" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="J604" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K604" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Y604" s="77">
         <v>11</v>
@@ -25045,185 +25042,175 @@
       <c r="AC604" s="143"/>
       <c r="AD604" s="136"/>
     </row>
-    <row r="605" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A605" s="19">
-        <v>73200</v>
+        <v>73120</v>
       </c>
       <c r="B605" s="98" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C605" s="98" t="s">
-        <v>1832</v>
-      </c>
-      <c r="H605" s="104">
+        <v>1831</v>
+      </c>
+      <c r="J605" s="104">
         <v>2</v>
       </c>
-      <c r="I605" s="10" t="s">
-        <v>526</v>
+      <c r="K605" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y605" s="77">
+        <v>11</v>
       </c>
       <c r="AB605" s="136"/>
       <c r="AC605" s="143"/>
       <c r="AD605" s="136"/>
     </row>
-    <row r="606" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A606" s="19">
-        <v>73210</v>
+        <v>73200</v>
       </c>
       <c r="B606" s="98" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C606" s="98" t="s">
-        <v>1833</v>
-      </c>
-      <c r="J606" s="104">
-        <v>1</v>
-      </c>
-      <c r="K606" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y606" s="77">
-        <v>11</v>
+        <v>1832</v>
+      </c>
+      <c r="H606" s="104">
+        <v>2</v>
+      </c>
+      <c r="I606" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="AB606" s="136"/>
       <c r="AC606" s="143"/>
       <c r="AD606" s="136"/>
     </row>
-    <row r="607" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A607" s="19">
-        <v>73300</v>
+        <v>73210</v>
       </c>
       <c r="B607" s="98" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C607" s="98" t="s">
-        <v>1834</v>
-      </c>
-      <c r="H607" s="104">
-        <v>3</v>
-      </c>
-      <c r="I607" s="10" t="s">
-        <v>418</v>
+        <v>1833</v>
+      </c>
+      <c r="J607" s="104">
+        <v>1</v>
+      </c>
+      <c r="K607" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y607" s="77">
+        <v>11</v>
       </c>
       <c r="AB607" s="136"/>
       <c r="AC607" s="143"/>
       <c r="AD607" s="136"/>
     </row>
-    <row r="608" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A608" s="19">
-        <v>73310</v>
+        <v>73300</v>
       </c>
       <c r="B608" s="98" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C608" s="98" t="s">
-        <v>1835</v>
-      </c>
-      <c r="J608" s="104">
-        <v>1</v>
-      </c>
-      <c r="K608" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y608" s="77">
-        <v>11</v>
+        <v>1834</v>
+      </c>
+      <c r="H608" s="104">
+        <v>3</v>
+      </c>
+      <c r="I608" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="AB608" s="136"/>
       <c r="AC608" s="143"/>
       <c r="AD608" s="136"/>
     </row>
-    <row r="609" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A609" s="130">
-        <v>74000</v>
+    <row r="609" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A609" s="19">
+        <v>73310</v>
       </c>
       <c r="B609" s="98" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C609" s="98" t="s">
-        <v>1836</v>
-      </c>
-      <c r="E609" s="30"/>
-      <c r="F609" s="100">
-        <v>6</v>
-      </c>
-      <c r="G609" s="30" t="s">
-        <v>512</v>
-      </c>
-      <c r="I609" s="22"/>
-      <c r="K609" s="22"/>
-      <c r="M609" s="81"/>
+        <v>1835</v>
+      </c>
+      <c r="J609" s="104">
+        <v>1</v>
+      </c>
+      <c r="K609" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y609" s="77">
+        <v>11</v>
+      </c>
       <c r="AB609" s="136"/>
       <c r="AC609" s="143"/>
       <c r="AD609" s="136"/>
     </row>
-    <row r="610" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A610" s="19">
-        <v>74100</v>
+    <row r="610" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="130">
+        <v>74000</v>
       </c>
       <c r="B610" s="98" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C610" s="98" t="s">
-        <v>1837</v>
-      </c>
-      <c r="H610" s="104">
-        <v>1</v>
-      </c>
-      <c r="I610" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="M610" s="52"/>
+        <v>1836</v>
+      </c>
+      <c r="E610" s="30"/>
+      <c r="F610" s="100">
+        <v>6</v>
+      </c>
+      <c r="G610" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="I610" s="22"/>
+      <c r="K610" s="22"/>
+      <c r="M610" s="81"/>
       <c r="AB610" s="136"/>
       <c r="AC610" s="143"/>
       <c r="AD610" s="136"/>
     </row>
-    <row r="611" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A611" s="19">
-        <v>74110</v>
-      </c>
-      <c r="B611" s="133" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C611" s="133" t="s">
-        <v>1838</v>
-      </c>
-      <c r="J611" s="104">
+        <v>74100</v>
+      </c>
+      <c r="B611" s="98" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C611" s="98" t="s">
+        <v>1837</v>
+      </c>
+      <c r="H611" s="104">
         <v>1</v>
       </c>
-      <c r="K611" s="10" t="s">
-        <v>513</v>
+      <c r="I611" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="M611" s="52"/>
-      <c r="N611" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O611" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y611" s="77">
-        <v>13</v>
-      </c>
-      <c r="AA611" s="94" t="s">
-        <v>611</v>
-      </c>
       <c r="AB611" s="136"/>
       <c r="AC611" s="143"/>
       <c r="AD611" s="136"/>
     </row>
     <row r="612" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A612" s="19">
-        <v>74120</v>
+        <v>74110</v>
       </c>
       <c r="B612" s="133" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C612" s="133" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="J612" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K612" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M612" s="52"/>
       <c r="N612" s="54" t="s">
@@ -25244,20 +25231,21 @@
     </row>
     <row r="613" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A613" s="19">
-        <v>74130</v>
+        <v>74120</v>
       </c>
       <c r="B613" s="133" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C613" s="133" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="J613" s="104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K613" s="10" t="s">
-        <v>515</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="M613" s="52"/>
       <c r="N613" s="54" t="s">
         <v>346</v>
       </c>
@@ -25276,22 +25264,20 @@
     </row>
     <row r="614" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A614" s="19">
-        <v>74140</v>
+        <v>74130</v>
       </c>
       <c r="B614" s="133" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C614" s="133" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="J614" s="104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K614" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="L614" s="104"/>
-      <c r="M614" s="10"/>
+        <v>515</v>
+      </c>
       <c r="N614" s="54" t="s">
         <v>346</v>
       </c>
@@ -25310,19 +25296,19 @@
     </row>
     <row r="615" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A615" s="19">
-        <v>74150</v>
+        <v>74140</v>
       </c>
       <c r="B615" s="133" t="s">
-        <v>1892</v>
+        <v>1201</v>
       </c>
       <c r="C615" s="133" t="s">
-        <v>1893</v>
+        <v>1841</v>
       </c>
       <c r="J615" s="104">
-        <v>5</v>
-      </c>
-      <c r="K615" s="87" t="s">
-        <v>510</v>
+        <v>4</v>
+      </c>
+      <c r="K615" s="10" t="s">
+        <v>516</v>
       </c>
       <c r="L615" s="104"/>
       <c r="M615" s="10"/>
@@ -25335,145 +25321,149 @@
       <c r="Y615" s="77">
         <v>13</v>
       </c>
+      <c r="AA615" s="94" t="s">
+        <v>611</v>
+      </c>
       <c r="AB615" s="136"/>
       <c r="AC615" s="143"/>
       <c r="AD615" s="136"/>
     </row>
-    <row r="616" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A616" s="19">
-        <v>74200</v>
-      </c>
-      <c r="B616" s="98" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C616" s="98" t="s">
-        <v>1842</v>
-      </c>
-      <c r="H616" s="104">
-        <v>2</v>
-      </c>
-      <c r="I616" s="10" t="s">
-        <v>545</v>
+        <v>74150</v>
+      </c>
+      <c r="B616" s="133" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C616" s="133" t="s">
+        <v>1893</v>
+      </c>
+      <c r="J616" s="104">
+        <v>5</v>
+      </c>
+      <c r="K616" s="87" t="s">
+        <v>510</v>
+      </c>
+      <c r="L616" s="104"/>
+      <c r="M616" s="10"/>
+      <c r="N616" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O616" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y616" s="77">
+        <v>13</v>
       </c>
       <c r="AB616" s="136"/>
       <c r="AC616" s="143"/>
       <c r="AD616" s="136"/>
     </row>
-    <row r="617" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A617" s="19">
-        <v>74210</v>
+        <v>74200</v>
       </c>
       <c r="B617" s="98" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C617" s="98" t="s">
-        <v>1843</v>
-      </c>
-      <c r="J617" s="104">
-        <v>1</v>
-      </c>
-      <c r="K617" s="87" t="s">
-        <v>510</v>
+        <v>1842</v>
+      </c>
+      <c r="H617" s="104">
+        <v>2</v>
+      </c>
+      <c r="I617" s="10" t="s">
+        <v>545</v>
       </c>
       <c r="AB617" s="136"/>
       <c r="AC617" s="143"/>
       <c r="AD617" s="136"/>
     </row>
-    <row r="618" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A618" s="130">
-        <v>75000</v>
+    <row r="618" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A618" s="19">
+        <v>74210</v>
       </c>
       <c r="B618" s="98" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C618" s="98" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E618" s="30"/>
-      <c r="F618" s="100">
-        <v>7</v>
-      </c>
-      <c r="G618" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="I618" s="22"/>
-      <c r="K618" s="22"/>
-      <c r="M618" s="47"/>
+        <v>1843</v>
+      </c>
+      <c r="J618" s="104">
+        <v>1</v>
+      </c>
+      <c r="K618" s="87" t="s">
+        <v>510</v>
+      </c>
       <c r="AB618" s="136"/>
       <c r="AC618" s="143"/>
       <c r="AD618" s="136"/>
     </row>
-    <row r="619" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A619" s="19">
-        <v>75100</v>
+    <row r="619" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A619" s="130">
+        <v>75000</v>
       </c>
       <c r="B619" s="98" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C619" s="98" t="s">
-        <v>1845</v>
-      </c>
-      <c r="H619" s="104">
-        <v>1</v>
-      </c>
-      <c r="I619" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="N619" s="55"/>
-      <c r="O619" s="36"/>
-      <c r="P619" s="58"/>
-      <c r="Q619" s="61"/>
+        <v>1844</v>
+      </c>
+      <c r="E619" s="30"/>
+      <c r="F619" s="100">
+        <v>7</v>
+      </c>
+      <c r="G619" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="I619" s="22"/>
+      <c r="K619" s="22"/>
+      <c r="M619" s="47"/>
       <c r="AB619" s="136"/>
       <c r="AC619" s="143"/>
       <c r="AD619" s="136"/>
     </row>
-    <row r="620" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A620" s="19">
-        <v>75110</v>
+        <v>75100</v>
       </c>
       <c r="B620" s="98" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C620" s="98" t="s">
-        <v>1846</v>
-      </c>
-      <c r="J620" s="104">
+        <v>1845</v>
+      </c>
+      <c r="H620" s="104">
         <v>1</v>
       </c>
-      <c r="K620" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="M620" s="52"/>
-      <c r="Y620" s="77">
-        <v>2</v>
-      </c>
+      <c r="I620" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N620" s="55"/>
+      <c r="O620" s="36"/>
+      <c r="P620" s="58"/>
+      <c r="Q620" s="61"/>
       <c r="AB620" s="136"/>
       <c r="AC620" s="143"/>
       <c r="AD620" s="136"/>
     </row>
     <row r="621" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A621" s="19">
-        <v>75120</v>
+        <v>75110</v>
       </c>
       <c r="B621" s="98" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C621" s="98" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="J621" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K621" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M621" s="52"/>
-      <c r="N621" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O621" s="28" t="s">
-        <v>346</v>
-      </c>
       <c r="Y621" s="77">
         <v>2</v>
       </c>
@@ -25483,20 +25473,21 @@
     </row>
     <row r="622" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A622" s="19">
-        <v>75130</v>
-      </c>
-      <c r="B622" s="133" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C622" s="133" t="s">
-        <v>1895</v>
+        <v>75120</v>
+      </c>
+      <c r="B622" s="98" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C622" s="98" t="s">
+        <v>1847</v>
       </c>
       <c r="J622" s="104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K622" s="14" t="s">
-        <v>533</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="M622" s="52"/>
       <c r="N622" s="54" t="s">
         <v>346</v>
       </c>
@@ -25510,57 +25501,57 @@
       <c r="AC622" s="143"/>
       <c r="AD622" s="136"/>
     </row>
-    <row r="623" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:30" ht="14.1" customHeight="1" outlineLevel="4" x14ac:dyDescent="0.2">
       <c r="A623" s="19">
-        <v>75200</v>
-      </c>
-      <c r="B623" s="98" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C623" s="98" t="s">
-        <v>1848</v>
-      </c>
-      <c r="H623" s="104">
+        <v>75130</v>
+      </c>
+      <c r="B623" s="133" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C623" s="133" t="s">
+        <v>1895</v>
+      </c>
+      <c r="J623" s="104">
+        <v>3</v>
+      </c>
+      <c r="K623" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="N623" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O623" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y623" s="77">
         <v>2</v>
-      </c>
-      <c r="I623" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K623" s="14"/>
-      <c r="N623" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O623" s="28" t="s">
-        <v>346</v>
       </c>
       <c r="AB623" s="136"/>
       <c r="AC623" s="143"/>
       <c r="AD623" s="136"/>
     </row>
-    <row r="624" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A624" s="19">
-        <v>75210</v>
+        <v>75200</v>
       </c>
       <c r="B624" s="98" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C624" s="98" t="s">
-        <v>1849</v>
-      </c>
-      <c r="J624" s="104">
-        <v>1</v>
-      </c>
-      <c r="K624" s="14" t="s">
-        <v>534</v>
-      </c>
+        <v>1848</v>
+      </c>
+      <c r="H624" s="104">
+        <v>2</v>
+      </c>
+      <c r="I624" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="K624" s="14"/>
       <c r="N624" s="54" t="s">
         <v>346</v>
       </c>
       <c r="O624" s="28" t="s">
         <v>346</v>
-      </c>
-      <c r="Y624" s="77">
-        <v>14</v>
       </c>
       <c r="AB624" s="136"/>
       <c r="AC624" s="143"/>
@@ -25568,19 +25559,19 @@
     </row>
     <row r="625" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A625" s="19">
-        <v>75220</v>
+        <v>75210</v>
       </c>
       <c r="B625" s="98" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C625" s="98" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="J625" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K625" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N625" s="54" t="s">
         <v>346</v>
@@ -25597,19 +25588,19 @@
     </row>
     <row r="626" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A626" s="19">
-        <v>75230</v>
+        <v>75220</v>
       </c>
       <c r="B626" s="98" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C626" s="98" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="J626" s="104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K626" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N626" s="54" t="s">
         <v>346</v>
@@ -25626,19 +25617,19 @@
     </row>
     <row r="627" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A627" s="19">
-        <v>75240</v>
+        <v>75230</v>
       </c>
       <c r="B627" s="98" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C627" s="98" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="J627" s="104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K627" s="14" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="N627" s="54" t="s">
         <v>346</v>
@@ -25653,71 +25644,71 @@
       <c r="AC627" s="143"/>
       <c r="AD627" s="136"/>
     </row>
-    <row r="628" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A628" s="19">
-        <v>75300</v>
+        <v>75240</v>
       </c>
       <c r="B628" s="98" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C628" s="98" t="s">
-        <v>1853</v>
-      </c>
-      <c r="H628" s="104">
-        <v>3</v>
-      </c>
-      <c r="I628" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="K628" s="14"/>
+        <v>1852</v>
+      </c>
+      <c r="J628" s="104">
+        <v>4</v>
+      </c>
+      <c r="K628" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="N628" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O628" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y628" s="77">
+        <v>14</v>
+      </c>
       <c r="AB628" s="136"/>
       <c r="AC628" s="143"/>
       <c r="AD628" s="136"/>
     </row>
-    <row r="629" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A629" s="19">
-        <v>75310</v>
+        <v>75300</v>
       </c>
       <c r="B629" s="98" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C629" s="98" t="s">
-        <v>1854</v>
-      </c>
-      <c r="J629" s="104">
-        <v>1</v>
-      </c>
-      <c r="K629" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="N629" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O629" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y629" s="77">
-        <v>15</v>
-      </c>
+        <v>1853</v>
+      </c>
+      <c r="H629" s="104">
+        <v>3</v>
+      </c>
+      <c r="I629" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K629" s="14"/>
       <c r="AB629" s="136"/>
       <c r="AC629" s="143"/>
       <c r="AD629" s="136"/>
     </row>
     <row r="630" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A630" s="19">
-        <v>75320</v>
+        <v>75310</v>
       </c>
       <c r="B630" s="98" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C630" s="98" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="J630" s="104">
-        <v>2</v>
-      </c>
-      <c r="K630" s="10" t="s">
-        <v>542</v>
+        <v>1</v>
+      </c>
+      <c r="K630" s="14" t="s">
+        <v>541</v>
       </c>
       <c r="N630" s="54" t="s">
         <v>346</v>
@@ -25732,120 +25723,120 @@
       <c r="AC630" s="143"/>
       <c r="AD630" s="136"/>
     </row>
-    <row r="631" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A631" s="19">
-        <v>75400</v>
+        <v>75320</v>
       </c>
       <c r="B631" s="98" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C631" s="98" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H631" s="104">
-        <v>4</v>
-      </c>
-      <c r="I631" s="10" t="s">
-        <v>362</v>
+        <v>1855</v>
+      </c>
+      <c r="J631" s="104">
+        <v>2</v>
+      </c>
+      <c r="K631" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="N631" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O631" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y631" s="77">
+        <v>15</v>
       </c>
       <c r="AB631" s="136"/>
       <c r="AC631" s="143"/>
       <c r="AD631" s="136"/>
     </row>
-    <row r="632" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A632" s="19">
-        <v>75410</v>
+        <v>75400</v>
       </c>
       <c r="B632" s="98" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C632" s="98" t="s">
-        <v>1857</v>
-      </c>
-      <c r="J632" s="104">
-        <v>1</v>
-      </c>
-      <c r="K632" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="N632" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O632" s="28" t="s">
-        <v>346</v>
+        <v>1856</v>
+      </c>
+      <c r="H632" s="104">
+        <v>4</v>
+      </c>
+      <c r="I632" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="AB632" s="136"/>
       <c r="AC632" s="143"/>
       <c r="AD632" s="136"/>
     </row>
-    <row r="633" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A633" s="130">
-        <v>76000</v>
+    <row r="633" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A633" s="19">
+        <v>75410</v>
       </c>
       <c r="B633" s="98" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C633" s="98" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E633" s="30"/>
-      <c r="F633" s="100">
-        <v>8</v>
-      </c>
-      <c r="G633" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="I633" s="22"/>
-      <c r="K633" s="22"/>
-      <c r="M633" s="47"/>
+        <v>1857</v>
+      </c>
+      <c r="J633" s="104">
+        <v>1</v>
+      </c>
+      <c r="K633" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="N633" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O633" s="28" t="s">
+        <v>346</v>
+      </c>
       <c r="AB633" s="136"/>
       <c r="AC633" s="143"/>
       <c r="AD633" s="136"/>
     </row>
-    <row r="634" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A634" s="19">
-        <v>76100</v>
+    <row r="634" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="130">
+        <v>76000</v>
       </c>
       <c r="B634" s="98" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C634" s="98" t="s">
-        <v>1859</v>
-      </c>
-      <c r="H634" s="104">
-        <v>1</v>
-      </c>
-      <c r="I634" s="10" t="s">
-        <v>404</v>
-      </c>
+        <v>1858</v>
+      </c>
+      <c r="E634" s="30"/>
+      <c r="F634" s="100">
+        <v>8</v>
+      </c>
+      <c r="G634" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="I634" s="22"/>
+      <c r="K634" s="22"/>
+      <c r="M634" s="47"/>
       <c r="AB634" s="136"/>
       <c r="AC634" s="143"/>
       <c r="AD634" s="136"/>
     </row>
-    <row r="635" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A635" s="19">
-        <v>76110</v>
+        <v>76100</v>
       </c>
       <c r="B635" s="98" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C635" s="98" t="s">
-        <v>1860</v>
-      </c>
-      <c r="J635" s="104">
+        <v>1859</v>
+      </c>
+      <c r="H635" s="104">
         <v>1</v>
       </c>
-      <c r="K635" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="N635" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O635" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y635" s="77">
-        <v>6</v>
+      <c r="I635" s="10" t="s">
+        <v>404</v>
       </c>
       <c r="AB635" s="136"/>
       <c r="AC635" s="143"/>
@@ -25853,169 +25844,172 @@
     </row>
     <row r="636" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A636" s="19">
-        <v>76120</v>
+        <v>76110</v>
       </c>
       <c r="B636" s="98" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C636" s="98" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="J636" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K636" s="10" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="N636" s="54" t="s">
         <v>346</v>
       </c>
       <c r="O636" s="28" t="s">
         <v>346</v>
+      </c>
+      <c r="Y636" s="77">
+        <v>6</v>
       </c>
       <c r="AB636" s="136"/>
       <c r="AC636" s="143"/>
       <c r="AD636" s="136"/>
     </row>
-    <row r="637" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A637" s="19">
-        <v>76200</v>
+        <v>76120</v>
       </c>
       <c r="B637" s="98" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C637" s="98" t="s">
-        <v>1862</v>
-      </c>
-      <c r="H637" s="104">
+        <v>1861</v>
+      </c>
+      <c r="J637" s="104">
         <v>2</v>
       </c>
-      <c r="I637" s="10" t="s">
-        <v>154</v>
+      <c r="K637" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="N637" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O637" s="28" t="s">
+        <v>346</v>
       </c>
       <c r="AB637" s="136"/>
       <c r="AC637" s="143"/>
       <c r="AD637" s="136"/>
     </row>
-    <row r="638" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A638" s="19">
-        <v>76210</v>
+        <v>76200</v>
       </c>
       <c r="B638" s="98" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C638" s="98" t="s">
-        <v>1863</v>
-      </c>
-      <c r="J638" s="104">
-        <v>1</v>
-      </c>
-      <c r="K638" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="N638" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O638" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y638" s="77">
-        <v>6</v>
+        <v>1862</v>
+      </c>
+      <c r="H638" s="104">
+        <v>2</v>
+      </c>
+      <c r="I638" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="AB638" s="136"/>
       <c r="AC638" s="143"/>
       <c r="AD638" s="136"/>
     </row>
-    <row r="639" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A639" s="19">
-        <v>76300</v>
+        <v>76210</v>
       </c>
       <c r="B639" s="98" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C639" s="98" t="s">
-        <v>1864</v>
-      </c>
-      <c r="H639" s="104">
-        <v>3</v>
-      </c>
-      <c r="I639" s="10" t="s">
-        <v>148</v>
+        <v>1863</v>
+      </c>
+      <c r="J639" s="104">
+        <v>1</v>
+      </c>
+      <c r="K639" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="N639" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O639" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y639" s="77">
+        <v>6</v>
       </c>
       <c r="AB639" s="136"/>
       <c r="AC639" s="143"/>
       <c r="AD639" s="136"/>
     </row>
-    <row r="640" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A640" s="19">
-        <v>76310</v>
+        <v>76300</v>
       </c>
       <c r="B640" s="98" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C640" s="98" t="s">
-        <v>1865</v>
-      </c>
-      <c r="J640" s="104">
-        <v>1</v>
-      </c>
-      <c r="K640" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="N640" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O640" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="Y640" s="77">
-        <v>6</v>
+        <v>1864</v>
+      </c>
+      <c r="H640" s="104">
+        <v>3</v>
+      </c>
+      <c r="I640" s="10" t="s">
+        <v>148</v>
       </c>
       <c r="AB640" s="136"/>
       <c r="AC640" s="143"/>
       <c r="AD640" s="136"/>
     </row>
-    <row r="641" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A641" s="19">
-        <v>76400</v>
+        <v>76310</v>
       </c>
       <c r="B641" s="98" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C641" s="98" t="s">
-        <v>1866</v>
-      </c>
-      <c r="H641" s="104">
-        <v>4</v>
-      </c>
-      <c r="I641" s="10" t="s">
-        <v>336</v>
+        <v>1865</v>
+      </c>
+      <c r="J641" s="104">
+        <v>1</v>
+      </c>
+      <c r="K641" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="N641" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O641" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y641" s="77">
+        <v>6</v>
       </c>
       <c r="AB641" s="136"/>
       <c r="AC641" s="143"/>
       <c r="AD641" s="136"/>
     </row>
-    <row r="642" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A642" s="19">
-        <v>76410</v>
+        <v>76400</v>
       </c>
       <c r="B642" s="98" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C642" s="98" t="s">
-        <v>1867</v>
-      </c>
-      <c r="J642" s="104">
-        <v>1</v>
-      </c>
-      <c r="K642" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="N642" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O642" s="28" t="s">
-        <v>346</v>
+        <v>1866</v>
+      </c>
+      <c r="H642" s="104">
+        <v>4</v>
+      </c>
+      <c r="I642" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="AB642" s="136"/>
       <c r="AC642" s="143"/>
@@ -26023,19 +26017,19 @@
     </row>
     <row r="643" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A643" s="19">
-        <v>76420</v>
+        <v>76410</v>
       </c>
       <c r="B643" s="98" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C643" s="98" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="J643" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K643" s="10" t="s">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="N643" s="54" t="s">
         <v>346</v>
@@ -26047,47 +26041,47 @@
       <c r="AC643" s="143"/>
       <c r="AD643" s="136"/>
     </row>
-    <row r="644" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A644" s="19">
-        <v>76500</v>
+        <v>76420</v>
       </c>
       <c r="B644" s="98" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C644" s="98" t="s">
-        <v>1869</v>
-      </c>
-      <c r="H644" s="104">
-        <v>5</v>
-      </c>
-      <c r="I644" s="10" t="s">
-        <v>335</v>
+        <v>1868</v>
+      </c>
+      <c r="J644" s="104">
+        <v>2</v>
+      </c>
+      <c r="K644" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="N644" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O644" s="28" t="s">
+        <v>346</v>
       </c>
       <c r="AB644" s="136"/>
       <c r="AC644" s="143"/>
       <c r="AD644" s="136"/>
     </row>
-    <row r="645" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A645" s="19">
-        <v>76510</v>
+        <v>76500</v>
       </c>
       <c r="B645" s="98" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C645" s="98" t="s">
-        <v>1870</v>
-      </c>
-      <c r="J645" s="104">
-        <v>1</v>
-      </c>
-      <c r="K645" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="N645" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O645" s="28" t="s">
-        <v>346</v>
+        <v>1869</v>
+      </c>
+      <c r="H645" s="104">
+        <v>5</v>
+      </c>
+      <c r="I645" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="AB645" s="136"/>
       <c r="AC645" s="143"/>
@@ -26095,19 +26089,19 @@
     </row>
     <row r="646" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A646" s="19">
-        <v>76520</v>
+        <v>76510</v>
       </c>
       <c r="B646" s="98" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C646" s="98" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="J646" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K646" s="10" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="N646" s="54" t="s">
         <v>346</v>
@@ -26119,274 +26113,272 @@
       <c r="AC646" s="143"/>
       <c r="AD646" s="136"/>
     </row>
-    <row r="647" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A647" s="19">
-        <v>76600</v>
+        <v>76520</v>
       </c>
       <c r="B647" s="98" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C647" s="98" t="s">
-        <v>1872</v>
-      </c>
-      <c r="H647" s="104">
-        <v>6</v>
-      </c>
-      <c r="I647" s="87" t="s">
-        <v>394</v>
+        <v>1871</v>
+      </c>
+      <c r="J647" s="104">
+        <v>2</v>
+      </c>
+      <c r="K647" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="N647" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O647" s="28" t="s">
+        <v>346</v>
       </c>
       <c r="AB647" s="136"/>
       <c r="AC647" s="143"/>
       <c r="AD647" s="136"/>
     </row>
-    <row r="648" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A648" s="19">
-        <v>76610</v>
+        <v>76600</v>
       </c>
       <c r="B648" s="98" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C648" s="98" t="s">
-        <v>1873</v>
-      </c>
-      <c r="I648" s="14"/>
-      <c r="J648" s="104">
-        <v>1</v>
-      </c>
-      <c r="K648" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="N648" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O648" s="28" t="s">
-        <v>346</v>
+        <v>1872</v>
+      </c>
+      <c r="H648" s="104">
+        <v>6</v>
+      </c>
+      <c r="I648" s="87" t="s">
+        <v>394</v>
       </c>
       <c r="AB648" s="136"/>
       <c r="AC648" s="143"/>
       <c r="AD648" s="136"/>
     </row>
-    <row r="649" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A649" s="130">
-        <v>77000</v>
+    <row r="649" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A649" s="19">
+        <v>76610</v>
       </c>
       <c r="B649" s="98" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C649" s="98" t="s">
-        <v>1874</v>
-      </c>
-      <c r="E649" s="30"/>
-      <c r="F649" s="100">
-        <v>9</v>
-      </c>
-      <c r="G649" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="I649" s="22"/>
-      <c r="K649" s="22"/>
-      <c r="M649" s="47"/>
+        <v>1873</v>
+      </c>
+      <c r="I649" s="14"/>
+      <c r="J649" s="104">
+        <v>1</v>
+      </c>
+      <c r="K649" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="N649" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O649" s="28" t="s">
+        <v>346</v>
+      </c>
       <c r="AB649" s="136"/>
       <c r="AC649" s="143"/>
       <c r="AD649" s="136"/>
     </row>
-    <row r="650" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A650" s="19">
-        <v>77100</v>
+    <row r="650" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A650" s="130">
+        <v>77000</v>
       </c>
       <c r="B650" s="98" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C650" s="98" t="s">
-        <v>1875</v>
-      </c>
-      <c r="E650" s="33"/>
-      <c r="G650" s="33"/>
-      <c r="H650" s="104">
-        <v>1</v>
-      </c>
-      <c r="I650" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="N650" s="55"/>
-      <c r="O650" s="36"/>
+        <v>1874</v>
+      </c>
+      <c r="E650" s="30"/>
+      <c r="F650" s="100">
+        <v>9</v>
+      </c>
+      <c r="G650" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I650" s="22"/>
+      <c r="K650" s="22"/>
+      <c r="M650" s="47"/>
       <c r="AB650" s="136"/>
       <c r="AC650" s="143"/>
       <c r="AD650" s="136"/>
     </row>
-    <row r="651" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A651" s="19">
-        <v>77110</v>
+        <v>77100</v>
       </c>
       <c r="B651" s="98" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C651" s="98" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="E651" s="33"/>
       <c r="G651" s="33"/>
-      <c r="I651" s="14"/>
-      <c r="J651" s="104">
+      <c r="H651" s="104">
         <v>1</v>
       </c>
-      <c r="K651" s="87" t="s">
-        <v>397</v>
-      </c>
-      <c r="M651" s="46"/>
-      <c r="N651" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O651" s="28" t="s">
-        <v>346</v>
-      </c>
+      <c r="I651" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="N651" s="55"/>
+      <c r="O651" s="36"/>
       <c r="AB651" s="136"/>
       <c r="AC651" s="143"/>
       <c r="AD651" s="136"/>
     </row>
-    <row r="652" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A652" s="19">
-        <v>77200</v>
+        <v>77110</v>
       </c>
       <c r="B652" s="98" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C652" s="98" t="s">
-        <v>1877</v>
-      </c>
-      <c r="H652" s="104">
-        <v>2</v>
-      </c>
-      <c r="I652" s="87" t="s">
-        <v>394</v>
-      </c>
-      <c r="K652" s="14"/>
+        <v>1876</v>
+      </c>
+      <c r="E652" s="33"/>
+      <c r="G652" s="33"/>
+      <c r="I652" s="14"/>
+      <c r="J652" s="104">
+        <v>1</v>
+      </c>
+      <c r="K652" s="87" t="s">
+        <v>397</v>
+      </c>
       <c r="M652" s="46"/>
+      <c r="N652" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O652" s="28" t="s">
+        <v>346</v>
+      </c>
       <c r="AB652" s="136"/>
       <c r="AC652" s="143"/>
       <c r="AD652" s="136"/>
     </row>
-    <row r="653" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A653" s="19">
-        <v>77210</v>
+        <v>77200</v>
       </c>
       <c r="B653" s="98" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C653" s="98" t="s">
-        <v>1878</v>
-      </c>
-      <c r="I653" s="14"/>
-      <c r="J653" s="104">
-        <v>1</v>
-      </c>
-      <c r="K653" s="87" t="s">
-        <v>393</v>
-      </c>
-      <c r="N653" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O653" s="28" t="s">
-        <v>346</v>
-      </c>
+        <v>1877</v>
+      </c>
+      <c r="H653" s="104">
+        <v>2</v>
+      </c>
+      <c r="I653" s="87" t="s">
+        <v>394</v>
+      </c>
+      <c r="K653" s="14"/>
+      <c r="M653" s="46"/>
       <c r="AB653" s="136"/>
       <c r="AC653" s="143"/>
       <c r="AD653" s="136"/>
     </row>
-    <row r="654" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A654" s="130">
-        <v>78000</v>
+    <row r="654" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A654" s="19">
+        <v>77210</v>
       </c>
       <c r="B654" s="98" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C654" s="98" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E654" s="30"/>
-      <c r="F654" s="100">
-        <v>10</v>
-      </c>
-      <c r="G654" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="I654" s="22"/>
-      <c r="K654" s="22"/>
-      <c r="M654" s="47"/>
+        <v>1878</v>
+      </c>
+      <c r="I654" s="14"/>
+      <c r="J654" s="104">
+        <v>1</v>
+      </c>
+      <c r="K654" s="87" t="s">
+        <v>393</v>
+      </c>
+      <c r="N654" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O654" s="28" t="s">
+        <v>346</v>
+      </c>
       <c r="AB654" s="136"/>
       <c r="AC654" s="143"/>
       <c r="AD654" s="136"/>
     </row>
-    <row r="655" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A655" s="19">
-        <v>78100</v>
+    <row r="655" spans="1:30" ht="14.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="130">
+        <v>78000</v>
       </c>
       <c r="B655" s="98" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C655" s="98" t="s">
-        <v>1776</v>
-      </c>
-      <c r="G655" s="10"/>
-      <c r="H655" s="104">
-        <v>1</v>
-      </c>
-      <c r="I655" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="N655" s="55"/>
-      <c r="O655" s="36"/>
-      <c r="P655" s="58"/>
-      <c r="Q655" s="61"/>
-      <c r="R655" s="39"/>
+        <v>1775</v>
+      </c>
+      <c r="E655" s="30"/>
+      <c r="F655" s="100">
+        <v>10</v>
+      </c>
+      <c r="G655" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="I655" s="22"/>
+      <c r="K655" s="22"/>
+      <c r="M655" s="47"/>
       <c r="AB655" s="136"/>
       <c r="AC655" s="143"/>
       <c r="AD655" s="136"/>
     </row>
-    <row r="656" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:30" ht="14.1" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A656" s="19">
-        <v>78110</v>
+        <v>78100</v>
       </c>
       <c r="B656" s="98" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C656" s="98" t="s">
-        <v>1777</v>
-      </c>
-      <c r="I656" s="14"/>
-      <c r="J656" s="104">
+        <v>1776</v>
+      </c>
+      <c r="G656" s="10"/>
+      <c r="H656" s="104">
         <v>1</v>
       </c>
-      <c r="K656" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="L656" s="119"/>
-      <c r="N656" s="54" t="s">
-        <v>346</v>
-      </c>
-      <c r="O656" s="28" t="s">
-        <v>346</v>
-      </c>
+      <c r="I656" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="N656" s="55"/>
+      <c r="O656" s="36"/>
+      <c r="P656" s="58"/>
+      <c r="Q656" s="61"/>
+      <c r="R656" s="39"/>
       <c r="AB656" s="136"/>
       <c r="AC656" s="143"/>
       <c r="AD656" s="136"/>
     </row>
     <row r="657" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A657" s="19">
-        <v>78120</v>
+        <v>78110</v>
       </c>
       <c r="B657" s="98" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C657" s="98" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="I657" s="14"/>
       <c r="J657" s="104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K657" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L657" s="119"/>
       <c r="N657" s="54" t="s">
@@ -26401,20 +26393,20 @@
     </row>
     <row r="658" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A658" s="19">
-        <v>78130</v>
+        <v>78120</v>
       </c>
       <c r="B658" s="98" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C658" s="98" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="I658" s="14"/>
       <c r="J658" s="104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K658" s="19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L658" s="119"/>
       <c r="N658" s="54" t="s">
@@ -26429,19 +26421,20 @@
     </row>
     <row r="659" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A659" s="19">
-        <v>78140</v>
+        <v>78130</v>
       </c>
       <c r="B659" s="98" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C659" s="98" t="s">
-        <v>1780</v>
-      </c>
+        <v>1779</v>
+      </c>
+      <c r="I659" s="14"/>
       <c r="J659" s="104">
-        <v>4</v>
-      </c>
-      <c r="K659" s="87" t="s">
-        <v>395</v>
+        <v>3</v>
+      </c>
+      <c r="K659" s="19" t="s">
+        <v>430</v>
       </c>
       <c r="L659" s="119"/>
       <c r="N659" s="54" t="s">
@@ -26454,21 +26447,47 @@
       <c r="AC659" s="143"/>
       <c r="AD659" s="136"/>
     </row>
-    <row r="660" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:30" ht="14.1" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A660" s="19">
+        <v>78140</v>
+      </c>
+      <c r="B660" s="98" t="s">
+        <v>1244</v>
+      </c>
       <c r="C660" s="98" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J660" s="104">
+        <v>4</v>
+      </c>
+      <c r="K660" s="87" t="s">
+        <v>395</v>
+      </c>
+      <c r="L660" s="119"/>
+      <c r="N660" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="O660" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB660" s="136"/>
+      <c r="AC660" s="143"/>
+      <c r="AD660" s="136"/>
+    </row>
+    <row r="661" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C661" s="98" t="s">
         <v>1958</v>
       </c>
-      <c r="E660" s="29" t="s">
+      <c r="E661" s="29" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="661" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C661" s="8"/>
     </row>
     <row r="662" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C662" s="8"/>
     </row>
-    <row r="663" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C663" s="8"/>
+    </row>
     <row r="664" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="665" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="666" spans="1:30" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26483,6 +26502,7 @@
     <row r="675" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="676" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="677" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E1:I1"/>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Main/Groupe definition.xlsx
@@ -7141,8 +7141,8 @@
   <dimension ref="A1:AS678"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G447" sqref="G447"/>
+      <pane ySplit="4" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y91" sqref="Y91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
@@ -9381,7 +9381,7 @@
       </c>
       <c r="K66" s="14"/>
       <c r="Y66" s="77">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AB66" s="136"/>
       <c r="AC66" s="143"/>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="K70" s="14"/>
       <c r="Y70" s="77">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB70" s="136"/>
       <c r="AC70" s="143"/>
@@ -9534,7 +9534,7 @@
       </c>
       <c r="K73" s="14"/>
       <c r="Y73" s="77">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB73" s="136"/>
       <c r="AC73" s="143"/>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="K78" s="14"/>
       <c r="Y78" s="77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB78" s="136"/>
       <c r="AC78" s="143"/>
@@ -9813,7 +9813,7 @@
       </c>
       <c r="K86" s="14"/>
       <c r="Y86" s="77">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB86" s="136"/>
       <c r="AC86" s="143"/>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="K91" s="14"/>
       <c r="Y91" s="77">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB91" s="136"/>
       <c r="AC91" s="143"/>
